--- a/DataFiles/161201 Self Storage Market Rent Comparison r12.xlsx
+++ b/DataFiles/161201 Self Storage Market Rent Comparison r12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26519"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="0" windowWidth="32540" windowHeight="27340"/>
+    <workbookView xWindow="9100" yWindow="0" windowWidth="32540" windowHeight="27420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -111,12 +111,6 @@
     <t>McArdle Mini Storage</t>
   </si>
   <si>
-    <t>Store it All Self Storage - Lakeway</t>
-  </si>
-  <si>
-    <t>Cube Smart (aka American Mini) - Lakeway</t>
-  </si>
-  <si>
     <t>E-Z Lakeway Storage</t>
   </si>
   <si>
@@ -130,10 +124,6 @@
   </si>
   <si>
     <t>Stor Self Storage</t>
-  </si>
-  <si>
-    <t>CubeSmart 
-(was All-Stor)</t>
   </si>
   <si>
     <t>Extra Space Self Storage</t>
@@ -715,6 +705,15 @@
   </si>
   <si>
     <t>5'x15'</t>
+  </si>
+  <si>
+    <t>CubeSmart (aka American Mini) - Lakeway</t>
+  </si>
+  <si>
+    <t>Store It All Self Storage - Lakeway</t>
+  </si>
+  <si>
+    <t>CubeSmart (was All-Stor)</t>
   </si>
 </sst>
 </file>
@@ -1811,10 +1810,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="4" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1823,7 +1828,38 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1832,23 +1868,282 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1856,363 +2151,67 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3413,8 +3412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y42" workbookViewId="0">
-      <selection activeCell="AQ70" sqref="AQ70"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="BA1" sqref="BA1:BB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -3440,1452 +3439,1452 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="43" customHeight="1">
-      <c r="A1" s="324" t="s">
+      <c r="A1" s="336" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="325"/>
-      <c r="C1" s="326"/>
+      <c r="B1" s="337"/>
+      <c r="C1" s="338"/>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="331" t="s">
+      <c r="E1" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="332"/>
-      <c r="G1" s="308" t="s">
+      <c r="F1" s="329"/>
+      <c r="G1" s="301" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="309"/>
-      <c r="I1" s="235" t="s">
+      <c r="H1" s="302"/>
+      <c r="I1" s="248" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="236"/>
-      <c r="K1" s="235" t="s">
+      <c r="J1" s="249"/>
+      <c r="K1" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="236"/>
-      <c r="M1" s="235" t="s">
+      <c r="L1" s="249"/>
+      <c r="M1" s="248" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="236"/>
-      <c r="O1" s="235" t="s">
+      <c r="N1" s="249"/>
+      <c r="O1" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="236"/>
-      <c r="Q1" s="235" t="s">
+      <c r="P1" s="249"/>
+      <c r="Q1" s="248" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="236"/>
-      <c r="S1" s="235" t="s">
+      <c r="R1" s="249"/>
+      <c r="S1" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="236"/>
-      <c r="U1" s="235" t="s">
+      <c r="T1" s="249"/>
+      <c r="U1" s="248" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="236"/>
-      <c r="W1" s="235" t="s">
+      <c r="V1" s="249"/>
+      <c r="W1" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="236"/>
-      <c r="Y1" s="357" t="s">
+      <c r="X1" s="249"/>
+      <c r="Y1" s="258" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="236"/>
-      <c r="AA1" s="357" t="s">
+      <c r="Z1" s="249"/>
+      <c r="AA1" s="258" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="236"/>
-      <c r="AC1" s="308" t="s">
+      <c r="AB1" s="249"/>
+      <c r="AC1" s="301" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" s="309"/>
-      <c r="AE1" s="319" t="s">
+      <c r="AD1" s="302"/>
+      <c r="AE1" s="330" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" s="236"/>
-      <c r="AG1" s="273" t="s">
+      <c r="AF1" s="249"/>
+      <c r="AG1" s="297" t="s">
         <v>8</v>
       </c>
-      <c r="AH1" s="274"/>
-      <c r="AI1" s="245" t="s">
+      <c r="AH1" s="298"/>
+      <c r="AI1" s="295" t="s">
         <v>9</v>
       </c>
-      <c r="AJ1" s="246"/>
-      <c r="AK1" s="273" t="s">
+      <c r="AJ1" s="296"/>
+      <c r="AK1" s="297" t="s">
         <v>10</v>
       </c>
-      <c r="AL1" s="274"/>
-      <c r="AM1" s="245" t="s">
+      <c r="AL1" s="298"/>
+      <c r="AM1" s="295" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN1" s="296"/>
+      <c r="AO1" s="301" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP1" s="302"/>
+      <c r="AQ1" s="295" t="s">
         <v>11</v>
       </c>
-      <c r="AN1" s="246"/>
-      <c r="AO1" s="308" t="s">
+      <c r="AR1" s="296"/>
+      <c r="AS1" s="297" t="s">
         <v>12</v>
       </c>
-      <c r="AP1" s="309"/>
-      <c r="AQ1" s="245" t="s">
+      <c r="AT1" s="298"/>
+      <c r="AU1" s="295" t="s">
         <v>13</v>
       </c>
-      <c r="AR1" s="246"/>
-      <c r="AS1" s="273" t="s">
+      <c r="AV1" s="296"/>
+      <c r="AW1" s="301" t="s">
         <v>14</v>
       </c>
-      <c r="AT1" s="274"/>
-      <c r="AU1" s="245" t="s">
+      <c r="AX1" s="302"/>
+      <c r="AY1" s="295" t="s">
         <v>15</v>
       </c>
-      <c r="AV1" s="246"/>
-      <c r="AW1" s="308" t="s">
+      <c r="AZ1" s="296"/>
+      <c r="BA1" s="326" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB1" s="327"/>
+      <c r="BC1" s="295" t="s">
         <v>16</v>
       </c>
-      <c r="AX1" s="309"/>
-      <c r="AY1" s="245" t="s">
+      <c r="BD1" s="296"/>
+      <c r="BE1" s="295" t="s">
         <v>17</v>
       </c>
-      <c r="AZ1" s="246"/>
-      <c r="BA1" s="329" t="s">
+      <c r="BF1" s="296"/>
+      <c r="BG1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="BB1" s="330"/>
-      <c r="BC1" s="245" t="s">
+      <c r="BH1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="BD1" s="246"/>
-      <c r="BE1" s="245" t="s">
-        <v>20</v>
-      </c>
-      <c r="BF1" s="246"/>
-      <c r="BG1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="BH1" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="BI1" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:61" ht="42" customHeight="1">
-      <c r="A2" s="321" t="s">
+      <c r="A2" s="333" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="334"/>
+      <c r="C2" s="335"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="277"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="274" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="275"/>
+      <c r="I2" s="246" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="247"/>
+      <c r="K2" s="250"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="246" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="247"/>
+      <c r="O2" s="250"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="246" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="247"/>
+      <c r="S2" s="250"/>
+      <c r="T2" s="247"/>
+      <c r="U2" s="246" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="247"/>
+      <c r="W2" s="250"/>
+      <c r="X2" s="247"/>
+      <c r="Y2" s="273" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="247"/>
+      <c r="AA2" s="257"/>
+      <c r="AB2" s="247"/>
+      <c r="AC2" s="274" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="322"/>
-      <c r="C2" s="323"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="350"/>
-      <c r="F2" s="351"/>
-      <c r="G2" s="286" t="s">
+      <c r="AD2" s="275"/>
+      <c r="AE2" s="246" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="287"/>
-      <c r="I2" s="318" t="s">
+      <c r="AF2" s="247"/>
+      <c r="AG2" s="274" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="249"/>
-      <c r="K2" s="272"/>
-      <c r="L2" s="249"/>
-      <c r="M2" s="318" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="249"/>
-      <c r="O2" s="272"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="318" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="249"/>
-      <c r="S2" s="272"/>
-      <c r="T2" s="249"/>
-      <c r="U2" s="318" t="s">
-        <v>25</v>
-      </c>
-      <c r="V2" s="249"/>
-      <c r="W2" s="272"/>
-      <c r="X2" s="249"/>
-      <c r="Y2" s="356" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z2" s="249"/>
-      <c r="AA2" s="365"/>
-      <c r="AB2" s="249"/>
-      <c r="AC2" s="286" t="s">
+      <c r="AH2" s="275"/>
+      <c r="AI2" s="246" t="s">
         <v>26</v>
       </c>
-      <c r="AD2" s="287"/>
-      <c r="AE2" s="318" t="s">
+      <c r="AJ2" s="247"/>
+      <c r="AK2" s="274" t="s">
         <v>27</v>
       </c>
-      <c r="AF2" s="249"/>
-      <c r="AG2" s="286" t="s">
+      <c r="AL2" s="275"/>
+      <c r="AM2" s="246" t="s">
         <v>28</v>
       </c>
-      <c r="AH2" s="287"/>
-      <c r="AI2" s="318" t="s">
+      <c r="AN2" s="247"/>
+      <c r="AO2" s="274" t="s">
         <v>29</v>
       </c>
-      <c r="AJ2" s="249"/>
-      <c r="AK2" s="286" t="s">
+      <c r="AP2" s="275"/>
+      <c r="AQ2" s="246" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" s="287"/>
-      <c r="AM2" s="318" t="s">
+      <c r="AR2" s="247"/>
+      <c r="AS2" s="274" t="s">
         <v>31</v>
       </c>
-      <c r="AN2" s="249"/>
-      <c r="AO2" s="286" t="s">
+      <c r="AT2" s="275"/>
+      <c r="AU2" s="246" t="s">
         <v>32</v>
       </c>
-      <c r="AP2" s="287"/>
-      <c r="AQ2" s="318" t="s">
+      <c r="AV2" s="247"/>
+      <c r="AW2" s="274" t="s">
         <v>33</v>
       </c>
-      <c r="AR2" s="249"/>
-      <c r="AS2" s="286" t="s">
+      <c r="AX2" s="275"/>
+      <c r="AY2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AT2" s="287"/>
-      <c r="AU2" s="318" t="s">
+      <c r="AZ2" s="9"/>
+      <c r="BA2" s="341" t="s">
         <v>35</v>
       </c>
-      <c r="AV2" s="249"/>
-      <c r="AW2" s="286" t="s">
+      <c r="BB2" s="342"/>
+      <c r="BC2" s="364" t="s">
         <v>36</v>
       </c>
-      <c r="AX2" s="287"/>
-      <c r="AY2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AZ2" s="9"/>
-      <c r="BA2" s="313" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB2" s="314"/>
-      <c r="BC2" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD2" s="249"/>
-      <c r="BE2" s="272"/>
-      <c r="BF2" s="249"/>
+      <c r="BD2" s="247"/>
+      <c r="BE2" s="250"/>
+      <c r="BF2" s="247"/>
       <c r="BG2" s="10"/>
       <c r="BH2" s="10"/>
       <c r="BI2" s="11"/>
     </row>
     <row r="3" spans="1:61" ht="21.75" customHeight="1">
-      <c r="A3" s="300" t="s">
+      <c r="A3" s="281" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="282"/>
+      <c r="C3" s="283"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="361">
+        <v>0</v>
+      </c>
+      <c r="F3" s="272"/>
+      <c r="G3" s="314" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="265"/>
+      <c r="I3" s="238" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="235"/>
+      <c r="K3" s="234"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="238" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="235"/>
+      <c r="O3" s="234"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="238" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="235"/>
+      <c r="S3" s="234"/>
+      <c r="T3" s="235"/>
+      <c r="U3" s="238" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" s="235"/>
+      <c r="W3" s="234"/>
+      <c r="X3" s="235"/>
+      <c r="Y3" s="256" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z3" s="235"/>
+      <c r="AA3" s="259"/>
+      <c r="AB3" s="235"/>
+      <c r="AC3" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="301"/>
-      <c r="C3" s="302"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="307">
-        <v>0</v>
-      </c>
-      <c r="F3" s="263"/>
-      <c r="G3" s="237" t="s">
+      <c r="AD3" s="265"/>
+      <c r="AE3" s="238" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="238"/>
-      <c r="I3" s="242" t="s">
+      <c r="AF3" s="235"/>
+      <c r="AG3" s="314" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="233"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="233"/>
-      <c r="M3" s="242" t="s">
+      <c r="AH3" s="265"/>
+      <c r="AI3" s="238" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="233"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="233"/>
-      <c r="Q3" s="242" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="233"/>
-      <c r="S3" s="232"/>
-      <c r="T3" s="233"/>
-      <c r="U3" s="242" t="s">
-        <v>42</v>
-      </c>
-      <c r="V3" s="233"/>
-      <c r="W3" s="232"/>
-      <c r="X3" s="233"/>
-      <c r="Y3" s="312" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z3" s="233"/>
-      <c r="AA3" s="277"/>
-      <c r="AB3" s="233"/>
-      <c r="AC3" s="237" t="s">
+      <c r="AJ3" s="235"/>
+      <c r="AK3" s="314" t="s">
         <v>43</v>
       </c>
-      <c r="AD3" s="238"/>
-      <c r="AE3" s="242" t="s">
+      <c r="AL3" s="265"/>
+      <c r="AM3" s="238" t="s">
         <v>44</v>
       </c>
-      <c r="AF3" s="233"/>
-      <c r="AG3" s="237" t="s">
+      <c r="AN3" s="235"/>
+      <c r="AO3" s="314" t="s">
         <v>45</v>
       </c>
-      <c r="AH3" s="238"/>
-      <c r="AI3" s="242" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ3" s="233"/>
-      <c r="AK3" s="237" t="s">
+      <c r="AP3" s="265"/>
+      <c r="AQ3" s="238" t="s">
         <v>46</v>
       </c>
-      <c r="AL3" s="238"/>
-      <c r="AM3" s="242" t="s">
+      <c r="AR3" s="235"/>
+      <c r="AS3" s="314" t="s">
         <v>47</v>
       </c>
-      <c r="AN3" s="233"/>
-      <c r="AO3" s="237" t="s">
+      <c r="AT3" s="265"/>
+      <c r="AU3" s="238" t="s">
         <v>48</v>
       </c>
-      <c r="AP3" s="238"/>
-      <c r="AQ3" s="242" t="s">
+      <c r="AV3" s="235"/>
+      <c r="AW3" s="314" t="s">
         <v>49</v>
       </c>
-      <c r="AR3" s="233"/>
-      <c r="AS3" s="237" t="s">
+      <c r="AX3" s="265"/>
+      <c r="AY3" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="AT3" s="238"/>
-      <c r="AU3" s="242" t="s">
+      <c r="AZ3" s="22"/>
+      <c r="BA3" s="360" t="s">
         <v>51</v>
       </c>
-      <c r="AV3" s="233"/>
-      <c r="AW3" s="237" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX3" s="238"/>
-      <c r="AY3" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="AZ3" s="22"/>
-      <c r="BA3" s="299" t="s">
-        <v>54</v>
-      </c>
-      <c r="BB3" s="244"/>
-      <c r="BC3" s="232"/>
-      <c r="BD3" s="233"/>
-      <c r="BE3" s="232"/>
-      <c r="BF3" s="233"/>
+      <c r="BB3" s="344"/>
+      <c r="BC3" s="234"/>
+      <c r="BD3" s="235"/>
+      <c r="BE3" s="234"/>
+      <c r="BF3" s="235"/>
       <c r="BG3" s="24"/>
       <c r="BH3" s="24"/>
       <c r="BI3" s="11"/>
     </row>
     <row r="4" spans="1:61" ht="41" customHeight="1">
-      <c r="A4" s="300" t="s">
+      <c r="A4" s="281" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="282"/>
+      <c r="C4" s="283"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="279" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="280"/>
+      <c r="G4" s="291" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="290"/>
+      <c r="I4" s="244" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="301"/>
-      <c r="C4" s="302"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="352" t="s">
+      <c r="J4" s="237"/>
+      <c r="K4" s="236"/>
+      <c r="L4" s="237"/>
+      <c r="M4" s="244" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="237"/>
+      <c r="O4" s="236"/>
+      <c r="P4" s="237"/>
+      <c r="Q4" s="244" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" s="237"/>
+      <c r="S4" s="236"/>
+      <c r="T4" s="237"/>
+      <c r="U4" s="244" t="s">
+        <v>55</v>
+      </c>
+      <c r="V4" s="237"/>
+      <c r="W4" s="236"/>
+      <c r="X4" s="237"/>
+      <c r="Y4" s="260" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z4" s="237"/>
+      <c r="AA4" s="269"/>
+      <c r="AB4" s="237"/>
+      <c r="AC4" s="291" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="353"/>
-      <c r="G4" s="260" t="s">
+      <c r="AD4" s="265"/>
+      <c r="AE4" s="240" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="261"/>
-      <c r="I4" s="354" t="s">
+      <c r="AF4" s="241"/>
+      <c r="AG4" s="289" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="355"/>
-      <c r="K4" s="360"/>
-      <c r="L4" s="355"/>
-      <c r="M4" s="354" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="355"/>
-      <c r="O4" s="360"/>
-      <c r="P4" s="355"/>
-      <c r="Q4" s="354" t="s">
-        <v>58</v>
-      </c>
-      <c r="R4" s="355"/>
-      <c r="S4" s="360"/>
-      <c r="T4" s="355"/>
-      <c r="U4" s="354" t="s">
-        <v>58</v>
-      </c>
-      <c r="V4" s="355"/>
-      <c r="W4" s="360"/>
-      <c r="X4" s="355"/>
-      <c r="Y4" s="358" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z4" s="355"/>
-      <c r="AA4" s="317"/>
-      <c r="AB4" s="355"/>
-      <c r="AC4" s="260" t="s">
+      <c r="AH4" s="290"/>
+      <c r="AI4" s="319" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ4" s="320"/>
+      <c r="AK4" s="292"/>
+      <c r="AL4" s="293"/>
+      <c r="AM4" s="240" t="s">
         <v>59</v>
       </c>
-      <c r="AD4" s="238"/>
-      <c r="AE4" s="278" t="s">
+      <c r="AN4" s="241"/>
+      <c r="AO4" s="240" t="s">
         <v>60</v>
       </c>
-      <c r="AF4" s="279"/>
-      <c r="AG4" s="347" t="s">
+      <c r="AP4" s="241"/>
+      <c r="AQ4" s="358" t="s">
         <v>61</v>
       </c>
-      <c r="AH4" s="261"/>
-      <c r="AI4" s="320" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ4" s="269"/>
-      <c r="AK4" s="348"/>
-      <c r="AL4" s="349"/>
-      <c r="AM4" s="278" t="s">
+      <c r="AR4" s="320"/>
+      <c r="AS4" s="294" t="s">
         <v>62</v>
       </c>
-      <c r="AN4" s="279"/>
-      <c r="AO4" s="278" t="s">
+      <c r="AT4" s="290"/>
+      <c r="AU4" s="240" t="s">
         <v>63</v>
       </c>
-      <c r="AP4" s="279"/>
-      <c r="AQ4" s="268" t="s">
+      <c r="AV4" s="241"/>
+      <c r="AW4" s="294" t="s">
         <v>64</v>
       </c>
-      <c r="AR4" s="269"/>
-      <c r="AS4" s="339" t="s">
+      <c r="AX4" s="290"/>
+      <c r="AY4" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="AT4" s="261"/>
-      <c r="AU4" s="278" t="s">
+      <c r="AZ4" s="27"/>
+      <c r="BA4" s="287" t="s">
         <v>66</v>
       </c>
-      <c r="AV4" s="279"/>
-      <c r="AW4" s="339" t="s">
+      <c r="BB4" s="288"/>
+      <c r="BC4" s="319" t="s">
         <v>67</v>
       </c>
-      <c r="AX4" s="261"/>
-      <c r="AY4" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="AZ4" s="27"/>
-      <c r="BA4" s="345" t="s">
-        <v>69</v>
-      </c>
-      <c r="BB4" s="346"/>
-      <c r="BC4" s="320" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD4" s="269"/>
-      <c r="BE4" s="232"/>
-      <c r="BF4" s="233"/>
+      <c r="BD4" s="320"/>
+      <c r="BE4" s="234"/>
+      <c r="BF4" s="235"/>
       <c r="BG4" s="24"/>
       <c r="BH4" s="24"/>
       <c r="BI4" s="11"/>
     </row>
     <row r="5" spans="1:61" ht="17" customHeight="1">
-      <c r="A5" s="300" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="301"/>
-      <c r="C5" s="302"/>
+      <c r="A5" s="281" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="282"/>
+      <c r="C5" s="283"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="327"/>
-      <c r="F5" s="328"/>
-      <c r="G5" s="237" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="293"/>
-      <c r="I5" s="305">
+      <c r="E5" s="362"/>
+      <c r="F5" s="363"/>
+      <c r="G5" s="314" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="309"/>
+      <c r="I5" s="242">
         <v>15</v>
       </c>
-      <c r="J5" s="306"/>
-      <c r="K5" s="305"/>
-      <c r="L5" s="306"/>
-      <c r="M5" s="305">
+      <c r="J5" s="243"/>
+      <c r="K5" s="242"/>
+      <c r="L5" s="243"/>
+      <c r="M5" s="242">
         <v>15</v>
       </c>
-      <c r="N5" s="306"/>
-      <c r="O5" s="305"/>
-      <c r="P5" s="306"/>
-      <c r="Q5" s="305">
+      <c r="N5" s="243"/>
+      <c r="O5" s="242"/>
+      <c r="P5" s="243"/>
+      <c r="Q5" s="242">
         <v>15</v>
       </c>
-      <c r="R5" s="306"/>
-      <c r="S5" s="305"/>
-      <c r="T5" s="306"/>
-      <c r="U5" s="305">
+      <c r="R5" s="243"/>
+      <c r="S5" s="242"/>
+      <c r="T5" s="243"/>
+      <c r="U5" s="242">
         <v>15</v>
       </c>
-      <c r="V5" s="306"/>
-      <c r="W5" s="305"/>
-      <c r="X5" s="306"/>
-      <c r="Y5" s="359">
+      <c r="V5" s="243"/>
+      <c r="W5" s="242"/>
+      <c r="X5" s="243"/>
+      <c r="Y5" s="261">
         <v>15</v>
       </c>
-      <c r="Z5" s="306"/>
-      <c r="AA5" s="359"/>
-      <c r="AB5" s="306"/>
-      <c r="AC5" s="315">
+      <c r="Z5" s="243"/>
+      <c r="AA5" s="261"/>
+      <c r="AB5" s="243"/>
+      <c r="AC5" s="304">
         <v>10</v>
       </c>
-      <c r="AD5" s="316"/>
-      <c r="AE5" s="305">
+      <c r="AD5" s="305"/>
+      <c r="AE5" s="242">
         <v>0</v>
       </c>
-      <c r="AF5" s="306"/>
-      <c r="AG5" s="315">
+      <c r="AF5" s="243"/>
+      <c r="AG5" s="304">
         <v>24</v>
       </c>
-      <c r="AH5" s="316"/>
-      <c r="AI5" s="264"/>
-      <c r="AJ5" s="265"/>
-      <c r="AK5" s="253" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL5" s="316"/>
-      <c r="AM5" s="305">
+      <c r="AH5" s="305"/>
+      <c r="AI5" s="356"/>
+      <c r="AJ5" s="357"/>
+      <c r="AK5" s="264" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL5" s="305"/>
+      <c r="AM5" s="242">
         <v>20</v>
       </c>
-      <c r="AN5" s="306"/>
-      <c r="AO5" s="338"/>
-      <c r="AP5" s="293"/>
-      <c r="AQ5" s="264"/>
-      <c r="AR5" s="265"/>
-      <c r="AS5" s="315">
+      <c r="AN5" s="243"/>
+      <c r="AO5" s="308"/>
+      <c r="AP5" s="309"/>
+      <c r="AQ5" s="356"/>
+      <c r="AR5" s="357"/>
+      <c r="AS5" s="304">
         <v>17</v>
       </c>
-      <c r="AT5" s="316"/>
-      <c r="AU5" s="305">
+      <c r="AT5" s="305"/>
+      <c r="AU5" s="242">
         <v>20</v>
       </c>
-      <c r="AV5" s="306"/>
-      <c r="AW5" s="338"/>
-      <c r="AX5" s="293"/>
+      <c r="AV5" s="243"/>
+      <c r="AW5" s="308"/>
+      <c r="AX5" s="309"/>
       <c r="AY5" s="33"/>
       <c r="AZ5" s="34"/>
-      <c r="BA5" s="334"/>
-      <c r="BB5" s="335"/>
-      <c r="BC5" s="271"/>
-      <c r="BD5" s="265"/>
-      <c r="BE5" s="232"/>
-      <c r="BF5" s="233"/>
+      <c r="BA5" s="317"/>
+      <c r="BB5" s="318"/>
+      <c r="BC5" s="359"/>
+      <c r="BD5" s="357"/>
+      <c r="BE5" s="234"/>
+      <c r="BF5" s="235"/>
       <c r="BG5" s="24"/>
       <c r="BH5" s="24"/>
       <c r="BI5" s="11"/>
     </row>
     <row r="6" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A6" s="300" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="301"/>
-      <c r="C6" s="302"/>
+      <c r="A6" s="281" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="282"/>
+      <c r="C6" s="283"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="262"/>
-      <c r="F6" s="263"/>
-      <c r="G6" s="285" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="238"/>
-      <c r="I6" s="247" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="241"/>
-      <c r="K6" s="240"/>
-      <c r="L6" s="241"/>
-      <c r="M6" s="247" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" s="241"/>
-      <c r="O6" s="240"/>
-      <c r="P6" s="241"/>
-      <c r="Q6" s="247" t="s">
-        <v>76</v>
-      </c>
-      <c r="R6" s="241"/>
-      <c r="S6" s="240"/>
-      <c r="T6" s="241"/>
-      <c r="U6" s="247" t="s">
-        <v>76</v>
-      </c>
-      <c r="V6" s="241"/>
-      <c r="W6" s="240"/>
-      <c r="X6" s="241"/>
-      <c r="Y6" s="312" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z6" s="241"/>
-      <c r="AA6" s="277"/>
-      <c r="AB6" s="241"/>
-      <c r="AC6" s="253" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD6" s="254"/>
-      <c r="AE6" s="240"/>
-      <c r="AF6" s="241"/>
-      <c r="AG6" s="253" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH6" s="254"/>
-      <c r="AI6" s="232"/>
-      <c r="AJ6" s="233"/>
-      <c r="AK6" s="280"/>
-      <c r="AL6" s="254"/>
-      <c r="AM6" s="232"/>
-      <c r="AN6" s="233"/>
-      <c r="AO6" s="257"/>
-      <c r="AP6" s="238"/>
-      <c r="AQ6" s="232"/>
-      <c r="AR6" s="233"/>
-      <c r="AS6" s="257"/>
-      <c r="AT6" s="238"/>
-      <c r="AU6" s="240"/>
-      <c r="AV6" s="241"/>
-      <c r="AW6" s="257"/>
-      <c r="AX6" s="238"/>
+      <c r="E6" s="271"/>
+      <c r="F6" s="272"/>
+      <c r="G6" s="276" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="265"/>
+      <c r="I6" s="239" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="233"/>
+      <c r="K6" s="232"/>
+      <c r="L6" s="233"/>
+      <c r="M6" s="239" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" s="233"/>
+      <c r="O6" s="232"/>
+      <c r="P6" s="233"/>
+      <c r="Q6" s="239" t="s">
+        <v>73</v>
+      </c>
+      <c r="R6" s="233"/>
+      <c r="S6" s="232"/>
+      <c r="T6" s="233"/>
+      <c r="U6" s="239" t="s">
+        <v>73</v>
+      </c>
+      <c r="V6" s="233"/>
+      <c r="W6" s="232"/>
+      <c r="X6" s="233"/>
+      <c r="Y6" s="256" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z6" s="233"/>
+      <c r="AA6" s="259"/>
+      <c r="AB6" s="233"/>
+      <c r="AC6" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD6" s="268"/>
+      <c r="AE6" s="232"/>
+      <c r="AF6" s="233"/>
+      <c r="AG6" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH6" s="268"/>
+      <c r="AI6" s="234"/>
+      <c r="AJ6" s="235"/>
+      <c r="AK6" s="267"/>
+      <c r="AL6" s="268"/>
+      <c r="AM6" s="234"/>
+      <c r="AN6" s="235"/>
+      <c r="AO6" s="270"/>
+      <c r="AP6" s="265"/>
+      <c r="AQ6" s="234"/>
+      <c r="AR6" s="235"/>
+      <c r="AS6" s="270"/>
+      <c r="AT6" s="265"/>
+      <c r="AU6" s="232"/>
+      <c r="AV6" s="233"/>
+      <c r="AW6" s="270"/>
+      <c r="AX6" s="265"/>
       <c r="AY6" s="38"/>
       <c r="AZ6" s="22"/>
-      <c r="BA6" s="243"/>
-      <c r="BB6" s="244"/>
-      <c r="BC6" s="234"/>
-      <c r="BD6" s="233"/>
-      <c r="BE6" s="232"/>
-      <c r="BF6" s="233"/>
+      <c r="BA6" s="343"/>
+      <c r="BB6" s="344"/>
+      <c r="BC6" s="325"/>
+      <c r="BD6" s="235"/>
+      <c r="BE6" s="234"/>
+      <c r="BF6" s="235"/>
       <c r="BG6" s="24"/>
       <c r="BH6" s="24"/>
       <c r="BI6" s="11"/>
     </row>
     <row r="7" spans="1:61" ht="20.5" customHeight="1">
-      <c r="A7" s="300" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="301"/>
-      <c r="C7" s="302"/>
+      <c r="A7" s="281" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="282"/>
+      <c r="C7" s="283"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="284" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="263"/>
-      <c r="G7" s="285" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="238"/>
-      <c r="I7" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="241"/>
-      <c r="K7" s="240"/>
-      <c r="L7" s="241"/>
-      <c r="M7" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="N7" s="241"/>
-      <c r="O7" s="240"/>
-      <c r="P7" s="241"/>
-      <c r="Q7" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="R7" s="241"/>
-      <c r="S7" s="240"/>
-      <c r="T7" s="241"/>
-      <c r="U7" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="V7" s="241"/>
-      <c r="W7" s="240"/>
-      <c r="X7" s="241"/>
-      <c r="Y7" s="312" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z7" s="241"/>
-      <c r="AA7" s="277"/>
-      <c r="AB7" s="241"/>
-      <c r="AC7" s="253" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD7" s="254"/>
-      <c r="AE7" s="240"/>
-      <c r="AF7" s="241"/>
-      <c r="AG7" s="253" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH7" s="254"/>
-      <c r="AI7" s="232"/>
-      <c r="AJ7" s="233"/>
-      <c r="AK7" s="280"/>
-      <c r="AL7" s="254"/>
-      <c r="AM7" s="232"/>
-      <c r="AN7" s="233"/>
-      <c r="AO7" s="253" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP7" s="254"/>
-      <c r="AQ7" s="232"/>
-      <c r="AR7" s="233"/>
-      <c r="AS7" s="257"/>
-      <c r="AT7" s="238"/>
-      <c r="AU7" s="240"/>
-      <c r="AV7" s="241"/>
-      <c r="AW7" s="257"/>
-      <c r="AX7" s="238"/>
+      <c r="E7" s="332" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="272"/>
+      <c r="G7" s="276" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="265"/>
+      <c r="I7" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="233"/>
+      <c r="K7" s="232"/>
+      <c r="L7" s="233"/>
+      <c r="M7" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="233"/>
+      <c r="O7" s="232"/>
+      <c r="P7" s="233"/>
+      <c r="Q7" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="233"/>
+      <c r="S7" s="232"/>
+      <c r="T7" s="233"/>
+      <c r="U7" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="V7" s="233"/>
+      <c r="W7" s="232"/>
+      <c r="X7" s="233"/>
+      <c r="Y7" s="256" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z7" s="233"/>
+      <c r="AA7" s="259"/>
+      <c r="AB7" s="233"/>
+      <c r="AC7" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD7" s="268"/>
+      <c r="AE7" s="232"/>
+      <c r="AF7" s="233"/>
+      <c r="AG7" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH7" s="268"/>
+      <c r="AI7" s="234"/>
+      <c r="AJ7" s="235"/>
+      <c r="AK7" s="267"/>
+      <c r="AL7" s="268"/>
+      <c r="AM7" s="234"/>
+      <c r="AN7" s="235"/>
+      <c r="AO7" s="264" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP7" s="268"/>
+      <c r="AQ7" s="234"/>
+      <c r="AR7" s="235"/>
+      <c r="AS7" s="270"/>
+      <c r="AT7" s="265"/>
+      <c r="AU7" s="232"/>
+      <c r="AV7" s="233"/>
+      <c r="AW7" s="270"/>
+      <c r="AX7" s="265"/>
       <c r="AY7" s="38"/>
       <c r="AZ7" s="22"/>
-      <c r="BA7" s="266" t="s">
-        <v>72</v>
-      </c>
-      <c r="BB7" s="267"/>
-      <c r="BC7" s="234"/>
-      <c r="BD7" s="233"/>
-      <c r="BE7" s="232"/>
-      <c r="BF7" s="233"/>
+      <c r="BA7" s="299" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB7" s="300"/>
+      <c r="BC7" s="325"/>
+      <c r="BD7" s="235"/>
+      <c r="BE7" s="234"/>
+      <c r="BF7" s="235"/>
       <c r="BG7" s="24"/>
       <c r="BH7" s="24"/>
       <c r="BI7" s="11"/>
     </row>
     <row r="8" spans="1:61" ht="16.5" customHeight="1">
-      <c r="A8" s="300" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="301"/>
-      <c r="C8" s="302"/>
+      <c r="A8" s="281" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="282"/>
+      <c r="C8" s="283"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="262"/>
-      <c r="F8" s="263"/>
-      <c r="G8" s="257"/>
-      <c r="H8" s="238"/>
-      <c r="I8" s="247" t="s">
+      <c r="E8" s="271"/>
+      <c r="F8" s="272"/>
+      <c r="G8" s="270"/>
+      <c r="H8" s="265"/>
+      <c r="I8" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="233"/>
+      <c r="K8" s="232"/>
+      <c r="L8" s="233"/>
+      <c r="M8" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="233"/>
+      <c r="O8" s="232"/>
+      <c r="P8" s="233"/>
+      <c r="Q8" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" s="233"/>
+      <c r="S8" s="232"/>
+      <c r="T8" s="233"/>
+      <c r="U8" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="V8" s="233"/>
+      <c r="W8" s="232"/>
+      <c r="X8" s="233"/>
+      <c r="Y8" s="256" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z8" s="233"/>
+      <c r="AA8" s="259"/>
+      <c r="AB8" s="233"/>
+      <c r="AC8" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD8" s="268"/>
+      <c r="AE8" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF8" s="233"/>
+      <c r="AG8" s="264" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH8" s="268"/>
+      <c r="AI8" s="234"/>
+      <c r="AJ8" s="235"/>
+      <c r="AK8" s="270"/>
+      <c r="AL8" s="265"/>
+      <c r="AM8" s="239" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="241"/>
-      <c r="K8" s="240"/>
-      <c r="L8" s="241"/>
-      <c r="M8" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="N8" s="241"/>
-      <c r="O8" s="240"/>
-      <c r="P8" s="241"/>
-      <c r="Q8" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="R8" s="241"/>
-      <c r="S8" s="240"/>
-      <c r="T8" s="241"/>
-      <c r="U8" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="V8" s="241"/>
-      <c r="W8" s="240"/>
-      <c r="X8" s="241"/>
-      <c r="Y8" s="312" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z8" s="241"/>
-      <c r="AA8" s="277"/>
-      <c r="AB8" s="241"/>
-      <c r="AC8" s="253" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD8" s="254"/>
-      <c r="AE8" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF8" s="241"/>
-      <c r="AG8" s="253" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH8" s="254"/>
-      <c r="AI8" s="232"/>
-      <c r="AJ8" s="233"/>
-      <c r="AK8" s="257"/>
-      <c r="AL8" s="238"/>
-      <c r="AM8" s="247" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN8" s="241"/>
-      <c r="AO8" s="257"/>
-      <c r="AP8" s="238"/>
-      <c r="AQ8" s="232"/>
-      <c r="AR8" s="233"/>
-      <c r="AS8" s="257"/>
-      <c r="AT8" s="238"/>
-      <c r="AU8" s="247" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV8" s="241"/>
-      <c r="AW8" s="253" t="s">
-        <v>78</v>
-      </c>
-      <c r="AX8" s="238"/>
+      <c r="AN8" s="233"/>
+      <c r="AO8" s="270"/>
+      <c r="AP8" s="265"/>
+      <c r="AQ8" s="234"/>
+      <c r="AR8" s="235"/>
+      <c r="AS8" s="270"/>
+      <c r="AT8" s="265"/>
+      <c r="AU8" s="239" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV8" s="233"/>
+      <c r="AW8" s="264" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX8" s="265"/>
       <c r="AY8" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AZ8" s="22"/>
-      <c r="BA8" s="243"/>
-      <c r="BB8" s="244"/>
-      <c r="BC8" s="239" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD8" s="233"/>
-      <c r="BE8" s="232"/>
-      <c r="BF8" s="233"/>
+      <c r="BA8" s="343"/>
+      <c r="BB8" s="344"/>
+      <c r="BC8" s="347" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD8" s="235"/>
+      <c r="BE8" s="234"/>
+      <c r="BF8" s="235"/>
       <c r="BG8" s="24"/>
       <c r="BH8" s="24"/>
       <c r="BI8" s="11"/>
     </row>
     <row r="9" spans="1:61" ht="15" customHeight="1">
-      <c r="A9" s="300" t="s">
+      <c r="A9" s="281" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="282"/>
+      <c r="C9" s="283"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="272"/>
+      <c r="G9" s="314" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="265"/>
+      <c r="I9" s="238" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="235"/>
+      <c r="K9" s="234"/>
+      <c r="L9" s="235"/>
+      <c r="M9" s="238" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" s="235"/>
+      <c r="O9" s="234"/>
+      <c r="P9" s="235"/>
+      <c r="Q9" s="238" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" s="235"/>
+      <c r="S9" s="234"/>
+      <c r="T9" s="235"/>
+      <c r="U9" s="238" t="s">
+        <v>81</v>
+      </c>
+      <c r="V9" s="235"/>
+      <c r="W9" s="234"/>
+      <c r="X9" s="235"/>
+      <c r="Y9" s="256" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z9" s="235"/>
+      <c r="AA9" s="259"/>
+      <c r="AB9" s="235"/>
+      <c r="AC9" s="264" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="301"/>
-      <c r="C9" s="302"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="262"/>
-      <c r="F9" s="263"/>
-      <c r="G9" s="237" t="s">
+      <c r="AD9" s="268"/>
+      <c r="AE9" s="239" t="s">
         <v>83</v>
       </c>
-      <c r="H9" s="238"/>
-      <c r="I9" s="242" t="s">
+      <c r="AF9" s="233"/>
+      <c r="AG9" s="264" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH9" s="268"/>
+      <c r="AI9" s="234"/>
+      <c r="AJ9" s="235"/>
+      <c r="AK9" s="314" t="s">
         <v>84</v>
       </c>
-      <c r="J9" s="233"/>
-      <c r="K9" s="232"/>
-      <c r="L9" s="233"/>
-      <c r="M9" s="242" t="s">
-        <v>84</v>
-      </c>
-      <c r="N9" s="233"/>
-      <c r="O9" s="232"/>
-      <c r="P9" s="233"/>
-      <c r="Q9" s="242" t="s">
-        <v>84</v>
-      </c>
-      <c r="R9" s="233"/>
-      <c r="S9" s="232"/>
-      <c r="T9" s="233"/>
-      <c r="U9" s="242" t="s">
-        <v>84</v>
-      </c>
-      <c r="V9" s="233"/>
-      <c r="W9" s="232"/>
-      <c r="X9" s="233"/>
-      <c r="Y9" s="312" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z9" s="233"/>
-      <c r="AA9" s="277"/>
-      <c r="AB9" s="233"/>
-      <c r="AC9" s="253" t="s">
+      <c r="AL9" s="265"/>
+      <c r="AM9" s="238" t="s">
         <v>85</v>
       </c>
-      <c r="AD9" s="254"/>
-      <c r="AE9" s="247" t="s">
+      <c r="AN9" s="235"/>
+      <c r="AO9" s="264" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP9" s="268"/>
+      <c r="AQ9" s="238" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR9" s="235"/>
+      <c r="AS9" s="264" t="s">
         <v>86</v>
       </c>
-      <c r="AF9" s="241"/>
-      <c r="AG9" s="253" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH9" s="254"/>
-      <c r="AI9" s="232"/>
-      <c r="AJ9" s="233"/>
-      <c r="AK9" s="237" t="s">
+      <c r="AT9" s="268"/>
+      <c r="AU9" s="239" t="s">
         <v>87</v>
       </c>
-      <c r="AL9" s="238"/>
-      <c r="AM9" s="242" t="s">
+      <c r="AV9" s="233"/>
+      <c r="AW9" s="264" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX9" s="268"/>
+      <c r="AY9" s="239" t="s">
         <v>88</v>
       </c>
-      <c r="AN9" s="233"/>
-      <c r="AO9" s="253" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP9" s="254"/>
-      <c r="AQ9" s="242" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR9" s="233"/>
-      <c r="AS9" s="253" t="s">
+      <c r="AZ9" s="233"/>
+      <c r="BA9" s="299" t="s">
         <v>89</v>
       </c>
-      <c r="AT9" s="254"/>
-      <c r="AU9" s="247" t="s">
-        <v>90</v>
-      </c>
-      <c r="AV9" s="241"/>
-      <c r="AW9" s="253" t="s">
-        <v>90</v>
-      </c>
-      <c r="AX9" s="254"/>
-      <c r="AY9" s="247" t="s">
-        <v>91</v>
-      </c>
-      <c r="AZ9" s="241"/>
-      <c r="BA9" s="266" t="s">
-        <v>92</v>
-      </c>
-      <c r="BB9" s="267"/>
-      <c r="BC9" s="239" t="s">
-        <v>92</v>
-      </c>
-      <c r="BD9" s="233"/>
-      <c r="BE9" s="232"/>
-      <c r="BF9" s="233"/>
+      <c r="BB9" s="300"/>
+      <c r="BC9" s="347" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD9" s="235"/>
+      <c r="BE9" s="234"/>
+      <c r="BF9" s="235"/>
       <c r="BG9" s="24"/>
       <c r="BH9" s="24"/>
       <c r="BI9" s="11"/>
     </row>
     <row r="10" spans="1:61" ht="15" customHeight="1">
-      <c r="A10" s="300" t="s">
+      <c r="A10" s="281" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="282"/>
+      <c r="C10" s="283"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="271"/>
+      <c r="F10" s="272"/>
+      <c r="G10" s="314" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="265"/>
+      <c r="I10" s="238" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="235"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="235"/>
+      <c r="M10" s="238" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" s="235"/>
+      <c r="O10" s="234"/>
+      <c r="P10" s="235"/>
+      <c r="Q10" s="238" t="s">
+        <v>91</v>
+      </c>
+      <c r="R10" s="235"/>
+      <c r="S10" s="234"/>
+      <c r="T10" s="235"/>
+      <c r="U10" s="238" t="s">
+        <v>91</v>
+      </c>
+      <c r="V10" s="235"/>
+      <c r="W10" s="234"/>
+      <c r="X10" s="235"/>
+      <c r="Y10" s="256" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z10" s="235"/>
+      <c r="AA10" s="259"/>
+      <c r="AB10" s="235"/>
+      <c r="AC10" s="264" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD10" s="268"/>
+      <c r="AE10" s="239" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF10" s="233"/>
+      <c r="AG10" s="264" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="301"/>
-      <c r="C10" s="302"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="262"/>
-      <c r="F10" s="263"/>
-      <c r="G10" s="237" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="238"/>
-      <c r="I10" s="242" t="s">
+      <c r="AH10" s="268"/>
+      <c r="AI10" s="234"/>
+      <c r="AJ10" s="235"/>
+      <c r="AK10" s="314" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL10" s="265"/>
+      <c r="AM10" s="238" t="s">
         <v>94</v>
       </c>
-      <c r="J10" s="233"/>
-      <c r="K10" s="232"/>
-      <c r="L10" s="233"/>
-      <c r="M10" s="242" t="s">
-        <v>94</v>
-      </c>
-      <c r="N10" s="233"/>
-      <c r="O10" s="232"/>
-      <c r="P10" s="233"/>
-      <c r="Q10" s="242" t="s">
-        <v>94</v>
-      </c>
-      <c r="R10" s="233"/>
-      <c r="S10" s="232"/>
-      <c r="T10" s="233"/>
-      <c r="U10" s="242" t="s">
-        <v>94</v>
-      </c>
-      <c r="V10" s="233"/>
-      <c r="W10" s="232"/>
-      <c r="X10" s="233"/>
-      <c r="Y10" s="312" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z10" s="233"/>
-      <c r="AA10" s="277"/>
-      <c r="AB10" s="233"/>
-      <c r="AC10" s="253" t="s">
+      <c r="AN10" s="235"/>
+      <c r="AO10" s="264" t="s">
         <v>95</v>
       </c>
-      <c r="AD10" s="254"/>
-      <c r="AE10" s="247" t="s">
+      <c r="AP10" s="268"/>
+      <c r="AQ10" s="238" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR10" s="235"/>
+      <c r="AS10" s="264" t="s">
         <v>86</v>
       </c>
-      <c r="AF10" s="241"/>
-      <c r="AG10" s="253" t="s">
+      <c r="AT10" s="268"/>
+      <c r="AU10" s="239" t="s">
         <v>96</v>
       </c>
-      <c r="AH10" s="254"/>
-      <c r="AI10" s="232"/>
-      <c r="AJ10" s="233"/>
-      <c r="AK10" s="237" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL10" s="238"/>
-      <c r="AM10" s="242" t="s">
+      <c r="AV10" s="233"/>
+      <c r="AW10" s="264" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX10" s="268"/>
+      <c r="AY10" s="239" t="s">
         <v>97</v>
       </c>
-      <c r="AN10" s="233"/>
-      <c r="AO10" s="253" t="s">
+      <c r="AZ10" s="233"/>
+      <c r="BA10" s="299" t="s">
         <v>98</v>
       </c>
-      <c r="AP10" s="254"/>
-      <c r="AQ10" s="242" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR10" s="233"/>
-      <c r="AS10" s="253" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT10" s="254"/>
-      <c r="AU10" s="247" t="s">
+      <c r="BB10" s="300"/>
+      <c r="BC10" s="347" t="s">
         <v>99</v>
       </c>
-      <c r="AV10" s="241"/>
-      <c r="AW10" s="253" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX10" s="254"/>
-      <c r="AY10" s="247" t="s">
-        <v>100</v>
-      </c>
-      <c r="AZ10" s="241"/>
-      <c r="BA10" s="266" t="s">
-        <v>101</v>
-      </c>
-      <c r="BB10" s="267"/>
-      <c r="BC10" s="239" t="s">
-        <v>102</v>
-      </c>
-      <c r="BD10" s="233"/>
-      <c r="BE10" s="232"/>
-      <c r="BF10" s="233"/>
+      <c r="BD10" s="235"/>
+      <c r="BE10" s="234"/>
+      <c r="BF10" s="235"/>
       <c r="BG10" s="24"/>
       <c r="BH10" s="24"/>
       <c r="BI10" s="11"/>
     </row>
     <row r="11" spans="1:61" ht="15" customHeight="1">
-      <c r="A11" s="300" t="s">
+      <c r="A11" s="281" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="282"/>
+      <c r="C11" s="283"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="271"/>
+      <c r="F11" s="272"/>
+      <c r="G11" s="314" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="265"/>
+      <c r="I11" s="238" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="235"/>
+      <c r="K11" s="234"/>
+      <c r="L11" s="235"/>
+      <c r="M11" s="238" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="235"/>
+      <c r="O11" s="234"/>
+      <c r="P11" s="235"/>
+      <c r="Q11" s="238" t="s">
+        <v>92</v>
+      </c>
+      <c r="R11" s="235"/>
+      <c r="S11" s="234"/>
+      <c r="T11" s="235"/>
+      <c r="U11" s="238" t="s">
+        <v>92</v>
+      </c>
+      <c r="V11" s="235"/>
+      <c r="W11" s="234"/>
+      <c r="X11" s="235"/>
+      <c r="Y11" s="256" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z11" s="235"/>
+      <c r="AA11" s="259"/>
+      <c r="AB11" s="235"/>
+      <c r="AC11" s="264" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD11" s="268"/>
+      <c r="AE11" s="239" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF11" s="233"/>
+      <c r="AG11" s="264" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH11" s="268"/>
+      <c r="AI11" s="234"/>
+      <c r="AJ11" s="235"/>
+      <c r="AK11" s="314" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL11" s="265"/>
+      <c r="AM11" s="238" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN11" s="235"/>
+      <c r="AO11" s="264" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP11" s="268"/>
+      <c r="AQ11" s="238" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR11" s="235"/>
+      <c r="AS11" s="264" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT11" s="268"/>
+      <c r="AU11" s="239" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV11" s="233"/>
+      <c r="AW11" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX11" s="17"/>
+      <c r="AY11" s="239" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ11" s="233"/>
+      <c r="BA11" s="299" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB11" s="300"/>
+      <c r="BC11" s="347" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="301"/>
-      <c r="C11" s="302"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="262"/>
-      <c r="F11" s="263"/>
-      <c r="G11" s="237" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="238"/>
-      <c r="I11" s="242" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" s="233"/>
-      <c r="K11" s="232"/>
-      <c r="L11" s="233"/>
-      <c r="M11" s="242" t="s">
-        <v>95</v>
-      </c>
-      <c r="N11" s="233"/>
-      <c r="O11" s="232"/>
-      <c r="P11" s="233"/>
-      <c r="Q11" s="242" t="s">
-        <v>95</v>
-      </c>
-      <c r="R11" s="233"/>
-      <c r="S11" s="232"/>
-      <c r="T11" s="233"/>
-      <c r="U11" s="242" t="s">
-        <v>95</v>
-      </c>
-      <c r="V11" s="233"/>
-      <c r="W11" s="232"/>
-      <c r="X11" s="233"/>
-      <c r="Y11" s="312" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z11" s="233"/>
-      <c r="AA11" s="277"/>
-      <c r="AB11" s="233"/>
-      <c r="AC11" s="253" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD11" s="254"/>
-      <c r="AE11" s="247" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF11" s="241"/>
-      <c r="AG11" s="253" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH11" s="254"/>
-      <c r="AI11" s="232"/>
-      <c r="AJ11" s="233"/>
-      <c r="AK11" s="237" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL11" s="238"/>
-      <c r="AM11" s="242" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN11" s="233"/>
-      <c r="AO11" s="253" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP11" s="254"/>
-      <c r="AQ11" s="242" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR11" s="233"/>
-      <c r="AS11" s="253" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT11" s="254"/>
-      <c r="AU11" s="247" t="s">
-        <v>95</v>
-      </c>
-      <c r="AV11" s="241"/>
-      <c r="AW11" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX11" s="17"/>
-      <c r="AY11" s="247" t="s">
-        <v>95</v>
-      </c>
-      <c r="AZ11" s="241"/>
-      <c r="BA11" s="266" t="s">
-        <v>105</v>
-      </c>
-      <c r="BB11" s="267"/>
-      <c r="BC11" s="239" t="s">
-        <v>106</v>
-      </c>
-      <c r="BD11" s="233"/>
-      <c r="BE11" s="232"/>
-      <c r="BF11" s="233"/>
+      <c r="BD11" s="235"/>
+      <c r="BE11" s="234"/>
+      <c r="BF11" s="235"/>
       <c r="BG11" s="24"/>
       <c r="BH11" s="24"/>
       <c r="BI11" s="11"/>
     </row>
     <row r="12" spans="1:61" ht="17" customHeight="1">
-      <c r="A12" s="300" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="301"/>
-      <c r="C12" s="302"/>
+      <c r="A12" s="281" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="282"/>
+      <c r="C12" s="283"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="262"/>
-      <c r="F12" s="263"/>
-      <c r="G12" s="257"/>
-      <c r="H12" s="238"/>
-      <c r="I12" s="232"/>
-      <c r="J12" s="233"/>
-      <c r="K12" s="232"/>
-      <c r="L12" s="233"/>
-      <c r="M12" s="232"/>
-      <c r="N12" s="233"/>
-      <c r="O12" s="232"/>
-      <c r="P12" s="233"/>
-      <c r="Q12" s="232"/>
-      <c r="R12" s="233"/>
-      <c r="S12" s="232"/>
-      <c r="T12" s="233"/>
-      <c r="U12" s="232"/>
-      <c r="V12" s="233"/>
-      <c r="W12" s="232"/>
-      <c r="X12" s="233"/>
-      <c r="Y12" s="277"/>
-      <c r="Z12" s="233"/>
-      <c r="AA12" s="277"/>
-      <c r="AB12" s="233"/>
-      <c r="AC12" s="280"/>
-      <c r="AD12" s="254"/>
+      <c r="E12" s="271"/>
+      <c r="F12" s="272"/>
+      <c r="G12" s="270"/>
+      <c r="H12" s="265"/>
+      <c r="I12" s="234"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="234"/>
+      <c r="L12" s="235"/>
+      <c r="M12" s="234"/>
+      <c r="N12" s="235"/>
+      <c r="O12" s="234"/>
+      <c r="P12" s="235"/>
+      <c r="Q12" s="234"/>
+      <c r="R12" s="235"/>
+      <c r="S12" s="234"/>
+      <c r="T12" s="235"/>
+      <c r="U12" s="234"/>
+      <c r="V12" s="235"/>
+      <c r="W12" s="234"/>
+      <c r="X12" s="235"/>
+      <c r="Y12" s="259"/>
+      <c r="Z12" s="235"/>
+      <c r="AA12" s="259"/>
+      <c r="AB12" s="235"/>
+      <c r="AC12" s="267"/>
+      <c r="AD12" s="268"/>
       <c r="AE12" s="38"/>
       <c r="AF12" s="22"/>
-      <c r="AG12" s="280"/>
-      <c r="AH12" s="254"/>
-      <c r="AI12" s="232"/>
-      <c r="AJ12" s="233"/>
-      <c r="AK12" s="257"/>
-      <c r="AL12" s="238"/>
-      <c r="AM12" s="232"/>
-      <c r="AN12" s="233"/>
+      <c r="AG12" s="267"/>
+      <c r="AH12" s="268"/>
+      <c r="AI12" s="234"/>
+      <c r="AJ12" s="235"/>
+      <c r="AK12" s="270"/>
+      <c r="AL12" s="265"/>
+      <c r="AM12" s="234"/>
+      <c r="AN12" s="235"/>
       <c r="AO12" s="41"/>
       <c r="AP12" s="17"/>
-      <c r="AQ12" s="232"/>
-      <c r="AR12" s="233"/>
-      <c r="AS12" s="257"/>
-      <c r="AT12" s="238"/>
-      <c r="AU12" s="240"/>
-      <c r="AV12" s="241"/>
+      <c r="AQ12" s="234"/>
+      <c r="AR12" s="235"/>
+      <c r="AS12" s="270"/>
+      <c r="AT12" s="265"/>
+      <c r="AU12" s="232"/>
+      <c r="AV12" s="233"/>
       <c r="AW12" s="41"/>
       <c r="AX12" s="17"/>
       <c r="AY12" s="38"/>
       <c r="AZ12" s="22"/>
-      <c r="BA12" s="270"/>
-      <c r="BB12" s="267"/>
-      <c r="BC12" s="234"/>
-      <c r="BD12" s="233"/>
-      <c r="BE12" s="232"/>
-      <c r="BF12" s="233"/>
+      <c r="BA12" s="331"/>
+      <c r="BB12" s="300"/>
+      <c r="BC12" s="325"/>
+      <c r="BD12" s="235"/>
+      <c r="BE12" s="234"/>
+      <c r="BF12" s="235"/>
       <c r="BG12" s="24"/>
       <c r="BH12" s="24"/>
       <c r="BI12" s="11"/>
     </row>
     <row r="13" spans="1:61" ht="20.5" customHeight="1">
-      <c r="A13" s="300" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="301"/>
-      <c r="C13" s="302"/>
+      <c r="A13" s="281" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="282"/>
+      <c r="C13" s="283"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="291" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="292"/>
-      <c r="G13" s="253" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="254"/>
-      <c r="I13" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" s="241"/>
-      <c r="K13" s="240"/>
-      <c r="L13" s="241"/>
-      <c r="M13" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="N13" s="241"/>
-      <c r="O13" s="240"/>
-      <c r="P13" s="241"/>
-      <c r="Q13" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="R13" s="241"/>
-      <c r="S13" s="240"/>
-      <c r="T13" s="241"/>
-      <c r="U13" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="V13" s="241"/>
-      <c r="W13" s="240"/>
-      <c r="X13" s="241"/>
-      <c r="Y13" s="312" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z13" s="241"/>
-      <c r="AA13" s="277"/>
-      <c r="AB13" s="241"/>
-      <c r="AC13" s="253" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD13" s="254"/>
+      <c r="E13" s="339" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="340"/>
+      <c r="G13" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="268"/>
+      <c r="I13" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="233"/>
+      <c r="K13" s="232"/>
+      <c r="L13" s="233"/>
+      <c r="M13" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="233"/>
+      <c r="O13" s="232"/>
+      <c r="P13" s="233"/>
+      <c r="Q13" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="R13" s="233"/>
+      <c r="S13" s="232"/>
+      <c r="T13" s="233"/>
+      <c r="U13" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="V13" s="233"/>
+      <c r="W13" s="232"/>
+      <c r="X13" s="233"/>
+      <c r="Y13" s="256" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z13" s="233"/>
+      <c r="AA13" s="259"/>
+      <c r="AB13" s="233"/>
+      <c r="AC13" s="264" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD13" s="268"/>
       <c r="AE13" s="38"/>
       <c r="AF13" s="22"/>
-      <c r="AG13" s="253" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH13" s="254"/>
-      <c r="AI13" s="232"/>
-      <c r="AJ13" s="233"/>
-      <c r="AK13" s="257"/>
-      <c r="AL13" s="238"/>
-      <c r="AM13" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN13" s="241"/>
-      <c r="AO13" s="253" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP13" s="254"/>
-      <c r="AQ13" s="232"/>
-      <c r="AR13" s="233"/>
-      <c r="AS13" s="257"/>
-      <c r="AT13" s="238"/>
-      <c r="AU13" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="AV13" s="241"/>
+      <c r="AG13" s="264" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH13" s="268"/>
+      <c r="AI13" s="234"/>
+      <c r="AJ13" s="235"/>
+      <c r="AK13" s="270"/>
+      <c r="AL13" s="265"/>
+      <c r="AM13" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN13" s="233"/>
+      <c r="AO13" s="264" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP13" s="268"/>
+      <c r="AQ13" s="234"/>
+      <c r="AR13" s="235"/>
+      <c r="AS13" s="270"/>
+      <c r="AT13" s="265"/>
+      <c r="AU13" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV13" s="233"/>
       <c r="AW13" s="35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AX13" s="17"/>
       <c r="AY13" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AZ13" s="22"/>
-      <c r="BA13" s="270"/>
-      <c r="BB13" s="267"/>
-      <c r="BC13" s="234"/>
-      <c r="BD13" s="233"/>
-      <c r="BE13" s="232"/>
-      <c r="BF13" s="233"/>
+      <c r="BA13" s="331"/>
+      <c r="BB13" s="300"/>
+      <c r="BC13" s="325"/>
+      <c r="BD13" s="235"/>
+      <c r="BE13" s="234"/>
+      <c r="BF13" s="235"/>
       <c r="BG13" s="24"/>
       <c r="BH13" s="24"/>
       <c r="BI13" s="11"/>
     </row>
     <row r="14" spans="1:61" ht="19.75" customHeight="1">
-      <c r="A14" s="300" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="301"/>
-      <c r="C14" s="302"/>
+      <c r="A14" s="281" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="282"/>
+      <c r="C14" s="283"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="284" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="263"/>
-      <c r="G14" s="253" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="254"/>
-      <c r="I14" s="247" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" s="241"/>
-      <c r="K14" s="240"/>
-      <c r="L14" s="241"/>
-      <c r="M14" s="247" t="s">
-        <v>72</v>
-      </c>
-      <c r="N14" s="241"/>
-      <c r="O14" s="240"/>
-      <c r="P14" s="241"/>
-      <c r="Q14" s="247" t="s">
-        <v>72</v>
-      </c>
-      <c r="R14" s="241"/>
-      <c r="S14" s="240"/>
-      <c r="T14" s="241"/>
-      <c r="U14" s="247" t="s">
-        <v>72</v>
-      </c>
-      <c r="V14" s="241"/>
-      <c r="W14" s="240"/>
-      <c r="X14" s="241"/>
-      <c r="Y14" s="312" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z14" s="241"/>
-      <c r="AA14" s="277"/>
-      <c r="AB14" s="241"/>
-      <c r="AC14" s="253" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD14" s="254"/>
-      <c r="AE14" s="247" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF14" s="241"/>
-      <c r="AG14" s="253" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH14" s="254"/>
-      <c r="AI14" s="232"/>
-      <c r="AJ14" s="233"/>
-      <c r="AK14" s="257"/>
-      <c r="AL14" s="238"/>
-      <c r="AM14" s="232"/>
-      <c r="AN14" s="233"/>
-      <c r="AO14" s="253" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP14" s="254"/>
-      <c r="AQ14" s="232"/>
-      <c r="AR14" s="233"/>
-      <c r="AS14" s="257"/>
-      <c r="AT14" s="238"/>
-      <c r="AU14" s="240"/>
-      <c r="AV14" s="241"/>
+      <c r="E14" s="332" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="272"/>
+      <c r="G14" s="264" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="268"/>
+      <c r="I14" s="239" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="233"/>
+      <c r="K14" s="232"/>
+      <c r="L14" s="233"/>
+      <c r="M14" s="239" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14" s="233"/>
+      <c r="O14" s="232"/>
+      <c r="P14" s="233"/>
+      <c r="Q14" s="239" t="s">
+        <v>69</v>
+      </c>
+      <c r="R14" s="233"/>
+      <c r="S14" s="232"/>
+      <c r="T14" s="233"/>
+      <c r="U14" s="239" t="s">
+        <v>69</v>
+      </c>
+      <c r="V14" s="233"/>
+      <c r="W14" s="232"/>
+      <c r="X14" s="233"/>
+      <c r="Y14" s="256" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z14" s="233"/>
+      <c r="AA14" s="259"/>
+      <c r="AB14" s="233"/>
+      <c r="AC14" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD14" s="268"/>
+      <c r="AE14" s="239" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF14" s="233"/>
+      <c r="AG14" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH14" s="268"/>
+      <c r="AI14" s="234"/>
+      <c r="AJ14" s="235"/>
+      <c r="AK14" s="270"/>
+      <c r="AL14" s="265"/>
+      <c r="AM14" s="234"/>
+      <c r="AN14" s="235"/>
+      <c r="AO14" s="264" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP14" s="268"/>
+      <c r="AQ14" s="234"/>
+      <c r="AR14" s="235"/>
+      <c r="AS14" s="270"/>
+      <c r="AT14" s="265"/>
+      <c r="AU14" s="232"/>
+      <c r="AV14" s="233"/>
       <c r="AW14" s="35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AX14" s="17"/>
       <c r="AY14" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AZ14" s="22"/>
-      <c r="BA14" s="266" t="s">
-        <v>72</v>
-      </c>
-      <c r="BB14" s="267"/>
-      <c r="BC14" s="239" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD14" s="233"/>
-      <c r="BE14" s="232"/>
-      <c r="BF14" s="233"/>
+      <c r="BA14" s="299" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB14" s="300"/>
+      <c r="BC14" s="347" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD14" s="235"/>
+      <c r="BE14" s="234"/>
+      <c r="BF14" s="235"/>
       <c r="BG14" s="24"/>
       <c r="BH14" s="24"/>
       <c r="BI14" s="11"/>
     </row>
     <row r="15" spans="1:61" ht="23" customHeight="1">
-      <c r="A15" s="288" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="289"/>
-      <c r="C15" s="290"/>
+      <c r="A15" s="284" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="285"/>
+      <c r="C15" s="286"/>
       <c r="D15" s="15"/>
       <c r="E15" s="36"/>
       <c r="F15" s="16"/>
-      <c r="G15" s="364" t="s">
+      <c r="G15" s="266" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="265"/>
+      <c r="I15" s="240" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" s="241"/>
+      <c r="K15" s="245"/>
+      <c r="L15" s="241"/>
+      <c r="M15" s="240" t="s">
+        <v>109</v>
+      </c>
+      <c r="N15" s="241"/>
+      <c r="O15" s="245"/>
+      <c r="P15" s="241"/>
+      <c r="Q15" s="240" t="s">
+        <v>109</v>
+      </c>
+      <c r="R15" s="241"/>
+      <c r="S15" s="245"/>
+      <c r="T15" s="241"/>
+      <c r="U15" s="240" t="s">
+        <v>109</v>
+      </c>
+      <c r="V15" s="241"/>
+      <c r="W15" s="245"/>
+      <c r="X15" s="241"/>
+      <c r="Y15" s="260" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z15" s="241"/>
+      <c r="AA15" s="269"/>
+      <c r="AB15" s="241"/>
+      <c r="AC15" s="294" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD15" s="290"/>
+      <c r="AE15" s="240" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="238"/>
-      <c r="I15" s="278" t="s">
+      <c r="AF15" s="241"/>
+      <c r="AG15" s="294" t="s">
         <v>112</v>
       </c>
-      <c r="J15" s="279"/>
-      <c r="K15" s="333"/>
-      <c r="L15" s="279"/>
-      <c r="M15" s="278" t="s">
-        <v>112</v>
-      </c>
-      <c r="N15" s="279"/>
-      <c r="O15" s="333"/>
-      <c r="P15" s="279"/>
-      <c r="Q15" s="278" t="s">
-        <v>112</v>
-      </c>
-      <c r="R15" s="279"/>
-      <c r="S15" s="333"/>
-      <c r="T15" s="279"/>
-      <c r="U15" s="278" t="s">
-        <v>112</v>
-      </c>
-      <c r="V15" s="279"/>
-      <c r="W15" s="333"/>
-      <c r="X15" s="279"/>
-      <c r="Y15" s="358" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z15" s="279"/>
-      <c r="AA15" s="317"/>
-      <c r="AB15" s="279"/>
-      <c r="AC15" s="339" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD15" s="261"/>
-      <c r="AE15" s="278" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF15" s="279"/>
-      <c r="AG15" s="339" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH15" s="261"/>
+      <c r="AH15" s="290"/>
       <c r="AI15" s="25"/>
       <c r="AJ15" s="29"/>
       <c r="AK15" s="30"/>
       <c r="AL15" s="31"/>
       <c r="AM15" s="28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AN15" s="29"/>
-      <c r="AO15" s="339" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP15" s="261"/>
+      <c r="AO15" s="294" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP15" s="290"/>
       <c r="AQ15" s="25"/>
       <c r="AR15" s="29"/>
       <c r="AS15" s="32" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AT15" s="31"/>
       <c r="AU15" s="50" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AV15" s="22"/>
       <c r="AW15" s="37" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AX15" s="51" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AY15" s="21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AZ15" s="22"/>
       <c r="BA15" s="44" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="BB15" s="45"/>
       <c r="BC15" s="28" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="BD15" s="52"/>
       <c r="BE15" s="19"/>
@@ -4896,67 +4895,67 @@
     </row>
     <row r="16" spans="1:61" ht="16.5" customHeight="1">
       <c r="A16" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
       <c r="E16" s="36"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="253" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="238"/>
-      <c r="I16" s="247" t="s">
-        <v>126</v>
-      </c>
-      <c r="J16" s="241"/>
-      <c r="K16" s="240"/>
-      <c r="L16" s="241"/>
-      <c r="M16" s="247" t="s">
-        <v>126</v>
-      </c>
-      <c r="N16" s="241"/>
-      <c r="O16" s="240"/>
-      <c r="P16" s="241"/>
-      <c r="Q16" s="247" t="s">
-        <v>126</v>
-      </c>
-      <c r="R16" s="241"/>
-      <c r="S16" s="240"/>
-      <c r="T16" s="241"/>
-      <c r="U16" s="247" t="s">
-        <v>126</v>
-      </c>
-      <c r="V16" s="241"/>
-      <c r="W16" s="240"/>
-      <c r="X16" s="241"/>
-      <c r="Y16" s="312" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z16" s="241"/>
-      <c r="AA16" s="277"/>
-      <c r="AB16" s="241"/>
-      <c r="AC16" s="339" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD16" s="261"/>
-      <c r="AE16" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF16" s="241"/>
-      <c r="AG16" s="253" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH16" s="254"/>
+      <c r="G16" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="265"/>
+      <c r="I16" s="239" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" s="233"/>
+      <c r="K16" s="232"/>
+      <c r="L16" s="233"/>
+      <c r="M16" s="239" t="s">
+        <v>123</v>
+      </c>
+      <c r="N16" s="233"/>
+      <c r="O16" s="232"/>
+      <c r="P16" s="233"/>
+      <c r="Q16" s="239" t="s">
+        <v>123</v>
+      </c>
+      <c r="R16" s="233"/>
+      <c r="S16" s="232"/>
+      <c r="T16" s="233"/>
+      <c r="U16" s="239" t="s">
+        <v>123</v>
+      </c>
+      <c r="V16" s="233"/>
+      <c r="W16" s="232"/>
+      <c r="X16" s="233"/>
+      <c r="Y16" s="256" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z16" s="233"/>
+      <c r="AA16" s="259"/>
+      <c r="AB16" s="233"/>
+      <c r="AC16" s="294" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD16" s="290"/>
+      <c r="AE16" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF16" s="233"/>
+      <c r="AG16" s="264" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH16" s="268"/>
       <c r="AI16" s="19"/>
       <c r="AJ16" s="18"/>
       <c r="AK16" s="41"/>
       <c r="AL16" s="17"/>
-      <c r="AM16" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN16" s="241"/>
+      <c r="AM16" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN16" s="233"/>
       <c r="AO16" s="40"/>
       <c r="AP16" s="17"/>
       <c r="AQ16" s="19"/>
@@ -4964,7 +4963,7 @@
       <c r="AS16" s="41"/>
       <c r="AT16" s="17"/>
       <c r="AU16" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AV16" s="22"/>
       <c r="AW16" s="40"/>
@@ -4983,59 +4982,59 @@
     </row>
     <row r="17" spans="1:61" ht="18.25" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
       <c r="E17" s="36"/>
       <c r="F17" s="16"/>
-      <c r="G17" s="253" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="238"/>
-      <c r="I17" s="247" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" s="241"/>
-      <c r="K17" s="240"/>
-      <c r="L17" s="241"/>
-      <c r="M17" s="247" t="s">
-        <v>72</v>
-      </c>
-      <c r="N17" s="241"/>
-      <c r="O17" s="240"/>
-      <c r="P17" s="241"/>
-      <c r="Q17" s="247" t="s">
-        <v>72</v>
-      </c>
-      <c r="R17" s="241"/>
-      <c r="S17" s="240"/>
-      <c r="T17" s="241"/>
-      <c r="U17" s="247" t="s">
-        <v>72</v>
-      </c>
-      <c r="V17" s="241"/>
-      <c r="W17" s="240"/>
-      <c r="X17" s="241"/>
-      <c r="Y17" s="312" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z17" s="241"/>
-      <c r="AA17" s="277"/>
-      <c r="AB17" s="241"/>
-      <c r="AC17" s="253" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD17" s="254"/>
-      <c r="AE17" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF17" s="241"/>
-      <c r="AG17" s="253" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH17" s="254"/>
+      <c r="G17" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="265"/>
+      <c r="I17" s="239" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="233"/>
+      <c r="K17" s="232"/>
+      <c r="L17" s="233"/>
+      <c r="M17" s="239" t="s">
+        <v>69</v>
+      </c>
+      <c r="N17" s="233"/>
+      <c r="O17" s="232"/>
+      <c r="P17" s="233"/>
+      <c r="Q17" s="239" t="s">
+        <v>69</v>
+      </c>
+      <c r="R17" s="233"/>
+      <c r="S17" s="232"/>
+      <c r="T17" s="233"/>
+      <c r="U17" s="239" t="s">
+        <v>69</v>
+      </c>
+      <c r="V17" s="233"/>
+      <c r="W17" s="232"/>
+      <c r="X17" s="233"/>
+      <c r="Y17" s="256" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z17" s="233"/>
+      <c r="AA17" s="259"/>
+      <c r="AB17" s="233"/>
+      <c r="AC17" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD17" s="268"/>
+      <c r="AE17" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF17" s="233"/>
+      <c r="AG17" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH17" s="268"/>
       <c r="AI17" s="19"/>
       <c r="AJ17" s="18"/>
       <c r="AK17" s="41"/>
@@ -5065,60 +5064,60 @@
       <c r="BI17" s="11"/>
     </row>
     <row r="18" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A18" s="288" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="289"/>
-      <c r="C18" s="290"/>
+      <c r="A18" s="284" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="285"/>
+      <c r="C18" s="286"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="291" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="292"/>
-      <c r="G18" s="253" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="254"/>
-      <c r="I18" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" s="241"/>
-      <c r="K18" s="240"/>
-      <c r="L18" s="241"/>
-      <c r="M18" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="N18" s="241"/>
-      <c r="O18" s="240"/>
-      <c r="P18" s="241"/>
-      <c r="Q18" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="R18" s="241"/>
-      <c r="S18" s="240"/>
-      <c r="T18" s="241"/>
-      <c r="U18" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="V18" s="241"/>
-      <c r="W18" s="240"/>
-      <c r="X18" s="241"/>
-      <c r="Y18" s="312" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z18" s="241"/>
-      <c r="AA18" s="277"/>
-      <c r="AB18" s="241"/>
-      <c r="AC18" s="253" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD18" s="254"/>
-      <c r="AE18" s="240"/>
-      <c r="AF18" s="241"/>
-      <c r="AG18" s="253" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH18" s="254"/>
+      <c r="E18" s="339" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="340"/>
+      <c r="G18" s="264" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="268"/>
+      <c r="I18" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="233"/>
+      <c r="K18" s="232"/>
+      <c r="L18" s="233"/>
+      <c r="M18" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" s="233"/>
+      <c r="O18" s="232"/>
+      <c r="P18" s="233"/>
+      <c r="Q18" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="R18" s="233"/>
+      <c r="S18" s="232"/>
+      <c r="T18" s="233"/>
+      <c r="U18" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="V18" s="233"/>
+      <c r="W18" s="232"/>
+      <c r="X18" s="233"/>
+      <c r="Y18" s="256" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z18" s="233"/>
+      <c r="AA18" s="259"/>
+      <c r="AB18" s="233"/>
+      <c r="AC18" s="264" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD18" s="268"/>
+      <c r="AE18" s="232"/>
+      <c r="AF18" s="233"/>
+      <c r="AG18" s="264" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH18" s="268"/>
       <c r="AI18" s="19"/>
       <c r="AJ18" s="18"/>
       <c r="AK18" s="41"/>
@@ -5132,7 +5131,7 @@
       <c r="AS18" s="41"/>
       <c r="AT18" s="17"/>
       <c r="AU18" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AV18" s="22"/>
       <c r="AW18" s="40"/>
@@ -5142,7 +5141,7 @@
       <c r="BA18" s="47"/>
       <c r="BB18" s="45"/>
       <c r="BC18" s="46" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="BD18" s="53"/>
       <c r="BE18" s="19"/>
@@ -5152,151 +5151,151 @@
       <c r="BI18" s="11"/>
     </row>
     <row r="19" spans="1:61" ht="17" customHeight="1">
-      <c r="A19" s="300" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="301"/>
-      <c r="C19" s="302"/>
+      <c r="A19" s="281" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="282"/>
+      <c r="C19" s="283"/>
       <c r="D19" s="15"/>
       <c r="E19" s="36"/>
       <c r="F19" s="16"/>
-      <c r="G19" s="253" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="254"/>
-      <c r="I19" s="232"/>
-      <c r="J19" s="233"/>
-      <c r="K19" s="232"/>
-      <c r="L19" s="233"/>
-      <c r="M19" s="232"/>
-      <c r="N19" s="233"/>
-      <c r="O19" s="232"/>
-      <c r="P19" s="233"/>
-      <c r="Q19" s="232"/>
-      <c r="R19" s="233"/>
-      <c r="S19" s="232"/>
-      <c r="T19" s="233"/>
-      <c r="U19" s="232"/>
-      <c r="V19" s="233"/>
-      <c r="W19" s="232"/>
-      <c r="X19" s="233"/>
-      <c r="Y19" s="277"/>
-      <c r="Z19" s="233"/>
-      <c r="AA19" s="277"/>
-      <c r="AB19" s="233"/>
-      <c r="AC19" s="253" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD19" s="254"/>
-      <c r="AE19" s="240"/>
-      <c r="AF19" s="241"/>
-      <c r="AG19" s="253" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH19" s="254"/>
-      <c r="AI19" s="232"/>
-      <c r="AJ19" s="233"/>
-      <c r="AK19" s="257"/>
-      <c r="AL19" s="238"/>
-      <c r="AM19" s="240"/>
-      <c r="AN19" s="241"/>
-      <c r="AO19" s="257"/>
-      <c r="AP19" s="238"/>
-      <c r="AQ19" s="232"/>
-      <c r="AR19" s="233"/>
-      <c r="AS19" s="257"/>
-      <c r="AT19" s="238"/>
-      <c r="AU19" s="240"/>
-      <c r="AV19" s="241"/>
-      <c r="AW19" s="257"/>
-      <c r="AX19" s="238"/>
+      <c r="G19" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="268"/>
+      <c r="I19" s="234"/>
+      <c r="J19" s="235"/>
+      <c r="K19" s="234"/>
+      <c r="L19" s="235"/>
+      <c r="M19" s="234"/>
+      <c r="N19" s="235"/>
+      <c r="O19" s="234"/>
+      <c r="P19" s="235"/>
+      <c r="Q19" s="234"/>
+      <c r="R19" s="235"/>
+      <c r="S19" s="234"/>
+      <c r="T19" s="235"/>
+      <c r="U19" s="234"/>
+      <c r="V19" s="235"/>
+      <c r="W19" s="234"/>
+      <c r="X19" s="235"/>
+      <c r="Y19" s="259"/>
+      <c r="Z19" s="235"/>
+      <c r="AA19" s="259"/>
+      <c r="AB19" s="235"/>
+      <c r="AC19" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD19" s="268"/>
+      <c r="AE19" s="232"/>
+      <c r="AF19" s="233"/>
+      <c r="AG19" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH19" s="268"/>
+      <c r="AI19" s="234"/>
+      <c r="AJ19" s="235"/>
+      <c r="AK19" s="270"/>
+      <c r="AL19" s="265"/>
+      <c r="AM19" s="232"/>
+      <c r="AN19" s="233"/>
+      <c r="AO19" s="270"/>
+      <c r="AP19" s="265"/>
+      <c r="AQ19" s="234"/>
+      <c r="AR19" s="235"/>
+      <c r="AS19" s="270"/>
+      <c r="AT19" s="265"/>
+      <c r="AU19" s="232"/>
+      <c r="AV19" s="233"/>
+      <c r="AW19" s="270"/>
+      <c r="AX19" s="265"/>
       <c r="AY19" s="38"/>
       <c r="AZ19" s="22"/>
-      <c r="BA19" s="243"/>
-      <c r="BB19" s="244"/>
-      <c r="BC19" s="234"/>
-      <c r="BD19" s="233"/>
-      <c r="BE19" s="232"/>
-      <c r="BF19" s="233"/>
+      <c r="BA19" s="343"/>
+      <c r="BB19" s="344"/>
+      <c r="BC19" s="325"/>
+      <c r="BD19" s="235"/>
+      <c r="BE19" s="234"/>
+      <c r="BF19" s="235"/>
       <c r="BG19" s="24"/>
       <c r="BH19" s="24"/>
       <c r="BI19" s="11"/>
     </row>
     <row r="20" spans="1:61" ht="19.75" customHeight="1">
       <c r="A20" s="54" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="15"/>
       <c r="E20" s="36"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="253" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="254"/>
-      <c r="I20" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="J20" s="241"/>
-      <c r="K20" s="240"/>
-      <c r="L20" s="241"/>
-      <c r="M20" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="N20" s="241"/>
-      <c r="O20" s="240"/>
-      <c r="P20" s="241"/>
-      <c r="Q20" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="R20" s="241"/>
-      <c r="S20" s="240"/>
-      <c r="T20" s="241"/>
-      <c r="U20" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="V20" s="241"/>
-      <c r="W20" s="240"/>
-      <c r="X20" s="241"/>
-      <c r="Y20" s="312" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z20" s="241"/>
-      <c r="AA20" s="277"/>
-      <c r="AB20" s="241"/>
-      <c r="AC20" s="253" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD20" s="254"/>
-      <c r="AE20" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF20" s="241"/>
-      <c r="AG20" s="253" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH20" s="254"/>
+      <c r="G20" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="268"/>
+      <c r="I20" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="233"/>
+      <c r="K20" s="232"/>
+      <c r="L20" s="233"/>
+      <c r="M20" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" s="233"/>
+      <c r="O20" s="232"/>
+      <c r="P20" s="233"/>
+      <c r="Q20" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="R20" s="233"/>
+      <c r="S20" s="232"/>
+      <c r="T20" s="233"/>
+      <c r="U20" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="V20" s="233"/>
+      <c r="W20" s="232"/>
+      <c r="X20" s="233"/>
+      <c r="Y20" s="256" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z20" s="233"/>
+      <c r="AA20" s="259"/>
+      <c r="AB20" s="233"/>
+      <c r="AC20" s="264" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD20" s="268"/>
+      <c r="AE20" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF20" s="233"/>
+      <c r="AG20" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH20" s="268"/>
       <c r="AI20" s="19"/>
       <c r="AJ20" s="18"/>
       <c r="AK20" s="41"/>
       <c r="AL20" s="17"/>
-      <c r="AM20" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN20" s="241"/>
+      <c r="AM20" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN20" s="233"/>
       <c r="AO20" s="41"/>
       <c r="AP20" s="17"/>
       <c r="AQ20" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AR20" s="18"/>
       <c r="AS20" s="35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AT20" s="17"/>
       <c r="AU20" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AV20" s="22"/>
       <c r="AW20" s="41"/>
@@ -5315,43 +5314,43 @@
     </row>
     <row r="21" spans="1:61" ht="17" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="15"/>
       <c r="E21" s="36"/>
       <c r="F21" s="16"/>
-      <c r="G21" s="280"/>
-      <c r="H21" s="254"/>
-      <c r="I21" s="240"/>
-      <c r="J21" s="241"/>
-      <c r="K21" s="240"/>
-      <c r="L21" s="241"/>
-      <c r="M21" s="240"/>
-      <c r="N21" s="241"/>
-      <c r="O21" s="240"/>
-      <c r="P21" s="241"/>
-      <c r="Q21" s="240"/>
-      <c r="R21" s="241"/>
-      <c r="S21" s="240"/>
-      <c r="T21" s="241"/>
-      <c r="U21" s="240"/>
-      <c r="V21" s="241"/>
-      <c r="W21" s="240"/>
-      <c r="X21" s="241"/>
-      <c r="Y21" s="277"/>
-      <c r="Z21" s="241"/>
-      <c r="AA21" s="277"/>
-      <c r="AB21" s="241"/>
-      <c r="AC21" s="280"/>
-      <c r="AD21" s="254"/>
-      <c r="AE21" s="240"/>
-      <c r="AF21" s="241"/>
-      <c r="AG21" s="253" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH21" s="254"/>
+      <c r="G21" s="267"/>
+      <c r="H21" s="268"/>
+      <c r="I21" s="232"/>
+      <c r="J21" s="233"/>
+      <c r="K21" s="232"/>
+      <c r="L21" s="233"/>
+      <c r="M21" s="232"/>
+      <c r="N21" s="233"/>
+      <c r="O21" s="232"/>
+      <c r="P21" s="233"/>
+      <c r="Q21" s="232"/>
+      <c r="R21" s="233"/>
+      <c r="S21" s="232"/>
+      <c r="T21" s="233"/>
+      <c r="U21" s="232"/>
+      <c r="V21" s="233"/>
+      <c r="W21" s="232"/>
+      <c r="X21" s="233"/>
+      <c r="Y21" s="259"/>
+      <c r="Z21" s="233"/>
+      <c r="AA21" s="259"/>
+      <c r="AB21" s="233"/>
+      <c r="AC21" s="267"/>
+      <c r="AD21" s="268"/>
+      <c r="AE21" s="232"/>
+      <c r="AF21" s="233"/>
+      <c r="AG21" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH21" s="268"/>
       <c r="AI21" s="19"/>
       <c r="AJ21" s="18"/>
       <c r="AK21" s="41"/>
@@ -5381,58 +5380,58 @@
       <c r="BI21" s="11"/>
     </row>
     <row r="22" spans="1:61" ht="18" customHeight="1">
-      <c r="A22" s="288" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" s="289"/>
-      <c r="C22" s="290"/>
+      <c r="A22" s="284" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="285"/>
+      <c r="C22" s="286"/>
       <c r="D22" s="15"/>
       <c r="E22" s="36"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="280"/>
-      <c r="H22" s="254"/>
-      <c r="I22" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="J22" s="241"/>
-      <c r="K22" s="240"/>
-      <c r="L22" s="241"/>
-      <c r="M22" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="N22" s="241"/>
-      <c r="O22" s="240"/>
-      <c r="P22" s="241"/>
-      <c r="Q22" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="R22" s="241"/>
-      <c r="S22" s="240"/>
-      <c r="T22" s="241"/>
-      <c r="U22" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="V22" s="241"/>
-      <c r="W22" s="240"/>
-      <c r="X22" s="241"/>
-      <c r="Y22" s="312" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z22" s="241"/>
-      <c r="AA22" s="277"/>
-      <c r="AB22" s="241"/>
-      <c r="AC22" s="253" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD22" s="254"/>
-      <c r="AE22" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF22" s="241"/>
-      <c r="AG22" s="253" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH22" s="254"/>
+      <c r="G22" s="267"/>
+      <c r="H22" s="268"/>
+      <c r="I22" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="233"/>
+      <c r="K22" s="232"/>
+      <c r="L22" s="233"/>
+      <c r="M22" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="N22" s="233"/>
+      <c r="O22" s="232"/>
+      <c r="P22" s="233"/>
+      <c r="Q22" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="R22" s="233"/>
+      <c r="S22" s="232"/>
+      <c r="T22" s="233"/>
+      <c r="U22" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="V22" s="233"/>
+      <c r="W22" s="232"/>
+      <c r="X22" s="233"/>
+      <c r="Y22" s="256" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z22" s="233"/>
+      <c r="AA22" s="259"/>
+      <c r="AB22" s="233"/>
+      <c r="AC22" s="264" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD22" s="268"/>
+      <c r="AE22" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF22" s="233"/>
+      <c r="AG22" s="264" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH22" s="268"/>
       <c r="AI22" s="19"/>
       <c r="AJ22" s="18"/>
       <c r="AK22" s="41"/>
@@ -5454,7 +5453,7 @@
       <c r="BA22" s="42"/>
       <c r="BB22" s="23"/>
       <c r="BC22" s="46" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="BD22" s="53"/>
       <c r="BE22" s="19"/>
@@ -5464,48 +5463,48 @@
       <c r="BI22" s="11"/>
     </row>
     <row r="23" spans="1:61" ht="17" customHeight="1">
-      <c r="A23" s="288" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="289"/>
-      <c r="C23" s="290"/>
+      <c r="A23" s="284" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="285"/>
+      <c r="C23" s="286"/>
       <c r="D23" s="15"/>
       <c r="E23" s="36"/>
       <c r="F23" s="16"/>
-      <c r="G23" s="280"/>
-      <c r="H23" s="254"/>
-      <c r="I23" s="240"/>
-      <c r="J23" s="241"/>
-      <c r="K23" s="240"/>
-      <c r="L23" s="241"/>
-      <c r="M23" s="240"/>
-      <c r="N23" s="241"/>
-      <c r="O23" s="240"/>
-      <c r="P23" s="241"/>
-      <c r="Q23" s="240"/>
-      <c r="R23" s="241"/>
-      <c r="S23" s="240"/>
-      <c r="T23" s="241"/>
-      <c r="U23" s="240"/>
-      <c r="V23" s="241"/>
-      <c r="W23" s="240"/>
-      <c r="X23" s="241"/>
-      <c r="Y23" s="277"/>
-      <c r="Z23" s="241"/>
-      <c r="AA23" s="277"/>
-      <c r="AB23" s="241"/>
-      <c r="AC23" s="253" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD23" s="254"/>
-      <c r="AE23" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF23" s="241"/>
-      <c r="AG23" s="253" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH23" s="254"/>
+      <c r="G23" s="267"/>
+      <c r="H23" s="268"/>
+      <c r="I23" s="232"/>
+      <c r="J23" s="233"/>
+      <c r="K23" s="232"/>
+      <c r="L23" s="233"/>
+      <c r="M23" s="232"/>
+      <c r="N23" s="233"/>
+      <c r="O23" s="232"/>
+      <c r="P23" s="233"/>
+      <c r="Q23" s="232"/>
+      <c r="R23" s="233"/>
+      <c r="S23" s="232"/>
+      <c r="T23" s="233"/>
+      <c r="U23" s="232"/>
+      <c r="V23" s="233"/>
+      <c r="W23" s="232"/>
+      <c r="X23" s="233"/>
+      <c r="Y23" s="259"/>
+      <c r="Z23" s="233"/>
+      <c r="AA23" s="259"/>
+      <c r="AB23" s="233"/>
+      <c r="AC23" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD23" s="268"/>
+      <c r="AE23" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF23" s="233"/>
+      <c r="AG23" s="264" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH23" s="268"/>
       <c r="AI23" s="19"/>
       <c r="AJ23" s="18"/>
       <c r="AK23" s="41"/>
@@ -5535,18 +5534,18 @@
       <c r="BI23" s="11"/>
     </row>
     <row r="24" spans="1:61" ht="16" customHeight="1">
-      <c r="A24" s="288" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" s="289"/>
-      <c r="C24" s="290"/>
+      <c r="A24" s="284" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="285"/>
+      <c r="C24" s="286"/>
       <c r="D24" s="15"/>
       <c r="E24" s="36"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="253" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24" s="254"/>
+      <c r="G24" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="268"/>
       <c r="I24" s="38"/>
       <c r="J24" s="22"/>
       <c r="K24" s="38"/>
@@ -5567,16 +5566,16 @@
       <c r="Z24" s="55"/>
       <c r="AA24" s="20"/>
       <c r="AB24" s="55"/>
-      <c r="AC24" s="253" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD24" s="254"/>
-      <c r="AE24" s="240"/>
-      <c r="AF24" s="241"/>
-      <c r="AG24" s="253" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH24" s="254"/>
+      <c r="AC24" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD24" s="268"/>
+      <c r="AE24" s="232"/>
+      <c r="AF24" s="233"/>
+      <c r="AG24" s="264" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH24" s="268"/>
       <c r="AI24" s="19"/>
       <c r="AJ24" s="18"/>
       <c r="AK24" s="41"/>
@@ -5598,7 +5597,7 @@
       <c r="BA24" s="42"/>
       <c r="BB24" s="23"/>
       <c r="BC24" s="46" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="BD24" s="53"/>
       <c r="BE24" s="19"/>
@@ -5608,18 +5607,18 @@
       <c r="BI24" s="11"/>
     </row>
     <row r="25" spans="1:61" ht="17" customHeight="1">
-      <c r="A25" s="288" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" s="289"/>
-      <c r="C25" s="290"/>
+      <c r="A25" s="284" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="285"/>
+      <c r="C25" s="286"/>
       <c r="D25" s="15"/>
       <c r="E25" s="36"/>
       <c r="F25" s="16"/>
-      <c r="G25" s="253" t="s">
-        <v>72</v>
-      </c>
-      <c r="H25" s="254"/>
+      <c r="G25" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="268"/>
       <c r="I25" s="19"/>
       <c r="J25" s="18"/>
       <c r="K25" s="19"/>
@@ -5640,16 +5639,16 @@
       <c r="Z25" s="55"/>
       <c r="AA25" s="20"/>
       <c r="AB25" s="55"/>
-      <c r="AC25" s="253" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD25" s="254"/>
-      <c r="AE25" s="240"/>
-      <c r="AF25" s="241"/>
-      <c r="AG25" s="253" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH25" s="254"/>
+      <c r="AC25" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD25" s="268"/>
+      <c r="AE25" s="232"/>
+      <c r="AF25" s="233"/>
+      <c r="AG25" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH25" s="268"/>
       <c r="AI25" s="19"/>
       <c r="AJ25" s="18"/>
       <c r="AK25" s="41"/>
@@ -5679,18 +5678,18 @@
       <c r="BI25" s="11"/>
     </row>
     <row r="26" spans="1:61" ht="17" customHeight="1">
-      <c r="A26" s="288" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" s="289"/>
-      <c r="C26" s="290"/>
+      <c r="A26" s="284" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="285"/>
+      <c r="C26" s="286"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="262"/>
-      <c r="F26" s="263"/>
-      <c r="G26" s="253" t="s">
-        <v>140</v>
-      </c>
-      <c r="H26" s="254"/>
+      <c r="E26" s="271"/>
+      <c r="F26" s="272"/>
+      <c r="G26" s="264" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="268"/>
       <c r="I26" s="19"/>
       <c r="J26" s="18"/>
       <c r="K26" s="19"/>
@@ -5711,16 +5710,16 @@
       <c r="Z26" s="55"/>
       <c r="AA26" s="20"/>
       <c r="AB26" s="55"/>
-      <c r="AC26" s="253" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD26" s="254"/>
-      <c r="AE26" s="240"/>
-      <c r="AF26" s="241"/>
-      <c r="AG26" s="253" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH26" s="254"/>
+      <c r="AC26" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD26" s="268"/>
+      <c r="AE26" s="232"/>
+      <c r="AF26" s="233"/>
+      <c r="AG26" s="264" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH26" s="268"/>
       <c r="AI26" s="19"/>
       <c r="AJ26" s="18"/>
       <c r="AK26" s="41"/>
@@ -5750,50 +5749,50 @@
       <c r="BI26" s="11"/>
     </row>
     <row r="27" spans="1:61" ht="17" customHeight="1">
-      <c r="A27" s="288" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" s="289"/>
-      <c r="C27" s="290"/>
+      <c r="A27" s="284" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="285"/>
+      <c r="C27" s="286"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="262"/>
-      <c r="F27" s="263"/>
-      <c r="G27" s="253" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="254"/>
-      <c r="I27" s="232"/>
-      <c r="J27" s="233"/>
-      <c r="K27" s="232"/>
-      <c r="L27" s="233"/>
-      <c r="M27" s="232"/>
-      <c r="N27" s="233"/>
-      <c r="O27" s="232"/>
-      <c r="P27" s="233"/>
-      <c r="Q27" s="232"/>
-      <c r="R27" s="233"/>
-      <c r="S27" s="232"/>
-      <c r="T27" s="233"/>
-      <c r="U27" s="232"/>
-      <c r="V27" s="233"/>
-      <c r="W27" s="232"/>
-      <c r="X27" s="233"/>
-      <c r="Y27" s="277"/>
-      <c r="Z27" s="233"/>
-      <c r="AA27" s="277"/>
-      <c r="AB27" s="233"/>
-      <c r="AC27" s="253" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD27" s="254"/>
-      <c r="AE27" s="247" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF27" s="241"/>
-      <c r="AG27" s="253" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH27" s="254"/>
+      <c r="E27" s="271"/>
+      <c r="F27" s="272"/>
+      <c r="G27" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="268"/>
+      <c r="I27" s="234"/>
+      <c r="J27" s="235"/>
+      <c r="K27" s="234"/>
+      <c r="L27" s="235"/>
+      <c r="M27" s="234"/>
+      <c r="N27" s="235"/>
+      <c r="O27" s="234"/>
+      <c r="P27" s="235"/>
+      <c r="Q27" s="234"/>
+      <c r="R27" s="235"/>
+      <c r="S27" s="234"/>
+      <c r="T27" s="235"/>
+      <c r="U27" s="234"/>
+      <c r="V27" s="235"/>
+      <c r="W27" s="234"/>
+      <c r="X27" s="235"/>
+      <c r="Y27" s="259"/>
+      <c r="Z27" s="235"/>
+      <c r="AA27" s="259"/>
+      <c r="AB27" s="235"/>
+      <c r="AC27" s="264" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD27" s="268"/>
+      <c r="AE27" s="239" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF27" s="233"/>
+      <c r="AG27" s="264" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH27" s="268"/>
       <c r="AI27" s="19"/>
       <c r="AJ27" s="18"/>
       <c r="AK27" s="41"/>
@@ -5829,8 +5828,8 @@
       <c r="D28" s="15"/>
       <c r="E28" s="36"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="257"/>
-      <c r="H28" s="238"/>
+      <c r="G28" s="270"/>
+      <c r="H28" s="265"/>
       <c r="I28" s="19"/>
       <c r="J28" s="18"/>
       <c r="K28" s="19"/>
@@ -5886,141 +5885,141 @@
       <c r="BI28" s="11"/>
     </row>
     <row r="29" spans="1:61" ht="16" customHeight="1">
-      <c r="A29" s="294" t="s">
-        <v>143</v>
-      </c>
-      <c r="B29" s="295"/>
-      <c r="C29" s="296"/>
+      <c r="A29" s="353" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="354"/>
+      <c r="C29" s="355"/>
       <c r="D29" s="57"/>
       <c r="E29" s="58"/>
       <c r="F29" s="59"/>
-      <c r="G29" s="362" t="s">
-        <v>144</v>
-      </c>
-      <c r="H29" s="363"/>
-      <c r="I29" s="361" t="s">
-        <v>145</v>
-      </c>
-      <c r="J29" s="256"/>
-      <c r="K29" s="255"/>
-      <c r="L29" s="256"/>
-      <c r="M29" s="361" t="s">
-        <v>145</v>
-      </c>
-      <c r="N29" s="256"/>
-      <c r="O29" s="255"/>
-      <c r="P29" s="256"/>
-      <c r="Q29" s="361" t="s">
-        <v>145</v>
-      </c>
-      <c r="R29" s="256"/>
-      <c r="S29" s="255"/>
-      <c r="T29" s="256"/>
-      <c r="U29" s="361" t="s">
-        <v>145</v>
-      </c>
-      <c r="V29" s="256"/>
-      <c r="W29" s="255"/>
-      <c r="X29" s="256"/>
-      <c r="Y29" s="304" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z29" s="256"/>
-      <c r="AA29" s="340"/>
-      <c r="AB29" s="256"/>
-      <c r="AC29" s="230" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD29" s="231"/>
-      <c r="AE29" s="343"/>
-      <c r="AF29" s="344"/>
-      <c r="AG29" s="341" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH29" s="342"/>
-      <c r="AI29" s="303"/>
-      <c r="AJ29" s="276"/>
-      <c r="AK29" s="251"/>
-      <c r="AL29" s="252"/>
-      <c r="AM29" s="258"/>
-      <c r="AN29" s="259"/>
-      <c r="AO29" s="230" t="s">
-        <v>146</v>
-      </c>
-      <c r="AP29" s="231"/>
-      <c r="AQ29" s="303"/>
-      <c r="AR29" s="276"/>
-      <c r="AS29" s="251"/>
-      <c r="AT29" s="252"/>
-      <c r="AU29" s="258"/>
-      <c r="AV29" s="259"/>
-      <c r="AW29" s="250"/>
-      <c r="AX29" s="231"/>
+      <c r="G29" s="262" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="263"/>
+      <c r="I29" s="230" t="s">
+        <v>142</v>
+      </c>
+      <c r="J29" s="231"/>
+      <c r="K29" s="251"/>
+      <c r="L29" s="231"/>
+      <c r="M29" s="230" t="s">
+        <v>142</v>
+      </c>
+      <c r="N29" s="231"/>
+      <c r="O29" s="251"/>
+      <c r="P29" s="231"/>
+      <c r="Q29" s="230" t="s">
+        <v>142</v>
+      </c>
+      <c r="R29" s="231"/>
+      <c r="S29" s="251"/>
+      <c r="T29" s="231"/>
+      <c r="U29" s="230" t="s">
+        <v>142</v>
+      </c>
+      <c r="V29" s="231"/>
+      <c r="W29" s="251"/>
+      <c r="X29" s="231"/>
+      <c r="Y29" s="348" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z29" s="231"/>
+      <c r="AA29" s="303"/>
+      <c r="AB29" s="231"/>
+      <c r="AC29" s="323" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD29" s="324"/>
+      <c r="AE29" s="312"/>
+      <c r="AF29" s="313"/>
+      <c r="AG29" s="310" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH29" s="311"/>
+      <c r="AI29" s="306"/>
+      <c r="AJ29" s="307"/>
+      <c r="AK29" s="345"/>
+      <c r="AL29" s="346"/>
+      <c r="AM29" s="315"/>
+      <c r="AN29" s="316"/>
+      <c r="AO29" s="323" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP29" s="324"/>
+      <c r="AQ29" s="306"/>
+      <c r="AR29" s="307"/>
+      <c r="AS29" s="345"/>
+      <c r="AT29" s="346"/>
+      <c r="AU29" s="315"/>
+      <c r="AV29" s="316"/>
+      <c r="AW29" s="365"/>
+      <c r="AX29" s="324"/>
       <c r="AY29" s="60"/>
       <c r="AZ29" s="61"/>
-      <c r="BA29" s="336"/>
-      <c r="BB29" s="337"/>
-      <c r="BC29" s="275"/>
-      <c r="BD29" s="276"/>
-      <c r="BE29" s="303"/>
-      <c r="BF29" s="276"/>
+      <c r="BA29" s="321"/>
+      <c r="BB29" s="322"/>
+      <c r="BC29" s="349"/>
+      <c r="BD29" s="307"/>
+      <c r="BE29" s="306"/>
+      <c r="BF29" s="307"/>
       <c r="BG29" s="62"/>
       <c r="BH29" s="62"/>
       <c r="BI29" s="11"/>
     </row>
     <row r="30" spans="1:61" ht="16" customHeight="1">
-      <c r="A30" s="281" t="s">
-        <v>147</v>
-      </c>
-      <c r="B30" s="282"/>
-      <c r="C30" s="283"/>
+      <c r="A30" s="350" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="351"/>
+      <c r="C30" s="352"/>
       <c r="D30" s="63"/>
       <c r="E30" s="64"/>
       <c r="F30" s="65"/>
       <c r="G30" s="66" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H30" s="67"/>
-      <c r="I30" s="310">
+      <c r="I30" s="252">
         <v>42705</v>
       </c>
-      <c r="J30" s="298"/>
-      <c r="K30" s="310">
+      <c r="J30" s="253"/>
+      <c r="K30" s="252">
         <v>42705</v>
       </c>
-      <c r="L30" s="311"/>
-      <c r="M30" s="310">
+      <c r="L30" s="254"/>
+      <c r="M30" s="252">
         <v>42672</v>
       </c>
-      <c r="N30" s="298"/>
-      <c r="O30" s="310">
+      <c r="N30" s="253"/>
+      <c r="O30" s="252">
         <v>42672</v>
       </c>
-      <c r="P30" s="311"/>
-      <c r="Q30" s="310">
+      <c r="P30" s="254"/>
+      <c r="Q30" s="252">
         <v>42593</v>
       </c>
-      <c r="R30" s="298"/>
-      <c r="S30" s="310">
+      <c r="R30" s="253"/>
+      <c r="S30" s="252">
         <v>42593</v>
       </c>
-      <c r="T30" s="311"/>
-      <c r="U30" s="310">
+      <c r="T30" s="254"/>
+      <c r="U30" s="252">
         <v>42593</v>
       </c>
-      <c r="V30" s="311"/>
-      <c r="W30" s="310">
+      <c r="V30" s="254"/>
+      <c r="W30" s="252">
         <v>42593</v>
       </c>
-      <c r="X30" s="311"/>
-      <c r="Y30" s="297">
+      <c r="X30" s="254"/>
+      <c r="Y30" s="255">
         <v>42494</v>
       </c>
-      <c r="Z30" s="298"/>
-      <c r="AA30" s="297">
+      <c r="Z30" s="253"/>
+      <c r="AA30" s="255">
         <v>42494</v>
       </c>
-      <c r="AB30" s="298"/>
+      <c r="AB30" s="253"/>
       <c r="AC30" s="69">
         <v>42706</v>
       </c>
@@ -6034,11 +6033,11 @@
       </c>
       <c r="AH30" s="72"/>
       <c r="AI30" s="73" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AJ30" s="74"/>
       <c r="AK30" s="75" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AL30" s="76"/>
       <c r="AM30" s="77">
@@ -6085,188 +6084,188 @@
     </row>
     <row r="31" spans="1:61" ht="16" customHeight="1">
       <c r="A31" s="85" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B31" s="86" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C31" s="87" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D31" s="88" t="s">
         <v>1</v>
       </c>
       <c r="E31" s="89" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F31" s="90" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G31" s="91" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H31" s="92" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J31" s="93" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L31" s="93" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N31" s="93" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P31" s="93" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="R31" s="93" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="T31" s="93" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="V31" s="93" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="X31" s="93" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Y31" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Z31" s="94" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AB31" s="94" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AC31" s="91" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AD31" s="92" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AE31" s="95" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AF31" s="96" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AG31" s="91" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AH31" s="92" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AI31" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AJ31" s="93" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AK31" s="91" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AL31" s="92" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AM31" s="95" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AN31" s="96" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AO31" s="91" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AP31" s="92" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AQ31" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AR31" s="93" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AS31" s="91" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AT31" s="92" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AU31" s="95" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AV31" s="96" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AW31" s="91" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AX31" s="92" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AY31" s="97"/>
       <c r="AZ31" s="98"/>
       <c r="BA31" s="99" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="BB31" s="100" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="BC31" s="97"/>
       <c r="BD31" s="98"/>
       <c r="BE31" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="BF31" s="93" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="BG31" s="101" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="BH31" s="101" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="BI31" s="11"/>
     </row>
     <row r="32" spans="1:61" ht="17.5" customHeight="1">
       <c r="A32" s="102" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B32" s="103">
         <v>25</v>
       </c>
       <c r="C32" s="104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D32" s="105"/>
       <c r="E32" s="106"/>
@@ -6394,13 +6393,13 @@
     </row>
     <row r="33" spans="1:61" ht="17" customHeight="1">
       <c r="A33" s="102" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B33" s="103">
         <v>50</v>
       </c>
       <c r="C33" s="104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D33" s="105"/>
       <c r="E33" s="130">
@@ -6543,13 +6542,13 @@
     </row>
     <row r="34" spans="1:61" ht="17" customHeight="1">
       <c r="A34" s="102" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B34" s="103">
         <v>75</v>
       </c>
       <c r="C34" s="104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D34" s="105"/>
       <c r="E34" s="130"/>
@@ -6670,13 +6669,13 @@
     </row>
     <row r="35" spans="1:61" ht="17" customHeight="1">
       <c r="A35" s="102" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B35" s="103">
         <v>75</v>
       </c>
       <c r="C35" s="104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D35" s="105"/>
       <c r="E35" s="130">
@@ -6802,13 +6801,13 @@
     </row>
     <row r="36" spans="1:61" ht="17" customHeight="1">
       <c r="A36" s="102" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B36" s="103">
         <v>100</v>
       </c>
       <c r="C36" s="104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D36" s="105"/>
       <c r="E36" s="130"/>
@@ -6927,13 +6926,13 @@
     </row>
     <row r="37" spans="1:61" ht="17" customHeight="1">
       <c r="A37" s="102" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B37" s="103">
         <v>100</v>
       </c>
       <c r="C37" s="104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D37" s="105"/>
       <c r="E37" s="130">
@@ -7077,14 +7076,14 @@
     </row>
     <row r="38" spans="1:61" ht="17" customHeight="1">
       <c r="A38" s="102" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B38" s="103">
         <f t="shared" ref="B38:B71" si="12">7.5*15</f>
         <v>112.5</v>
       </c>
       <c r="C38" s="104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D38" s="105"/>
       <c r="E38" s="130"/>
@@ -7203,14 +7202,14 @@
     </row>
     <row r="39" spans="1:61" ht="17" customHeight="1">
       <c r="A39" s="102" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B39" s="103">
         <f t="shared" ref="B39:B75" si="13">7.5*20</f>
         <v>150</v>
       </c>
       <c r="C39" s="104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D39" s="105"/>
       <c r="E39" s="130"/>
@@ -7329,11 +7328,11 @@
     </row>
     <row r="40" spans="1:61" ht="17" customHeight="1">
       <c r="A40" s="102" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B40" s="164"/>
       <c r="C40" s="104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D40" s="105"/>
       <c r="E40" s="130"/>
@@ -7398,13 +7397,13 @@
     </row>
     <row r="41" spans="1:61" ht="17" customHeight="1">
       <c r="A41" s="102" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B41" s="103">
         <v>150</v>
       </c>
       <c r="C41" s="104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D41" s="105"/>
       <c r="E41" s="130">
@@ -7539,13 +7538,13 @@
     </row>
     <row r="42" spans="1:61" ht="17" customHeight="1">
       <c r="A42" s="102" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B42" s="103">
         <v>200</v>
       </c>
       <c r="C42" s="104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D42" s="105"/>
       <c r="E42" s="130">
@@ -7686,11 +7685,11 @@
     </row>
     <row r="43" spans="1:61" ht="17" customHeight="1">
       <c r="A43" s="102" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B43" s="164"/>
       <c r="C43" s="104" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D43" s="105"/>
       <c r="E43" s="130"/>
@@ -7759,11 +7758,11 @@
     </row>
     <row r="44" spans="1:61" ht="17" customHeight="1">
       <c r="A44" s="102" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B44" s="164"/>
       <c r="C44" s="104" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D44" s="105"/>
       <c r="E44" s="130"/>
@@ -7828,14 +7827,14 @@
     </row>
     <row r="45" spans="1:61" ht="17" customHeight="1">
       <c r="A45" s="102" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B45" s="103">
         <f>12*20</f>
         <v>240</v>
       </c>
       <c r="C45" s="104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D45" s="105"/>
       <c r="E45" s="130"/>
@@ -7926,13 +7925,13 @@
     </row>
     <row r="46" spans="1:61" ht="17" customHeight="1">
       <c r="A46" s="102" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B46" s="103">
         <v>250</v>
       </c>
       <c r="C46" s="104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D46" s="105"/>
       <c r="E46" s="130">
@@ -8070,13 +8069,13 @@
     </row>
     <row r="47" spans="1:61" ht="17" customHeight="1">
       <c r="A47" s="102" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B47" s="103">
         <v>300</v>
       </c>
       <c r="C47" s="104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D47" s="105"/>
       <c r="E47" s="130"/>
@@ -8186,13 +8185,13 @@
     </row>
     <row r="48" spans="1:61" ht="17" customHeight="1">
       <c r="A48" s="102" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B48" s="103">
         <v>300</v>
       </c>
       <c r="C48" s="104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D48" s="105"/>
       <c r="E48" s="130">
@@ -8332,11 +8331,11 @@
     </row>
     <row r="49" spans="1:61" ht="17" customHeight="1">
       <c r="A49" s="102" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B49" s="164"/>
       <c r="C49" s="104" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D49" s="105"/>
       <c r="E49" s="130"/>
@@ -8405,14 +8404,14 @@
     </row>
     <row r="50" spans="1:61" ht="17" customHeight="1">
       <c r="A50" s="102" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B50" s="103">
         <f t="shared" ref="B50:B84" si="14">12.5*25</f>
         <v>312.5</v>
       </c>
       <c r="C50" s="104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D50" s="105"/>
       <c r="E50" s="130"/>
@@ -8533,11 +8532,11 @@
     </row>
     <row r="51" spans="1:61" ht="17" customHeight="1">
       <c r="A51" s="102" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B51" s="164"/>
       <c r="C51" s="104" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D51" s="105"/>
       <c r="E51" s="130"/>
@@ -8602,14 +8601,14 @@
     </row>
     <row r="52" spans="1:61" ht="17" customHeight="1">
       <c r="A52" s="102" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B52" s="103">
         <f>10*35</f>
         <v>350</v>
       </c>
       <c r="C52" s="104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D52" s="105"/>
       <c r="E52" s="130"/>
@@ -8712,14 +8711,14 @@
     </row>
     <row r="53" spans="1:61" ht="17" customHeight="1">
       <c r="A53" s="102" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B53" s="103">
         <f t="shared" ref="B53:B86" si="15">12*30</f>
         <v>360</v>
       </c>
       <c r="C53" s="104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D53" s="105"/>
       <c r="E53" s="130"/>
@@ -8797,14 +8796,14 @@
     </row>
     <row r="54" spans="1:61" ht="17" customHeight="1">
       <c r="A54" s="102" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B54" s="103">
         <f>12.5*30</f>
         <v>375</v>
       </c>
       <c r="C54" s="104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D54" s="105"/>
       <c r="E54" s="130"/>
@@ -8923,14 +8922,14 @@
     </row>
     <row r="55" spans="1:61" ht="17" customHeight="1">
       <c r="A55" s="102" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B55" s="103">
         <f>15*20</f>
         <v>300</v>
       </c>
       <c r="C55" s="104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D55" s="105"/>
       <c r="E55" s="130"/>
@@ -9049,14 +9048,14 @@
     </row>
     <row r="56" spans="1:61" ht="17" customHeight="1">
       <c r="A56" s="102" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B56" s="103">
         <f t="shared" ref="B56:B88" si="28">15*25</f>
         <v>375</v>
       </c>
       <c r="C56" s="104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D56" s="105"/>
       <c r="E56" s="130"/>
@@ -9171,14 +9170,14 @@
     </row>
     <row r="57" spans="1:61" ht="17" customHeight="1">
       <c r="A57" s="102" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B57" s="103">
         <f>10*45</f>
         <v>450</v>
       </c>
       <c r="C57" s="104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D57" s="105"/>
       <c r="E57" s="130"/>
@@ -9293,14 +9292,14 @@
     </row>
     <row r="58" spans="1:61" ht="17" customHeight="1">
       <c r="A58" s="102" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B58" s="103">
         <f>12*40</f>
         <v>480</v>
       </c>
       <c r="C58" s="104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D58" s="105"/>
       <c r="E58" s="130"/>
@@ -9409,14 +9408,14 @@
     </row>
     <row r="59" spans="1:61" ht="17" customHeight="1">
       <c r="A59" s="102" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B59" s="103">
         <f>25*20</f>
         <v>500</v>
       </c>
       <c r="C59" s="104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D59" s="105"/>
       <c r="E59" s="130"/>
@@ -9523,14 +9522,14 @@
     </row>
     <row r="60" spans="1:61" ht="17" customHeight="1">
       <c r="A60" s="102" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B60" s="103">
         <f>17*33</f>
         <v>561</v>
       </c>
       <c r="C60" s="104" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D60" s="105"/>
       <c r="E60" s="130"/>
@@ -9637,13 +9636,13 @@
     </row>
     <row r="61" spans="1:61" ht="17" customHeight="1">
       <c r="A61" s="176" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B61" s="177">
         <v>25</v>
       </c>
       <c r="C61" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D61" s="179">
         <v>1</v>
@@ -9744,11 +9743,11 @@
     </row>
     <row r="62" spans="1:61" ht="17" customHeight="1">
       <c r="A62" s="176" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B62" s="186"/>
       <c r="C62" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D62" s="179">
         <v>2</v>
@@ -9821,13 +9820,13 @@
     </row>
     <row r="63" spans="1:61" ht="17" customHeight="1">
       <c r="A63" s="176" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B63" s="177">
         <v>50</v>
       </c>
       <c r="C63" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D63" s="179">
         <v>1</v>
@@ -9987,11 +9986,11 @@
     </row>
     <row r="64" spans="1:61" ht="17" customHeight="1">
       <c r="A64" s="176" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B64" s="186"/>
       <c r="C64" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D64" s="179">
         <v>2</v>
@@ -10064,13 +10063,13 @@
     </row>
     <row r="65" spans="1:61" ht="17" customHeight="1">
       <c r="A65" s="176" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B65" s="177">
         <v>75</v>
       </c>
       <c r="C65" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D65" s="179">
         <v>1</v>
@@ -10195,11 +10194,11 @@
     </row>
     <row r="66" spans="1:61" ht="17" customHeight="1">
       <c r="A66" s="176" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B66" s="186"/>
       <c r="C66" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D66" s="179">
         <v>2</v>
@@ -10266,13 +10265,13 @@
     </row>
     <row r="67" spans="1:61" ht="17" customHeight="1">
       <c r="A67" s="176" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B67" s="177">
         <v>75</v>
       </c>
       <c r="C67" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D67" s="179">
         <v>1</v>
@@ -10398,11 +10397,11 @@
     </row>
     <row r="68" spans="1:61" ht="17" customHeight="1">
       <c r="A68" s="176" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B68" s="186"/>
       <c r="C68" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D68" s="179">
         <v>2</v>
@@ -10475,13 +10474,13 @@
     </row>
     <row r="69" spans="1:61" ht="17" customHeight="1">
       <c r="A69" s="176" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B69" s="177">
         <v>100</v>
       </c>
       <c r="C69" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D69" s="179">
         <v>1</v>
@@ -10631,11 +10630,11 @@
     </row>
     <row r="70" spans="1:61" ht="17" customHeight="1">
       <c r="A70" s="176" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B70" s="186"/>
       <c r="C70" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D70" s="179">
         <v>2</v>
@@ -10710,14 +10709,14 @@
     </row>
     <row r="71" spans="1:61" ht="17" customHeight="1">
       <c r="A71" s="176" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B71" s="177">
         <f t="shared" si="12"/>
         <v>112.5</v>
       </c>
       <c r="C71" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D71" s="179">
         <v>1</v>
@@ -10843,11 +10842,11 @@
     </row>
     <row r="72" spans="1:61" ht="17" customHeight="1">
       <c r="A72" s="176" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B72" s="186"/>
       <c r="C72" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D72" s="179">
         <v>2</v>
@@ -10914,13 +10913,13 @@
     </row>
     <row r="73" spans="1:61" ht="17" customHeight="1">
       <c r="A73" s="176" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B73" s="177">
         <v>120</v>
       </c>
       <c r="C73" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D73" s="179">
         <v>1</v>
@@ -11012,11 +11011,11 @@
     </row>
     <row r="74" spans="1:61" ht="17" customHeight="1">
       <c r="A74" s="176" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B74" s="186"/>
       <c r="C74" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D74" s="179">
         <v>2</v>
@@ -11083,14 +11082,14 @@
     </row>
     <row r="75" spans="1:61" ht="17" customHeight="1">
       <c r="A75" s="176" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B75" s="177">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
       <c r="C75" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D75" s="179">
         <v>1</v>
@@ -11205,13 +11204,13 @@
     </row>
     <row r="76" spans="1:61" ht="17" customHeight="1">
       <c r="A76" s="176" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B76" s="177">
         <v>150</v>
       </c>
       <c r="C76" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D76" s="179">
         <v>1</v>
@@ -11368,11 +11367,11 @@
     </row>
     <row r="77" spans="1:61" ht="17" customHeight="1">
       <c r="A77" s="176" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B77" s="186"/>
       <c r="C77" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D77" s="179">
         <v>2</v>
@@ -11447,14 +11446,14 @@
     </row>
     <row r="78" spans="1:61" ht="17" customHeight="1">
       <c r="A78" s="176" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B78" s="177">
         <f>8*20</f>
         <v>160</v>
       </c>
       <c r="C78" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D78" s="179">
         <v>1</v>
@@ -11529,13 +11528,13 @@
     </row>
     <row r="79" spans="1:61" ht="17" customHeight="1">
       <c r="A79" s="176" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B79" s="177">
         <v>200</v>
       </c>
       <c r="C79" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D79" s="179">
         <v>1</v>
@@ -11688,11 +11687,11 @@
     </row>
     <row r="80" spans="1:61" ht="17" customHeight="1">
       <c r="A80" s="176" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B80" s="186"/>
       <c r="C80" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D80" s="179">
         <v>2</v>
@@ -11765,13 +11764,13 @@
     </row>
     <row r="81" spans="1:61" ht="17" customHeight="1">
       <c r="A81" s="176" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B81" s="177">
         <v>250</v>
       </c>
       <c r="C81" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D81" s="179">
         <v>1</v>
@@ -11909,13 +11908,13 @@
     </row>
     <row r="82" spans="1:61" ht="17" customHeight="1">
       <c r="A82" s="176" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B82" s="177">
         <v>300</v>
       </c>
       <c r="C82" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D82" s="179">
         <v>1</v>
@@ -12057,11 +12056,11 @@
     </row>
     <row r="83" spans="1:61" ht="17" customHeight="1">
       <c r="A83" s="176" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B83" s="186"/>
       <c r="C83" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D83" s="179">
         <v>2</v>
@@ -12130,14 +12129,14 @@
     </row>
     <row r="84" spans="1:61" ht="17" customHeight="1">
       <c r="A84" s="176" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B84" s="177">
         <f t="shared" si="14"/>
         <v>312.5</v>
       </c>
       <c r="C84" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D84" s="179">
         <v>1</v>
@@ -12260,11 +12259,11 @@
     </row>
     <row r="85" spans="1:61" ht="17" customHeight="1">
       <c r="A85" s="176" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B85" s="186"/>
       <c r="C85" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D85" s="179">
         <v>2</v>
@@ -12331,14 +12330,14 @@
     </row>
     <row r="86" spans="1:61" ht="17" customHeight="1">
       <c r="A86" s="176" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B86" s="177">
         <f t="shared" si="15"/>
         <v>360</v>
       </c>
       <c r="C86" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D86" s="179">
         <v>1</v>
@@ -12457,11 +12456,11 @@
     </row>
     <row r="87" spans="1:61" ht="17" customHeight="1">
       <c r="A87" s="176" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B87" s="186"/>
       <c r="C87" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D87" s="179">
         <v>2</v>
@@ -12526,14 +12525,14 @@
     </row>
     <row r="88" spans="1:61" ht="17" customHeight="1">
       <c r="A88" s="176" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B88" s="177">
         <f t="shared" si="28"/>
         <v>375</v>
       </c>
       <c r="C88" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D88" s="179">
         <v>1</v>
@@ -12650,14 +12649,14 @@
     </row>
     <row r="89" spans="1:61" ht="17" customHeight="1">
       <c r="A89" s="176" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B89" s="177">
         <f>15*30</f>
         <v>450</v>
       </c>
       <c r="C89" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D89" s="179">
         <v>1</v>
@@ -12774,11 +12773,11 @@
     </row>
     <row r="90" spans="1:61" ht="17" customHeight="1">
       <c r="A90" s="176" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B90" s="186"/>
       <c r="C90" s="178" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D90" s="179">
         <v>2</v>
@@ -12843,14 +12842,14 @@
     </row>
     <row r="91" spans="1:61" ht="16" customHeight="1">
       <c r="A91" s="203" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B91" s="204">
         <f>15*35</f>
         <v>525</v>
       </c>
       <c r="C91" s="205" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D91" s="179">
         <v>1</v>
@@ -12959,11 +12958,11 @@
     </row>
     <row r="92" spans="1:61" ht="17.5" customHeight="1">
       <c r="A92" s="206" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B92" s="207"/>
       <c r="C92" s="208" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D92" s="209">
         <v>2</v>
@@ -13091,6 +13090,573 @@
     </row>
   </sheetData>
   <mergeCells count="591">
+    <mergeCell ref="AC29:AD29"/>
+    <mergeCell ref="BE11:BF11"/>
+    <mergeCell ref="BC19:BD19"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BC14:BD14"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="BA8:BB8"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="AM20:AN20"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="AW29:AX29"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AM19:AN19"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="AQ14:AR14"/>
+    <mergeCell ref="AS6:AT6"/>
+    <mergeCell ref="AQ13:AR13"/>
+    <mergeCell ref="AM29:AN29"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BC12:BD12"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="BC9:BD9"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="BA10:BB10"/>
+    <mergeCell ref="BA13:BB13"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="AO13:AP13"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="BC7:BD7"/>
+    <mergeCell ref="BC29:BD29"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="BE29:BF29"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="AS29:AT29"/>
+    <mergeCell ref="BA19:BB19"/>
+    <mergeCell ref="BC11:BD11"/>
+    <mergeCell ref="BC8:BD8"/>
+    <mergeCell ref="BC10:BD10"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="AO19:AP19"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="BA14:BB14"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AY10:AZ10"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="AW10:AX10"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AW7:AX7"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="AW6:AX6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="AU11:AV11"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AS19:AT19"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="BE14:BF14"/>
+    <mergeCell ref="BE13:BF13"/>
+    <mergeCell ref="BE12:BF12"/>
+    <mergeCell ref="AW8:AX8"/>
+    <mergeCell ref="BE19:BF19"/>
+    <mergeCell ref="BE9:BF9"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="AU7:AV7"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="BE10:BF10"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AS14:AT14"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AM14:AN14"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="AS11:AT11"/>
+    <mergeCell ref="AS10:AT10"/>
+    <mergeCell ref="BC13:BD13"/>
+    <mergeCell ref="AW19:AX19"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="AS12:AT12"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AU19:AV19"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AU29:AV29"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="BA29:BB29"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AM13:AN13"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AS13:AT13"/>
+    <mergeCell ref="AO29:AP29"/>
+    <mergeCell ref="AU14:AV14"/>
+    <mergeCell ref="AU12:AV12"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AQ29:AR29"/>
+    <mergeCell ref="AU13:AV13"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AM10:AN10"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AO10:AP10"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AQ10:AR10"/>
+    <mergeCell ref="AQ19:AR19"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="BA7:BB7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AW9:AX9"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AQ9:AR9"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU9:AV9"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AU10:AV10"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AO15:AP15"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AO14:AP14"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="Q12:R12"/>
@@ -13115,573 +13681,6 @@
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AO15:AP15"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AO14:AP14"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AQ10:AR10"/>
-    <mergeCell ref="AQ19:AR19"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="BA7:BB7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU9:AV9"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AU10:AV10"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AQ29:AR29"/>
-    <mergeCell ref="AU13:AV13"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AM10:AN10"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AO10:AP10"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AU29:AV29"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="BA29:BB29"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="AM16:AN16"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AM13:AN13"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AS13:AT13"/>
-    <mergeCell ref="AO29:AP29"/>
-    <mergeCell ref="AU14:AV14"/>
-    <mergeCell ref="AU12:AV12"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AS11:AT11"/>
-    <mergeCell ref="AS10:AT10"/>
-    <mergeCell ref="BC13:BD13"/>
-    <mergeCell ref="AW19:AX19"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="AS12:AT12"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AU19:AV19"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="BE14:BF14"/>
-    <mergeCell ref="BE13:BF13"/>
-    <mergeCell ref="BE12:BF12"/>
-    <mergeCell ref="AW8:AX8"/>
-    <mergeCell ref="BE19:BF19"/>
-    <mergeCell ref="BE9:BF9"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AU8:AV8"/>
-    <mergeCell ref="AU7:AV7"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="BE10:BF10"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AS14:AT14"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="AW10:AX10"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AW7:AX7"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="AW6:AX6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="AU11:AV11"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AS19:AT19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="BA14:BB14"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AY10:AZ10"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="BE29:BF29"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="AS29:AT29"/>
-    <mergeCell ref="BA19:BB19"/>
-    <mergeCell ref="BC11:BD11"/>
-    <mergeCell ref="BC8:BD8"/>
-    <mergeCell ref="BC10:BD10"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="AO19:AP19"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="BC7:BD7"/>
-    <mergeCell ref="BC29:BD29"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BC12:BD12"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="BC9:BD9"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="BA10:BB10"/>
-    <mergeCell ref="BA13:BB13"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="AO13:AP13"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AC29:AD29"/>
-    <mergeCell ref="BE11:BF11"/>
-    <mergeCell ref="BC19:BD19"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BC14:BD14"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="BA8:BB8"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="AM20:AN20"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="AW29:AX29"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AM19:AN19"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="AQ14:AR14"/>
-    <mergeCell ref="AS6:AT6"/>
-    <mergeCell ref="AQ13:AR13"/>
-    <mergeCell ref="AM29:AN29"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:BD5 AM32:AM35 AS32:AS35 AU32:AU35 AG36 AM36 AS36 AU36 AG37 AM37 AS37 AU37 AG38 AM38 AS38 AU38 AG39 AM39 AS39 AU39 AG40 AM40 AS40 AU40 AG41 AM41 AS41 AU41 AG42 AM42 AS42 AU42 AG43 AM43 AS43 AU43 AG44 AM44 AS44 AU44 AG45 AM45 AS45 AU45 AG46 AM46 AS46 AU46 AG47 AM47 AS47 AU47 AG48 AM48 AS48 AU48 AG49 AM49 AS49 AU49 AG50 AM50 AS50 AU50 AG51 AM51 AS51 AU51 AE52 AG52 AM52 AS52 AU52 AE53 AG53 AM53 AS53 AU53 AG54 AM54 AS54 AU54 AG55 AM55 AS55 AU55 AG56 AM56 AS56 AU56 AG57 AM57 AS57 AU57 AG58 AM58 AS58 AU58 AG59 AM59 AS59 AU59 AG60 AM60 AS60 AU60 AG61 AM61 AS61 AU61 AG62 AM62:AM93 AS62:AS93 AU62:AU76">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">

--- a/DataFiles/161201 Self Storage Market Rent Comparison r12.xlsx
+++ b/DataFiles/161201 Self Storage Market Rent Comparison r12.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26519"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9100" yWindow="0" windowWidth="32540" windowHeight="27420"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,6 @@
     <t>Spicewood SuperStorage</t>
   </si>
   <si>
-    <t>STORE MORE! Self Storage now RightSpace Storage</t>
-  </si>
-  <si>
     <t>Morningstar Storage</t>
   </si>
   <si>
@@ -707,13 +704,16 @@
     <t>5'x15'</t>
   </si>
   <si>
-    <t>CubeSmart (aka American Mini) - Lakeway</t>
-  </si>
-  <si>
     <t>Store It All Self Storage - Lakeway</t>
   </si>
   <si>
     <t>CubeSmart (was All-Stor)</t>
+  </si>
+  <si>
+    <t>CubeSmart - Lakeway</t>
+  </si>
+  <si>
+    <t>RightSpace Storage</t>
   </si>
 </sst>
 </file>
@@ -1810,16 +1810,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="4" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1828,38 +1822,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1868,350 +1831,387 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3412,8 +3412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="BA1" sqref="BA1:BB1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AU1" sqref="AU1:AV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -3439,1452 +3439,1452 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="43" customHeight="1">
-      <c r="A1" s="336" t="s">
+      <c r="A1" s="326" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="337"/>
-      <c r="C1" s="338"/>
+      <c r="B1" s="327"/>
+      <c r="C1" s="328"/>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="328" t="s">
+      <c r="E1" s="331" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="329"/>
-      <c r="G1" s="301" t="s">
+      <c r="F1" s="332"/>
+      <c r="G1" s="310" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="302"/>
-      <c r="I1" s="248" t="s">
+      <c r="H1" s="311"/>
+      <c r="I1" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="249"/>
-      <c r="K1" s="248" t="s">
+      <c r="J1" s="236"/>
+      <c r="K1" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="249"/>
-      <c r="M1" s="248" t="s">
+      <c r="L1" s="236"/>
+      <c r="M1" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="249"/>
-      <c r="O1" s="248" t="s">
+      <c r="N1" s="236"/>
+      <c r="O1" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="249"/>
-      <c r="Q1" s="248" t="s">
+      <c r="P1" s="236"/>
+      <c r="Q1" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="249"/>
-      <c r="S1" s="248" t="s">
+      <c r="R1" s="236"/>
+      <c r="S1" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="249"/>
-      <c r="U1" s="248" t="s">
+      <c r="T1" s="236"/>
+      <c r="U1" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="249"/>
-      <c r="W1" s="248" t="s">
+      <c r="V1" s="236"/>
+      <c r="W1" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="249"/>
-      <c r="Y1" s="258" t="s">
+      <c r="X1" s="236"/>
+      <c r="Y1" s="357" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="249"/>
-      <c r="AA1" s="258" t="s">
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="357" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="249"/>
-      <c r="AC1" s="301" t="s">
+      <c r="AB1" s="236"/>
+      <c r="AC1" s="310" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" s="302"/>
-      <c r="AE1" s="330" t="s">
+      <c r="AD1" s="311"/>
+      <c r="AE1" s="321" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" s="249"/>
-      <c r="AG1" s="297" t="s">
+      <c r="AF1" s="236"/>
+      <c r="AG1" s="277" t="s">
         <v>8</v>
       </c>
-      <c r="AH1" s="298"/>
-      <c r="AI1" s="295" t="s">
+      <c r="AH1" s="278"/>
+      <c r="AI1" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="AJ1" s="296"/>
-      <c r="AK1" s="297" t="s">
+      <c r="AJ1" s="246"/>
+      <c r="AK1" s="277" t="s">
         <v>10</v>
       </c>
-      <c r="AL1" s="298"/>
-      <c r="AM1" s="295" t="s">
+      <c r="AL1" s="278"/>
+      <c r="AM1" s="245" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN1" s="246"/>
+      <c r="AO1" s="310" t="s">
         <v>186</v>
       </c>
-      <c r="AN1" s="296"/>
-      <c r="AO1" s="301" t="s">
+      <c r="AP1" s="311"/>
+      <c r="AQ1" s="245" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR1" s="246"/>
+      <c r="AS1" s="277" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT1" s="278"/>
+      <c r="AU1" s="245" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV1" s="246"/>
+      <c r="AW1" s="310" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX1" s="311"/>
+      <c r="AY1" s="245" t="s">
+        <v>14</v>
+      </c>
+      <c r="AZ1" s="246"/>
+      <c r="BA1" s="329" t="s">
         <v>185</v>
       </c>
-      <c r="AP1" s="302"/>
-      <c r="AQ1" s="295" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR1" s="296"/>
-      <c r="AS1" s="297" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT1" s="298"/>
-      <c r="AU1" s="295" t="s">
-        <v>13</v>
-      </c>
-      <c r="AV1" s="296"/>
-      <c r="AW1" s="301" t="s">
-        <v>14</v>
-      </c>
-      <c r="AX1" s="302"/>
-      <c r="AY1" s="295" t="s">
+      <c r="BB1" s="330"/>
+      <c r="BC1" s="245" t="s">
         <v>15</v>
       </c>
-      <c r="AZ1" s="296"/>
-      <c r="BA1" s="326" t="s">
-        <v>187</v>
-      </c>
-      <c r="BB1" s="327"/>
-      <c r="BC1" s="295" t="s">
+      <c r="BD1" s="246"/>
+      <c r="BE1" s="245" t="s">
         <v>16</v>
       </c>
-      <c r="BD1" s="296"/>
-      <c r="BE1" s="295" t="s">
+      <c r="BF1" s="246"/>
+      <c r="BG1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="BF1" s="296"/>
-      <c r="BG1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="BH1" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="BI1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:61" ht="42" customHeight="1">
-      <c r="A2" s="333" t="s">
+      <c r="A2" s="323" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="324"/>
+      <c r="C2" s="325"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="350"/>
+      <c r="F2" s="351"/>
+      <c r="G2" s="290" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="334"/>
-      <c r="C2" s="335"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="277"/>
-      <c r="F2" s="278"/>
-      <c r="G2" s="274" t="s">
+      <c r="H2" s="291"/>
+      <c r="I2" s="320" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="275"/>
-      <c r="I2" s="246" t="s">
+      <c r="J2" s="249"/>
+      <c r="K2" s="276"/>
+      <c r="L2" s="249"/>
+      <c r="M2" s="320" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="249"/>
+      <c r="O2" s="276"/>
+      <c r="P2" s="249"/>
+      <c r="Q2" s="320" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="249"/>
+      <c r="S2" s="276"/>
+      <c r="T2" s="249"/>
+      <c r="U2" s="320" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="249"/>
+      <c r="W2" s="276"/>
+      <c r="X2" s="249"/>
+      <c r="Y2" s="356" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="249"/>
+      <c r="AA2" s="365"/>
+      <c r="AB2" s="249"/>
+      <c r="AC2" s="290" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="247"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="247"/>
-      <c r="M2" s="246" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="247"/>
-      <c r="O2" s="250"/>
-      <c r="P2" s="247"/>
-      <c r="Q2" s="246" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="247"/>
-      <c r="S2" s="250"/>
-      <c r="T2" s="247"/>
-      <c r="U2" s="246" t="s">
-        <v>22</v>
-      </c>
-      <c r="V2" s="247"/>
-      <c r="W2" s="250"/>
-      <c r="X2" s="247"/>
-      <c r="Y2" s="273" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z2" s="247"/>
-      <c r="AA2" s="257"/>
-      <c r="AB2" s="247"/>
-      <c r="AC2" s="274" t="s">
+      <c r="AD2" s="291"/>
+      <c r="AE2" s="320" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="275"/>
-      <c r="AE2" s="246" t="s">
+      <c r="AF2" s="249"/>
+      <c r="AG2" s="290" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" s="247"/>
-      <c r="AG2" s="274" t="s">
+      <c r="AH2" s="291"/>
+      <c r="AI2" s="320" t="s">
         <v>25</v>
       </c>
-      <c r="AH2" s="275"/>
-      <c r="AI2" s="246" t="s">
+      <c r="AJ2" s="249"/>
+      <c r="AK2" s="290" t="s">
         <v>26</v>
       </c>
-      <c r="AJ2" s="247"/>
-      <c r="AK2" s="274" t="s">
+      <c r="AL2" s="291"/>
+      <c r="AM2" s="320" t="s">
         <v>27</v>
       </c>
-      <c r="AL2" s="275"/>
-      <c r="AM2" s="246" t="s">
+      <c r="AN2" s="249"/>
+      <c r="AO2" s="290" t="s">
         <v>28</v>
       </c>
-      <c r="AN2" s="247"/>
-      <c r="AO2" s="274" t="s">
+      <c r="AP2" s="291"/>
+      <c r="AQ2" s="320" t="s">
         <v>29</v>
       </c>
-      <c r="AP2" s="275"/>
-      <c r="AQ2" s="246" t="s">
+      <c r="AR2" s="249"/>
+      <c r="AS2" s="290" t="s">
         <v>30</v>
       </c>
-      <c r="AR2" s="247"/>
-      <c r="AS2" s="274" t="s">
+      <c r="AT2" s="291"/>
+      <c r="AU2" s="320" t="s">
         <v>31</v>
       </c>
-      <c r="AT2" s="275"/>
-      <c r="AU2" s="246" t="s">
+      <c r="AV2" s="249"/>
+      <c r="AW2" s="290" t="s">
         <v>32</v>
       </c>
-      <c r="AV2" s="247"/>
-      <c r="AW2" s="274" t="s">
+      <c r="AX2" s="291"/>
+      <c r="AY2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AX2" s="275"/>
-      <c r="AY2" s="8" t="s">
+      <c r="AZ2" s="9"/>
+      <c r="BA2" s="315" t="s">
         <v>34</v>
       </c>
-      <c r="AZ2" s="9"/>
-      <c r="BA2" s="341" t="s">
+      <c r="BB2" s="316"/>
+      <c r="BC2" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="BB2" s="342"/>
-      <c r="BC2" s="364" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" s="247"/>
-      <c r="BE2" s="250"/>
-      <c r="BF2" s="247"/>
+      <c r="BD2" s="249"/>
+      <c r="BE2" s="276"/>
+      <c r="BF2" s="249"/>
       <c r="BG2" s="10"/>
       <c r="BH2" s="10"/>
       <c r="BI2" s="11"/>
     </row>
     <row r="3" spans="1:61" ht="21.75" customHeight="1">
-      <c r="A3" s="281" t="s">
+      <c r="A3" s="303" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="304"/>
+      <c r="C3" s="305"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="273">
+        <v>0</v>
+      </c>
+      <c r="F3" s="263"/>
+      <c r="G3" s="237" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="282"/>
-      <c r="C3" s="283"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="361">
-        <v>0</v>
-      </c>
-      <c r="F3" s="272"/>
-      <c r="G3" s="314" t="s">
+      <c r="H3" s="238"/>
+      <c r="I3" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="265"/>
-      <c r="I3" s="238" t="s">
+      <c r="J3" s="233"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="233"/>
+      <c r="M3" s="242" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="233"/>
+      <c r="O3" s="232"/>
+      <c r="P3" s="233"/>
+      <c r="Q3" s="242" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="233"/>
+      <c r="S3" s="232"/>
+      <c r="T3" s="233"/>
+      <c r="U3" s="242" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3" s="233"/>
+      <c r="W3" s="232"/>
+      <c r="X3" s="233"/>
+      <c r="Y3" s="314" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" s="233"/>
+      <c r="AA3" s="281"/>
+      <c r="AB3" s="233"/>
+      <c r="AC3" s="237" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="235"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="235"/>
-      <c r="M3" s="238" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="235"/>
-      <c r="O3" s="234"/>
-      <c r="P3" s="235"/>
-      <c r="Q3" s="238" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="235"/>
-      <c r="S3" s="234"/>
-      <c r="T3" s="235"/>
-      <c r="U3" s="238" t="s">
-        <v>39</v>
-      </c>
-      <c r="V3" s="235"/>
-      <c r="W3" s="234"/>
-      <c r="X3" s="235"/>
-      <c r="Y3" s="256" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z3" s="235"/>
-      <c r="AA3" s="259"/>
-      <c r="AB3" s="235"/>
-      <c r="AC3" s="314" t="s">
+      <c r="AD3" s="238"/>
+      <c r="AE3" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="AD3" s="265"/>
-      <c r="AE3" s="238" t="s">
+      <c r="AF3" s="233"/>
+      <c r="AG3" s="237" t="s">
         <v>41</v>
       </c>
-      <c r="AF3" s="235"/>
-      <c r="AG3" s="314" t="s">
+      <c r="AH3" s="238"/>
+      <c r="AI3" s="242" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ3" s="233"/>
+      <c r="AK3" s="237" t="s">
         <v>42</v>
       </c>
-      <c r="AH3" s="265"/>
-      <c r="AI3" s="238" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ3" s="235"/>
-      <c r="AK3" s="314" t="s">
+      <c r="AL3" s="238"/>
+      <c r="AM3" s="242" t="s">
         <v>43</v>
       </c>
-      <c r="AL3" s="265"/>
-      <c r="AM3" s="238" t="s">
+      <c r="AN3" s="233"/>
+      <c r="AO3" s="237" t="s">
         <v>44</v>
       </c>
-      <c r="AN3" s="235"/>
-      <c r="AO3" s="314" t="s">
+      <c r="AP3" s="238"/>
+      <c r="AQ3" s="242" t="s">
         <v>45</v>
       </c>
-      <c r="AP3" s="265"/>
-      <c r="AQ3" s="238" t="s">
+      <c r="AR3" s="233"/>
+      <c r="AS3" s="237" t="s">
         <v>46</v>
       </c>
-      <c r="AR3" s="235"/>
-      <c r="AS3" s="314" t="s">
+      <c r="AT3" s="238"/>
+      <c r="AU3" s="242" t="s">
         <v>47</v>
       </c>
-      <c r="AT3" s="265"/>
-      <c r="AU3" s="238" t="s">
+      <c r="AV3" s="233"/>
+      <c r="AW3" s="237" t="s">
         <v>48</v>
       </c>
-      <c r="AV3" s="235"/>
-      <c r="AW3" s="314" t="s">
+      <c r="AX3" s="238"/>
+      <c r="AY3" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="AX3" s="265"/>
-      <c r="AY3" s="21" t="s">
+      <c r="AZ3" s="22"/>
+      <c r="BA3" s="272" t="s">
         <v>50</v>
       </c>
-      <c r="AZ3" s="22"/>
-      <c r="BA3" s="360" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB3" s="344"/>
-      <c r="BC3" s="234"/>
-      <c r="BD3" s="235"/>
-      <c r="BE3" s="234"/>
-      <c r="BF3" s="235"/>
+      <c r="BB3" s="244"/>
+      <c r="BC3" s="232"/>
+      <c r="BD3" s="233"/>
+      <c r="BE3" s="232"/>
+      <c r="BF3" s="233"/>
       <c r="BG3" s="24"/>
       <c r="BH3" s="24"/>
       <c r="BI3" s="11"/>
     </row>
     <row r="4" spans="1:61" ht="41" customHeight="1">
-      <c r="A4" s="281" t="s">
+      <c r="A4" s="303" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="304"/>
+      <c r="C4" s="305"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="352" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="282"/>
-      <c r="C4" s="283"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="279" t="s">
+      <c r="F4" s="353"/>
+      <c r="G4" s="260" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="280"/>
-      <c r="G4" s="291" t="s">
+      <c r="H4" s="261"/>
+      <c r="I4" s="354" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="290"/>
-      <c r="I4" s="244" t="s">
+      <c r="J4" s="355"/>
+      <c r="K4" s="360"/>
+      <c r="L4" s="355"/>
+      <c r="M4" s="354" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="355"/>
+      <c r="O4" s="360"/>
+      <c r="P4" s="355"/>
+      <c r="Q4" s="354" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" s="355"/>
+      <c r="S4" s="360"/>
+      <c r="T4" s="355"/>
+      <c r="U4" s="354" t="s">
+        <v>54</v>
+      </c>
+      <c r="V4" s="355"/>
+      <c r="W4" s="360"/>
+      <c r="X4" s="355"/>
+      <c r="Y4" s="358" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z4" s="355"/>
+      <c r="AA4" s="319"/>
+      <c r="AB4" s="355"/>
+      <c r="AC4" s="260" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="237"/>
-      <c r="K4" s="236"/>
-      <c r="L4" s="237"/>
-      <c r="M4" s="244" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" s="237"/>
-      <c r="O4" s="236"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="244" t="s">
-        <v>55</v>
-      </c>
-      <c r="R4" s="237"/>
-      <c r="S4" s="236"/>
-      <c r="T4" s="237"/>
-      <c r="U4" s="244" t="s">
-        <v>55</v>
-      </c>
-      <c r="V4" s="237"/>
-      <c r="W4" s="236"/>
-      <c r="X4" s="237"/>
-      <c r="Y4" s="260" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z4" s="237"/>
-      <c r="AA4" s="269"/>
-      <c r="AB4" s="237"/>
-      <c r="AC4" s="291" t="s">
+      <c r="AD4" s="238"/>
+      <c r="AE4" s="282" t="s">
         <v>56</v>
       </c>
-      <c r="AD4" s="265"/>
-      <c r="AE4" s="240" t="s">
+      <c r="AF4" s="283"/>
+      <c r="AG4" s="347" t="s">
         <v>57</v>
       </c>
-      <c r="AF4" s="241"/>
-      <c r="AG4" s="289" t="s">
+      <c r="AH4" s="261"/>
+      <c r="AI4" s="322" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ4" s="269"/>
+      <c r="AK4" s="348"/>
+      <c r="AL4" s="349"/>
+      <c r="AM4" s="282" t="s">
         <v>58</v>
       </c>
-      <c r="AH4" s="290"/>
-      <c r="AI4" s="319" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ4" s="320"/>
-      <c r="AK4" s="292"/>
-      <c r="AL4" s="293"/>
-      <c r="AM4" s="240" t="s">
+      <c r="AN4" s="283"/>
+      <c r="AO4" s="282" t="s">
         <v>59</v>
       </c>
-      <c r="AN4" s="241"/>
-      <c r="AO4" s="240" t="s">
+      <c r="AP4" s="283"/>
+      <c r="AQ4" s="268" t="s">
         <v>60</v>
       </c>
-      <c r="AP4" s="241"/>
-      <c r="AQ4" s="358" t="s">
+      <c r="AR4" s="269"/>
+      <c r="AS4" s="334" t="s">
         <v>61</v>
       </c>
-      <c r="AR4" s="320"/>
-      <c r="AS4" s="294" t="s">
+      <c r="AT4" s="261"/>
+      <c r="AU4" s="282" t="s">
         <v>62</v>
       </c>
-      <c r="AT4" s="290"/>
-      <c r="AU4" s="240" t="s">
+      <c r="AV4" s="283"/>
+      <c r="AW4" s="334" t="s">
         <v>63</v>
       </c>
-      <c r="AV4" s="241"/>
-      <c r="AW4" s="294" t="s">
+      <c r="AX4" s="261"/>
+      <c r="AY4" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="AX4" s="290"/>
-      <c r="AY4" s="26" t="s">
+      <c r="AZ4" s="27"/>
+      <c r="BA4" s="345" t="s">
         <v>65</v>
       </c>
-      <c r="AZ4" s="27"/>
-      <c r="BA4" s="287" t="s">
+      <c r="BB4" s="346"/>
+      <c r="BC4" s="322" t="s">
         <v>66</v>
       </c>
-      <c r="BB4" s="288"/>
-      <c r="BC4" s="319" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD4" s="320"/>
-      <c r="BE4" s="234"/>
-      <c r="BF4" s="235"/>
+      <c r="BD4" s="269"/>
+      <c r="BE4" s="232"/>
+      <c r="BF4" s="233"/>
       <c r="BG4" s="24"/>
       <c r="BH4" s="24"/>
       <c r="BI4" s="11"/>
     </row>
     <row r="5" spans="1:61" ht="17" customHeight="1">
-      <c r="A5" s="281" t="s">
+      <c r="A5" s="303" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="304"/>
+      <c r="C5" s="305"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="274"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="237" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="282"/>
-      <c r="C5" s="283"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="362"/>
-      <c r="F5" s="363"/>
-      <c r="G5" s="314" t="s">
+      <c r="H5" s="297"/>
+      <c r="I5" s="308">
+        <v>15</v>
+      </c>
+      <c r="J5" s="309"/>
+      <c r="K5" s="308"/>
+      <c r="L5" s="309"/>
+      <c r="M5" s="308">
+        <v>15</v>
+      </c>
+      <c r="N5" s="309"/>
+      <c r="O5" s="308"/>
+      <c r="P5" s="309"/>
+      <c r="Q5" s="308">
+        <v>15</v>
+      </c>
+      <c r="R5" s="309"/>
+      <c r="S5" s="308"/>
+      <c r="T5" s="309"/>
+      <c r="U5" s="308">
+        <v>15</v>
+      </c>
+      <c r="V5" s="309"/>
+      <c r="W5" s="308"/>
+      <c r="X5" s="309"/>
+      <c r="Y5" s="359">
+        <v>15</v>
+      </c>
+      <c r="Z5" s="309"/>
+      <c r="AA5" s="359"/>
+      <c r="AB5" s="309"/>
+      <c r="AC5" s="317">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="318"/>
+      <c r="AE5" s="308">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="309"/>
+      <c r="AG5" s="317">
+        <v>24</v>
+      </c>
+      <c r="AH5" s="318"/>
+      <c r="AI5" s="264"/>
+      <c r="AJ5" s="265"/>
+      <c r="AK5" s="253" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="309"/>
-      <c r="I5" s="242">
-        <v>15</v>
-      </c>
-      <c r="J5" s="243"/>
-      <c r="K5" s="242"/>
-      <c r="L5" s="243"/>
-      <c r="M5" s="242">
-        <v>15</v>
-      </c>
-      <c r="N5" s="243"/>
-      <c r="O5" s="242"/>
-      <c r="P5" s="243"/>
-      <c r="Q5" s="242">
-        <v>15</v>
-      </c>
-      <c r="R5" s="243"/>
-      <c r="S5" s="242"/>
-      <c r="T5" s="243"/>
-      <c r="U5" s="242">
-        <v>15</v>
-      </c>
-      <c r="V5" s="243"/>
-      <c r="W5" s="242"/>
-      <c r="X5" s="243"/>
-      <c r="Y5" s="261">
-        <v>15</v>
-      </c>
-      <c r="Z5" s="243"/>
-      <c r="AA5" s="261"/>
-      <c r="AB5" s="243"/>
-      <c r="AC5" s="304">
-        <v>10</v>
-      </c>
-      <c r="AD5" s="305"/>
-      <c r="AE5" s="242">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="243"/>
-      <c r="AG5" s="304">
-        <v>24</v>
-      </c>
-      <c r="AH5" s="305"/>
-      <c r="AI5" s="356"/>
-      <c r="AJ5" s="357"/>
-      <c r="AK5" s="264" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL5" s="305"/>
-      <c r="AM5" s="242">
+      <c r="AL5" s="318"/>
+      <c r="AM5" s="308">
         <v>20</v>
       </c>
-      <c r="AN5" s="243"/>
-      <c r="AO5" s="308"/>
-      <c r="AP5" s="309"/>
-      <c r="AQ5" s="356"/>
-      <c r="AR5" s="357"/>
-      <c r="AS5" s="304">
+      <c r="AN5" s="309"/>
+      <c r="AO5" s="339"/>
+      <c r="AP5" s="297"/>
+      <c r="AQ5" s="264"/>
+      <c r="AR5" s="265"/>
+      <c r="AS5" s="317">
         <v>17</v>
       </c>
-      <c r="AT5" s="305"/>
-      <c r="AU5" s="242">
+      <c r="AT5" s="318"/>
+      <c r="AU5" s="308">
         <v>20</v>
       </c>
-      <c r="AV5" s="243"/>
-      <c r="AW5" s="308"/>
-      <c r="AX5" s="309"/>
+      <c r="AV5" s="309"/>
+      <c r="AW5" s="339"/>
+      <c r="AX5" s="297"/>
       <c r="AY5" s="33"/>
       <c r="AZ5" s="34"/>
-      <c r="BA5" s="317"/>
-      <c r="BB5" s="318"/>
-      <c r="BC5" s="359"/>
-      <c r="BD5" s="357"/>
-      <c r="BE5" s="234"/>
-      <c r="BF5" s="235"/>
+      <c r="BA5" s="335"/>
+      <c r="BB5" s="336"/>
+      <c r="BC5" s="271"/>
+      <c r="BD5" s="265"/>
+      <c r="BE5" s="232"/>
+      <c r="BF5" s="233"/>
       <c r="BG5" s="24"/>
       <c r="BH5" s="24"/>
       <c r="BI5" s="11"/>
     </row>
     <row r="6" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A6" s="281" t="s">
+      <c r="A6" s="303" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="304"/>
+      <c r="C6" s="305"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="262"/>
+      <c r="F6" s="263"/>
+      <c r="G6" s="289" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="282"/>
-      <c r="C6" s="283"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="271"/>
-      <c r="F6" s="272"/>
-      <c r="G6" s="276" t="s">
+      <c r="H6" s="238"/>
+      <c r="I6" s="247" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="265"/>
-      <c r="I6" s="239" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="233"/>
-      <c r="K6" s="232"/>
-      <c r="L6" s="233"/>
-      <c r="M6" s="239" t="s">
-        <v>73</v>
-      </c>
-      <c r="N6" s="233"/>
-      <c r="O6" s="232"/>
-      <c r="P6" s="233"/>
-      <c r="Q6" s="239" t="s">
-        <v>73</v>
-      </c>
-      <c r="R6" s="233"/>
-      <c r="S6" s="232"/>
-      <c r="T6" s="233"/>
-      <c r="U6" s="239" t="s">
-        <v>73</v>
-      </c>
-      <c r="V6" s="233"/>
-      <c r="W6" s="232"/>
-      <c r="X6" s="233"/>
-      <c r="Y6" s="256" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z6" s="233"/>
-      <c r="AA6" s="259"/>
-      <c r="AB6" s="233"/>
-      <c r="AC6" s="264" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD6" s="268"/>
-      <c r="AE6" s="232"/>
-      <c r="AF6" s="233"/>
-      <c r="AG6" s="264" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH6" s="268"/>
-      <c r="AI6" s="234"/>
-      <c r="AJ6" s="235"/>
-      <c r="AK6" s="267"/>
-      <c r="AL6" s="268"/>
-      <c r="AM6" s="234"/>
-      <c r="AN6" s="235"/>
-      <c r="AO6" s="270"/>
-      <c r="AP6" s="265"/>
-      <c r="AQ6" s="234"/>
-      <c r="AR6" s="235"/>
-      <c r="AS6" s="270"/>
-      <c r="AT6" s="265"/>
-      <c r="AU6" s="232"/>
-      <c r="AV6" s="233"/>
-      <c r="AW6" s="270"/>
-      <c r="AX6" s="265"/>
+      <c r="J6" s="241"/>
+      <c r="K6" s="240"/>
+      <c r="L6" s="241"/>
+      <c r="M6" s="247" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" s="241"/>
+      <c r="O6" s="240"/>
+      <c r="P6" s="241"/>
+      <c r="Q6" s="247" t="s">
+        <v>72</v>
+      </c>
+      <c r="R6" s="241"/>
+      <c r="S6" s="240"/>
+      <c r="T6" s="241"/>
+      <c r="U6" s="247" t="s">
+        <v>72</v>
+      </c>
+      <c r="V6" s="241"/>
+      <c r="W6" s="240"/>
+      <c r="X6" s="241"/>
+      <c r="Y6" s="314" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z6" s="241"/>
+      <c r="AA6" s="281"/>
+      <c r="AB6" s="241"/>
+      <c r="AC6" s="253" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD6" s="254"/>
+      <c r="AE6" s="240"/>
+      <c r="AF6" s="241"/>
+      <c r="AG6" s="253" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH6" s="254"/>
+      <c r="AI6" s="232"/>
+      <c r="AJ6" s="233"/>
+      <c r="AK6" s="284"/>
+      <c r="AL6" s="254"/>
+      <c r="AM6" s="232"/>
+      <c r="AN6" s="233"/>
+      <c r="AO6" s="257"/>
+      <c r="AP6" s="238"/>
+      <c r="AQ6" s="232"/>
+      <c r="AR6" s="233"/>
+      <c r="AS6" s="257"/>
+      <c r="AT6" s="238"/>
+      <c r="AU6" s="240"/>
+      <c r="AV6" s="241"/>
+      <c r="AW6" s="257"/>
+      <c r="AX6" s="238"/>
       <c r="AY6" s="38"/>
       <c r="AZ6" s="22"/>
-      <c r="BA6" s="343"/>
-      <c r="BB6" s="344"/>
-      <c r="BC6" s="325"/>
-      <c r="BD6" s="235"/>
-      <c r="BE6" s="234"/>
-      <c r="BF6" s="235"/>
+      <c r="BA6" s="243"/>
+      <c r="BB6" s="244"/>
+      <c r="BC6" s="234"/>
+      <c r="BD6" s="233"/>
+      <c r="BE6" s="232"/>
+      <c r="BF6" s="233"/>
       <c r="BG6" s="24"/>
       <c r="BH6" s="24"/>
       <c r="BI6" s="11"/>
     </row>
     <row r="7" spans="1:61" ht="20.5" customHeight="1">
-      <c r="A7" s="281" t="s">
+      <c r="A7" s="303" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="304"/>
+      <c r="C7" s="305"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="288" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="282"/>
-      <c r="C7" s="283"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="332" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="272"/>
-      <c r="G7" s="276" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="265"/>
-      <c r="I7" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="J7" s="233"/>
-      <c r="K7" s="232"/>
-      <c r="L7" s="233"/>
-      <c r="M7" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="N7" s="233"/>
-      <c r="O7" s="232"/>
-      <c r="P7" s="233"/>
-      <c r="Q7" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="R7" s="233"/>
-      <c r="S7" s="232"/>
-      <c r="T7" s="233"/>
-      <c r="U7" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="V7" s="233"/>
-      <c r="W7" s="232"/>
-      <c r="X7" s="233"/>
-      <c r="Y7" s="256" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z7" s="233"/>
-      <c r="AA7" s="259"/>
-      <c r="AB7" s="233"/>
-      <c r="AC7" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD7" s="268"/>
-      <c r="AE7" s="232"/>
-      <c r="AF7" s="233"/>
-      <c r="AG7" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH7" s="268"/>
-      <c r="AI7" s="234"/>
-      <c r="AJ7" s="235"/>
-      <c r="AK7" s="267"/>
-      <c r="AL7" s="268"/>
-      <c r="AM7" s="234"/>
-      <c r="AN7" s="235"/>
-      <c r="AO7" s="264" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP7" s="268"/>
-      <c r="AQ7" s="234"/>
-      <c r="AR7" s="235"/>
-      <c r="AS7" s="270"/>
-      <c r="AT7" s="265"/>
-      <c r="AU7" s="232"/>
-      <c r="AV7" s="233"/>
-      <c r="AW7" s="270"/>
-      <c r="AX7" s="265"/>
+      <c r="F7" s="263"/>
+      <c r="G7" s="289" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="238"/>
+      <c r="I7" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="241"/>
+      <c r="K7" s="240"/>
+      <c r="L7" s="241"/>
+      <c r="M7" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="241"/>
+      <c r="O7" s="240"/>
+      <c r="P7" s="241"/>
+      <c r="Q7" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" s="241"/>
+      <c r="S7" s="240"/>
+      <c r="T7" s="241"/>
+      <c r="U7" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="V7" s="241"/>
+      <c r="W7" s="240"/>
+      <c r="X7" s="241"/>
+      <c r="Y7" s="314" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z7" s="241"/>
+      <c r="AA7" s="281"/>
+      <c r="AB7" s="241"/>
+      <c r="AC7" s="253" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD7" s="254"/>
+      <c r="AE7" s="240"/>
+      <c r="AF7" s="241"/>
+      <c r="AG7" s="253" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH7" s="254"/>
+      <c r="AI7" s="232"/>
+      <c r="AJ7" s="233"/>
+      <c r="AK7" s="284"/>
+      <c r="AL7" s="254"/>
+      <c r="AM7" s="232"/>
+      <c r="AN7" s="233"/>
+      <c r="AO7" s="253" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP7" s="254"/>
+      <c r="AQ7" s="232"/>
+      <c r="AR7" s="233"/>
+      <c r="AS7" s="257"/>
+      <c r="AT7" s="238"/>
+      <c r="AU7" s="240"/>
+      <c r="AV7" s="241"/>
+      <c r="AW7" s="257"/>
+      <c r="AX7" s="238"/>
       <c r="AY7" s="38"/>
       <c r="AZ7" s="22"/>
-      <c r="BA7" s="299" t="s">
-        <v>69</v>
-      </c>
-      <c r="BB7" s="300"/>
-      <c r="BC7" s="325"/>
-      <c r="BD7" s="235"/>
-      <c r="BE7" s="234"/>
-      <c r="BF7" s="235"/>
+      <c r="BA7" s="266" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB7" s="267"/>
+      <c r="BC7" s="234"/>
+      <c r="BD7" s="233"/>
+      <c r="BE7" s="232"/>
+      <c r="BF7" s="233"/>
       <c r="BG7" s="24"/>
       <c r="BH7" s="24"/>
       <c r="BI7" s="11"/>
     </row>
     <row r="8" spans="1:61" ht="16.5" customHeight="1">
-      <c r="A8" s="281" t="s">
+      <c r="A8" s="303" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="304"/>
+      <c r="C8" s="305"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="262"/>
+      <c r="F8" s="263"/>
+      <c r="G8" s="257"/>
+      <c r="H8" s="238"/>
+      <c r="I8" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="241"/>
+      <c r="K8" s="240"/>
+      <c r="L8" s="241"/>
+      <c r="M8" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="241"/>
+      <c r="O8" s="240"/>
+      <c r="P8" s="241"/>
+      <c r="Q8" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="241"/>
+      <c r="S8" s="240"/>
+      <c r="T8" s="241"/>
+      <c r="U8" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="V8" s="241"/>
+      <c r="W8" s="240"/>
+      <c r="X8" s="241"/>
+      <c r="Y8" s="314" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z8" s="241"/>
+      <c r="AA8" s="281"/>
+      <c r="AB8" s="241"/>
+      <c r="AC8" s="253" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD8" s="254"/>
+      <c r="AE8" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF8" s="241"/>
+      <c r="AG8" s="253" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="282"/>
-      <c r="C8" s="283"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="271"/>
-      <c r="F8" s="272"/>
-      <c r="G8" s="270"/>
-      <c r="H8" s="265"/>
-      <c r="I8" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" s="233"/>
-      <c r="K8" s="232"/>
-      <c r="L8" s="233"/>
-      <c r="M8" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="N8" s="233"/>
-      <c r="O8" s="232"/>
-      <c r="P8" s="233"/>
-      <c r="Q8" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="R8" s="233"/>
-      <c r="S8" s="232"/>
-      <c r="T8" s="233"/>
-      <c r="U8" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="V8" s="233"/>
-      <c r="W8" s="232"/>
-      <c r="X8" s="233"/>
-      <c r="Y8" s="256" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z8" s="233"/>
-      <c r="AA8" s="259"/>
-      <c r="AB8" s="233"/>
-      <c r="AC8" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD8" s="268"/>
-      <c r="AE8" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF8" s="233"/>
-      <c r="AG8" s="264" t="s">
+      <c r="AH8" s="254"/>
+      <c r="AI8" s="232"/>
+      <c r="AJ8" s="233"/>
+      <c r="AK8" s="257"/>
+      <c r="AL8" s="238"/>
+      <c r="AM8" s="247" t="s">
         <v>77</v>
       </c>
-      <c r="AH8" s="268"/>
-      <c r="AI8" s="234"/>
-      <c r="AJ8" s="235"/>
-      <c r="AK8" s="270"/>
-      <c r="AL8" s="265"/>
-      <c r="AM8" s="239" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN8" s="233"/>
-      <c r="AO8" s="270"/>
-      <c r="AP8" s="265"/>
-      <c r="AQ8" s="234"/>
-      <c r="AR8" s="235"/>
-      <c r="AS8" s="270"/>
-      <c r="AT8" s="265"/>
-      <c r="AU8" s="239" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV8" s="233"/>
-      <c r="AW8" s="264" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX8" s="265"/>
+      <c r="AN8" s="241"/>
+      <c r="AO8" s="257"/>
+      <c r="AP8" s="238"/>
+      <c r="AQ8" s="232"/>
+      <c r="AR8" s="233"/>
+      <c r="AS8" s="257"/>
+      <c r="AT8" s="238"/>
+      <c r="AU8" s="247" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV8" s="241"/>
+      <c r="AW8" s="253" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX8" s="238"/>
       <c r="AY8" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AZ8" s="22"/>
-      <c r="BA8" s="343"/>
-      <c r="BB8" s="344"/>
-      <c r="BC8" s="347" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD8" s="235"/>
-      <c r="BE8" s="234"/>
-      <c r="BF8" s="235"/>
+      <c r="BA8" s="243"/>
+      <c r="BB8" s="244"/>
+      <c r="BC8" s="239" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD8" s="233"/>
+      <c r="BE8" s="232"/>
+      <c r="BF8" s="233"/>
       <c r="BG8" s="24"/>
       <c r="BH8" s="24"/>
       <c r="BI8" s="11"/>
     </row>
     <row r="9" spans="1:61" ht="15" customHeight="1">
-      <c r="A9" s="281" t="s">
+      <c r="A9" s="303" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="304"/>
+      <c r="C9" s="305"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="262"/>
+      <c r="F9" s="263"/>
+      <c r="G9" s="237" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="282"/>
-      <c r="C9" s="283"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="271"/>
-      <c r="F9" s="272"/>
-      <c r="G9" s="314" t="s">
+      <c r="H9" s="238"/>
+      <c r="I9" s="242" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="265"/>
-      <c r="I9" s="238" t="s">
+      <c r="J9" s="233"/>
+      <c r="K9" s="232"/>
+      <c r="L9" s="233"/>
+      <c r="M9" s="242" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="233"/>
+      <c r="O9" s="232"/>
+      <c r="P9" s="233"/>
+      <c r="Q9" s="242" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" s="233"/>
+      <c r="S9" s="232"/>
+      <c r="T9" s="233"/>
+      <c r="U9" s="242" t="s">
+        <v>80</v>
+      </c>
+      <c r="V9" s="233"/>
+      <c r="W9" s="232"/>
+      <c r="X9" s="233"/>
+      <c r="Y9" s="314" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z9" s="233"/>
+      <c r="AA9" s="281"/>
+      <c r="AB9" s="233"/>
+      <c r="AC9" s="253" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="235"/>
-      <c r="K9" s="234"/>
-      <c r="L9" s="235"/>
-      <c r="M9" s="238" t="s">
-        <v>81</v>
-      </c>
-      <c r="N9" s="235"/>
-      <c r="O9" s="234"/>
-      <c r="P9" s="235"/>
-      <c r="Q9" s="238" t="s">
-        <v>81</v>
-      </c>
-      <c r="R9" s="235"/>
-      <c r="S9" s="234"/>
-      <c r="T9" s="235"/>
-      <c r="U9" s="238" t="s">
-        <v>81</v>
-      </c>
-      <c r="V9" s="235"/>
-      <c r="W9" s="234"/>
-      <c r="X9" s="235"/>
-      <c r="Y9" s="256" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z9" s="235"/>
-      <c r="AA9" s="259"/>
-      <c r="AB9" s="235"/>
-      <c r="AC9" s="264" t="s">
+      <c r="AD9" s="254"/>
+      <c r="AE9" s="247" t="s">
         <v>82</v>
       </c>
-      <c r="AD9" s="268"/>
-      <c r="AE9" s="239" t="s">
+      <c r="AF9" s="241"/>
+      <c r="AG9" s="253" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH9" s="254"/>
+      <c r="AI9" s="232"/>
+      <c r="AJ9" s="233"/>
+      <c r="AK9" s="237" t="s">
         <v>83</v>
       </c>
-      <c r="AF9" s="233"/>
-      <c r="AG9" s="264" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH9" s="268"/>
-      <c r="AI9" s="234"/>
-      <c r="AJ9" s="235"/>
-      <c r="AK9" s="314" t="s">
+      <c r="AL9" s="238"/>
+      <c r="AM9" s="242" t="s">
         <v>84</v>
       </c>
-      <c r="AL9" s="265"/>
-      <c r="AM9" s="238" t="s">
+      <c r="AN9" s="233"/>
+      <c r="AO9" s="253" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP9" s="254"/>
+      <c r="AQ9" s="242" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR9" s="233"/>
+      <c r="AS9" s="253" t="s">
         <v>85</v>
       </c>
-      <c r="AN9" s="235"/>
-      <c r="AO9" s="264" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP9" s="268"/>
-      <c r="AQ9" s="238" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR9" s="235"/>
-      <c r="AS9" s="264" t="s">
+      <c r="AT9" s="254"/>
+      <c r="AU9" s="247" t="s">
         <v>86</v>
       </c>
-      <c r="AT9" s="268"/>
-      <c r="AU9" s="239" t="s">
+      <c r="AV9" s="241"/>
+      <c r="AW9" s="253" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX9" s="254"/>
+      <c r="AY9" s="247" t="s">
         <v>87</v>
       </c>
-      <c r="AV9" s="233"/>
-      <c r="AW9" s="264" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX9" s="268"/>
-      <c r="AY9" s="239" t="s">
+      <c r="AZ9" s="241"/>
+      <c r="BA9" s="266" t="s">
         <v>88</v>
       </c>
-      <c r="AZ9" s="233"/>
-      <c r="BA9" s="299" t="s">
-        <v>89</v>
-      </c>
-      <c r="BB9" s="300"/>
-      <c r="BC9" s="347" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD9" s="235"/>
-      <c r="BE9" s="234"/>
-      <c r="BF9" s="235"/>
+      <c r="BB9" s="267"/>
+      <c r="BC9" s="239" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD9" s="233"/>
+      <c r="BE9" s="232"/>
+      <c r="BF9" s="233"/>
       <c r="BG9" s="24"/>
       <c r="BH9" s="24"/>
       <c r="BI9" s="11"/>
     </row>
     <row r="10" spans="1:61" ht="15" customHeight="1">
-      <c r="A10" s="281" t="s">
+      <c r="A10" s="303" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="304"/>
+      <c r="C10" s="305"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="262"/>
+      <c r="F10" s="263"/>
+      <c r="G10" s="237" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="238"/>
+      <c r="I10" s="242" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="282"/>
-      <c r="C10" s="283"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="271"/>
-      <c r="F10" s="272"/>
-      <c r="G10" s="314" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="265"/>
-      <c r="I10" s="238" t="s">
+      <c r="J10" s="233"/>
+      <c r="K10" s="232"/>
+      <c r="L10" s="233"/>
+      <c r="M10" s="242" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" s="233"/>
+      <c r="O10" s="232"/>
+      <c r="P10" s="233"/>
+      <c r="Q10" s="242" t="s">
+        <v>90</v>
+      </c>
+      <c r="R10" s="233"/>
+      <c r="S10" s="232"/>
+      <c r="T10" s="233"/>
+      <c r="U10" s="242" t="s">
+        <v>90</v>
+      </c>
+      <c r="V10" s="233"/>
+      <c r="W10" s="232"/>
+      <c r="X10" s="233"/>
+      <c r="Y10" s="314" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z10" s="233"/>
+      <c r="AA10" s="281"/>
+      <c r="AB10" s="233"/>
+      <c r="AC10" s="253" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="235"/>
-      <c r="K10" s="234"/>
-      <c r="L10" s="235"/>
-      <c r="M10" s="238" t="s">
+      <c r="AD10" s="254"/>
+      <c r="AE10" s="247" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF10" s="241"/>
+      <c r="AG10" s="253" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH10" s="254"/>
+      <c r="AI10" s="232"/>
+      <c r="AJ10" s="233"/>
+      <c r="AK10" s="237" t="s">
         <v>91</v>
       </c>
-      <c r="N10" s="235"/>
-      <c r="O10" s="234"/>
-      <c r="P10" s="235"/>
-      <c r="Q10" s="238" t="s">
-        <v>91</v>
-      </c>
-      <c r="R10" s="235"/>
-      <c r="S10" s="234"/>
-      <c r="T10" s="235"/>
-      <c r="U10" s="238" t="s">
-        <v>91</v>
-      </c>
-      <c r="V10" s="235"/>
-      <c r="W10" s="234"/>
-      <c r="X10" s="235"/>
-      <c r="Y10" s="256" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z10" s="235"/>
-      <c r="AA10" s="259"/>
-      <c r="AB10" s="235"/>
-      <c r="AC10" s="264" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD10" s="268"/>
-      <c r="AE10" s="239" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF10" s="233"/>
-      <c r="AG10" s="264" t="s">
+      <c r="AL10" s="238"/>
+      <c r="AM10" s="242" t="s">
         <v>93</v>
       </c>
-      <c r="AH10" s="268"/>
-      <c r="AI10" s="234"/>
-      <c r="AJ10" s="235"/>
-      <c r="AK10" s="314" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL10" s="265"/>
-      <c r="AM10" s="238" t="s">
+      <c r="AN10" s="233"/>
+      <c r="AO10" s="253" t="s">
         <v>94</v>
       </c>
-      <c r="AN10" s="235"/>
-      <c r="AO10" s="264" t="s">
+      <c r="AP10" s="254"/>
+      <c r="AQ10" s="242" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR10" s="233"/>
+      <c r="AS10" s="253" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT10" s="254"/>
+      <c r="AU10" s="247" t="s">
         <v>95</v>
       </c>
-      <c r="AP10" s="268"/>
-      <c r="AQ10" s="238" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR10" s="235"/>
-      <c r="AS10" s="264" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT10" s="268"/>
-      <c r="AU10" s="239" t="s">
+      <c r="AV10" s="241"/>
+      <c r="AW10" s="253" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX10" s="254"/>
+      <c r="AY10" s="247" t="s">
         <v>96</v>
       </c>
-      <c r="AV10" s="233"/>
-      <c r="AW10" s="264" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX10" s="268"/>
-      <c r="AY10" s="239" t="s">
+      <c r="AZ10" s="241"/>
+      <c r="BA10" s="266" t="s">
         <v>97</v>
       </c>
-      <c r="AZ10" s="233"/>
-      <c r="BA10" s="299" t="s">
+      <c r="BB10" s="267"/>
+      <c r="BC10" s="239" t="s">
         <v>98</v>
       </c>
-      <c r="BB10" s="300"/>
-      <c r="BC10" s="347" t="s">
-        <v>99</v>
-      </c>
-      <c r="BD10" s="235"/>
-      <c r="BE10" s="234"/>
-      <c r="BF10" s="235"/>
+      <c r="BD10" s="233"/>
+      <c r="BE10" s="232"/>
+      <c r="BF10" s="233"/>
       <c r="BG10" s="24"/>
       <c r="BH10" s="24"/>
       <c r="BI10" s="11"/>
     </row>
     <row r="11" spans="1:61" ht="15" customHeight="1">
-      <c r="A11" s="281" t="s">
+      <c r="A11" s="303" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="304"/>
+      <c r="C11" s="305"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="262"/>
+      <c r="F11" s="263"/>
+      <c r="G11" s="237" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="238"/>
+      <c r="I11" s="242" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="233"/>
+      <c r="K11" s="232"/>
+      <c r="L11" s="233"/>
+      <c r="M11" s="242" t="s">
+        <v>91</v>
+      </c>
+      <c r="N11" s="233"/>
+      <c r="O11" s="232"/>
+      <c r="P11" s="233"/>
+      <c r="Q11" s="242" t="s">
+        <v>91</v>
+      </c>
+      <c r="R11" s="233"/>
+      <c r="S11" s="232"/>
+      <c r="T11" s="233"/>
+      <c r="U11" s="242" t="s">
+        <v>91</v>
+      </c>
+      <c r="V11" s="233"/>
+      <c r="W11" s="232"/>
+      <c r="X11" s="233"/>
+      <c r="Y11" s="314" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z11" s="233"/>
+      <c r="AA11" s="281"/>
+      <c r="AB11" s="233"/>
+      <c r="AC11" s="253" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD11" s="254"/>
+      <c r="AE11" s="247" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF11" s="241"/>
+      <c r="AG11" s="253" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH11" s="254"/>
+      <c r="AI11" s="232"/>
+      <c r="AJ11" s="233"/>
+      <c r="AK11" s="237" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL11" s="238"/>
+      <c r="AM11" s="242" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN11" s="233"/>
+      <c r="AO11" s="253" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="282"/>
-      <c r="C11" s="283"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="271"/>
-      <c r="F11" s="272"/>
-      <c r="G11" s="314" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="265"/>
-      <c r="I11" s="238" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" s="235"/>
-      <c r="K11" s="234"/>
-      <c r="L11" s="235"/>
-      <c r="M11" s="238" t="s">
-        <v>92</v>
-      </c>
-      <c r="N11" s="235"/>
-      <c r="O11" s="234"/>
-      <c r="P11" s="235"/>
-      <c r="Q11" s="238" t="s">
-        <v>92</v>
-      </c>
-      <c r="R11" s="235"/>
-      <c r="S11" s="234"/>
-      <c r="T11" s="235"/>
-      <c r="U11" s="238" t="s">
-        <v>92</v>
-      </c>
-      <c r="V11" s="235"/>
-      <c r="W11" s="234"/>
-      <c r="X11" s="235"/>
-      <c r="Y11" s="256" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z11" s="235"/>
-      <c r="AA11" s="259"/>
-      <c r="AB11" s="235"/>
-      <c r="AC11" s="264" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD11" s="268"/>
-      <c r="AE11" s="239" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF11" s="233"/>
-      <c r="AG11" s="264" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH11" s="268"/>
-      <c r="AI11" s="234"/>
-      <c r="AJ11" s="235"/>
-      <c r="AK11" s="314" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL11" s="265"/>
-      <c r="AM11" s="238" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN11" s="235"/>
-      <c r="AO11" s="264" t="s">
+      <c r="AP11" s="254"/>
+      <c r="AQ11" s="242" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR11" s="233"/>
+      <c r="AS11" s="253" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT11" s="254"/>
+      <c r="AU11" s="247" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV11" s="241"/>
+      <c r="AW11" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX11" s="17"/>
+      <c r="AY11" s="247" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ11" s="241"/>
+      <c r="BA11" s="266" t="s">
         <v>101</v>
       </c>
-      <c r="AP11" s="268"/>
-      <c r="AQ11" s="238" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR11" s="235"/>
-      <c r="AS11" s="264" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT11" s="268"/>
-      <c r="AU11" s="239" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV11" s="233"/>
-      <c r="AW11" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX11" s="17"/>
-      <c r="AY11" s="239" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ11" s="233"/>
-      <c r="BA11" s="299" t="s">
+      <c r="BB11" s="267"/>
+      <c r="BC11" s="239" t="s">
         <v>102</v>
       </c>
-      <c r="BB11" s="300"/>
-      <c r="BC11" s="347" t="s">
-        <v>103</v>
-      </c>
-      <c r="BD11" s="235"/>
-      <c r="BE11" s="234"/>
-      <c r="BF11" s="235"/>
+      <c r="BD11" s="233"/>
+      <c r="BE11" s="232"/>
+      <c r="BF11" s="233"/>
       <c r="BG11" s="24"/>
       <c r="BH11" s="24"/>
       <c r="BI11" s="11"/>
     </row>
     <row r="12" spans="1:61" ht="17" customHeight="1">
-      <c r="A12" s="281" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="282"/>
-      <c r="C12" s="283"/>
+      <c r="A12" s="303" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="304"/>
+      <c r="C12" s="305"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="271"/>
-      <c r="F12" s="272"/>
-      <c r="G12" s="270"/>
-      <c r="H12" s="265"/>
-      <c r="I12" s="234"/>
-      <c r="J12" s="235"/>
-      <c r="K12" s="234"/>
-      <c r="L12" s="235"/>
-      <c r="M12" s="234"/>
-      <c r="N12" s="235"/>
-      <c r="O12" s="234"/>
-      <c r="P12" s="235"/>
-      <c r="Q12" s="234"/>
-      <c r="R12" s="235"/>
-      <c r="S12" s="234"/>
-      <c r="T12" s="235"/>
-      <c r="U12" s="234"/>
-      <c r="V12" s="235"/>
-      <c r="W12" s="234"/>
-      <c r="X12" s="235"/>
-      <c r="Y12" s="259"/>
-      <c r="Z12" s="235"/>
-      <c r="AA12" s="259"/>
-      <c r="AB12" s="235"/>
-      <c r="AC12" s="267"/>
-      <c r="AD12" s="268"/>
+      <c r="E12" s="262"/>
+      <c r="F12" s="263"/>
+      <c r="G12" s="257"/>
+      <c r="H12" s="238"/>
+      <c r="I12" s="232"/>
+      <c r="J12" s="233"/>
+      <c r="K12" s="232"/>
+      <c r="L12" s="233"/>
+      <c r="M12" s="232"/>
+      <c r="N12" s="233"/>
+      <c r="O12" s="232"/>
+      <c r="P12" s="233"/>
+      <c r="Q12" s="232"/>
+      <c r="R12" s="233"/>
+      <c r="S12" s="232"/>
+      <c r="T12" s="233"/>
+      <c r="U12" s="232"/>
+      <c r="V12" s="233"/>
+      <c r="W12" s="232"/>
+      <c r="X12" s="233"/>
+      <c r="Y12" s="281"/>
+      <c r="Z12" s="233"/>
+      <c r="AA12" s="281"/>
+      <c r="AB12" s="233"/>
+      <c r="AC12" s="284"/>
+      <c r="AD12" s="254"/>
       <c r="AE12" s="38"/>
       <c r="AF12" s="22"/>
-      <c r="AG12" s="267"/>
-      <c r="AH12" s="268"/>
-      <c r="AI12" s="234"/>
-      <c r="AJ12" s="235"/>
-      <c r="AK12" s="270"/>
-      <c r="AL12" s="265"/>
-      <c r="AM12" s="234"/>
-      <c r="AN12" s="235"/>
+      <c r="AG12" s="284"/>
+      <c r="AH12" s="254"/>
+      <c r="AI12" s="232"/>
+      <c r="AJ12" s="233"/>
+      <c r="AK12" s="257"/>
+      <c r="AL12" s="238"/>
+      <c r="AM12" s="232"/>
+      <c r="AN12" s="233"/>
       <c r="AO12" s="41"/>
       <c r="AP12" s="17"/>
-      <c r="AQ12" s="234"/>
-      <c r="AR12" s="235"/>
-      <c r="AS12" s="270"/>
-      <c r="AT12" s="265"/>
-      <c r="AU12" s="232"/>
-      <c r="AV12" s="233"/>
+      <c r="AQ12" s="232"/>
+      <c r="AR12" s="233"/>
+      <c r="AS12" s="257"/>
+      <c r="AT12" s="238"/>
+      <c r="AU12" s="240"/>
+      <c r="AV12" s="241"/>
       <c r="AW12" s="41"/>
       <c r="AX12" s="17"/>
       <c r="AY12" s="38"/>
       <c r="AZ12" s="22"/>
-      <c r="BA12" s="331"/>
-      <c r="BB12" s="300"/>
-      <c r="BC12" s="325"/>
-      <c r="BD12" s="235"/>
-      <c r="BE12" s="234"/>
-      <c r="BF12" s="235"/>
+      <c r="BA12" s="270"/>
+      <c r="BB12" s="267"/>
+      <c r="BC12" s="234"/>
+      <c r="BD12" s="233"/>
+      <c r="BE12" s="232"/>
+      <c r="BF12" s="233"/>
       <c r="BG12" s="24"/>
       <c r="BH12" s="24"/>
       <c r="BI12" s="11"/>
     </row>
     <row r="13" spans="1:61" ht="20.5" customHeight="1">
-      <c r="A13" s="281" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="282"/>
-      <c r="C13" s="283"/>
+      <c r="A13" s="303" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="304"/>
+      <c r="C13" s="305"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="339" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="340"/>
-      <c r="G13" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="268"/>
-      <c r="I13" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="233"/>
-      <c r="K13" s="232"/>
-      <c r="L13" s="233"/>
-      <c r="M13" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="N13" s="233"/>
-      <c r="O13" s="232"/>
-      <c r="P13" s="233"/>
-      <c r="Q13" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="R13" s="233"/>
-      <c r="S13" s="232"/>
-      <c r="T13" s="233"/>
-      <c r="U13" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="V13" s="233"/>
-      <c r="W13" s="232"/>
-      <c r="X13" s="233"/>
-      <c r="Y13" s="256" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z13" s="233"/>
-      <c r="AA13" s="259"/>
-      <c r="AB13" s="233"/>
-      <c r="AC13" s="264" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD13" s="268"/>
+      <c r="E13" s="295" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="296"/>
+      <c r="G13" s="253" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="254"/>
+      <c r="I13" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="241"/>
+      <c r="K13" s="240"/>
+      <c r="L13" s="241"/>
+      <c r="M13" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="241"/>
+      <c r="O13" s="240"/>
+      <c r="P13" s="241"/>
+      <c r="Q13" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="R13" s="241"/>
+      <c r="S13" s="240"/>
+      <c r="T13" s="241"/>
+      <c r="U13" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="V13" s="241"/>
+      <c r="W13" s="240"/>
+      <c r="X13" s="241"/>
+      <c r="Y13" s="314" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z13" s="241"/>
+      <c r="AA13" s="281"/>
+      <c r="AB13" s="241"/>
+      <c r="AC13" s="253" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD13" s="254"/>
       <c r="AE13" s="38"/>
       <c r="AF13" s="22"/>
-      <c r="AG13" s="264" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH13" s="268"/>
-      <c r="AI13" s="234"/>
-      <c r="AJ13" s="235"/>
-      <c r="AK13" s="270"/>
-      <c r="AL13" s="265"/>
-      <c r="AM13" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN13" s="233"/>
-      <c r="AO13" s="264" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP13" s="268"/>
-      <c r="AQ13" s="234"/>
-      <c r="AR13" s="235"/>
-      <c r="AS13" s="270"/>
-      <c r="AT13" s="265"/>
-      <c r="AU13" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV13" s="233"/>
+      <c r="AG13" s="253" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH13" s="254"/>
+      <c r="AI13" s="232"/>
+      <c r="AJ13" s="233"/>
+      <c r="AK13" s="257"/>
+      <c r="AL13" s="238"/>
+      <c r="AM13" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN13" s="241"/>
+      <c r="AO13" s="253" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP13" s="254"/>
+      <c r="AQ13" s="232"/>
+      <c r="AR13" s="233"/>
+      <c r="AS13" s="257"/>
+      <c r="AT13" s="238"/>
+      <c r="AU13" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV13" s="241"/>
       <c r="AW13" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AX13" s="17"/>
       <c r="AY13" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AZ13" s="22"/>
-      <c r="BA13" s="331"/>
-      <c r="BB13" s="300"/>
-      <c r="BC13" s="325"/>
-      <c r="BD13" s="235"/>
-      <c r="BE13" s="234"/>
-      <c r="BF13" s="235"/>
+      <c r="BA13" s="270"/>
+      <c r="BB13" s="267"/>
+      <c r="BC13" s="234"/>
+      <c r="BD13" s="233"/>
+      <c r="BE13" s="232"/>
+      <c r="BF13" s="233"/>
       <c r="BG13" s="24"/>
       <c r="BH13" s="24"/>
       <c r="BI13" s="11"/>
     </row>
     <row r="14" spans="1:61" ht="19.75" customHeight="1">
-      <c r="A14" s="281" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="282"/>
-      <c r="C14" s="283"/>
+      <c r="A14" s="303" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="304"/>
+      <c r="C14" s="305"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="332" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="272"/>
-      <c r="G14" s="264" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="268"/>
-      <c r="I14" s="239" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="233"/>
-      <c r="K14" s="232"/>
-      <c r="L14" s="233"/>
-      <c r="M14" s="239" t="s">
-        <v>69</v>
-      </c>
-      <c r="N14" s="233"/>
-      <c r="O14" s="232"/>
-      <c r="P14" s="233"/>
-      <c r="Q14" s="239" t="s">
-        <v>69</v>
-      </c>
-      <c r="R14" s="233"/>
-      <c r="S14" s="232"/>
-      <c r="T14" s="233"/>
-      <c r="U14" s="239" t="s">
-        <v>69</v>
-      </c>
-      <c r="V14" s="233"/>
-      <c r="W14" s="232"/>
-      <c r="X14" s="233"/>
-      <c r="Y14" s="256" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z14" s="233"/>
-      <c r="AA14" s="259"/>
-      <c r="AB14" s="233"/>
-      <c r="AC14" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD14" s="268"/>
-      <c r="AE14" s="239" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF14" s="233"/>
-      <c r="AG14" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH14" s="268"/>
-      <c r="AI14" s="234"/>
-      <c r="AJ14" s="235"/>
-      <c r="AK14" s="270"/>
-      <c r="AL14" s="265"/>
-      <c r="AM14" s="234"/>
-      <c r="AN14" s="235"/>
-      <c r="AO14" s="264" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP14" s="268"/>
-      <c r="AQ14" s="234"/>
-      <c r="AR14" s="235"/>
-      <c r="AS14" s="270"/>
-      <c r="AT14" s="265"/>
-      <c r="AU14" s="232"/>
-      <c r="AV14" s="233"/>
+      <c r="E14" s="288" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="263"/>
+      <c r="G14" s="253" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="254"/>
+      <c r="I14" s="247" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="241"/>
+      <c r="K14" s="240"/>
+      <c r="L14" s="241"/>
+      <c r="M14" s="247" t="s">
+        <v>68</v>
+      </c>
+      <c r="N14" s="241"/>
+      <c r="O14" s="240"/>
+      <c r="P14" s="241"/>
+      <c r="Q14" s="247" t="s">
+        <v>68</v>
+      </c>
+      <c r="R14" s="241"/>
+      <c r="S14" s="240"/>
+      <c r="T14" s="241"/>
+      <c r="U14" s="247" t="s">
+        <v>68</v>
+      </c>
+      <c r="V14" s="241"/>
+      <c r="W14" s="240"/>
+      <c r="X14" s="241"/>
+      <c r="Y14" s="314" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z14" s="241"/>
+      <c r="AA14" s="281"/>
+      <c r="AB14" s="241"/>
+      <c r="AC14" s="253" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD14" s="254"/>
+      <c r="AE14" s="247" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF14" s="241"/>
+      <c r="AG14" s="253" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH14" s="254"/>
+      <c r="AI14" s="232"/>
+      <c r="AJ14" s="233"/>
+      <c r="AK14" s="257"/>
+      <c r="AL14" s="238"/>
+      <c r="AM14" s="232"/>
+      <c r="AN14" s="233"/>
+      <c r="AO14" s="253" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP14" s="254"/>
+      <c r="AQ14" s="232"/>
+      <c r="AR14" s="233"/>
+      <c r="AS14" s="257"/>
+      <c r="AT14" s="238"/>
+      <c r="AU14" s="240"/>
+      <c r="AV14" s="241"/>
       <c r="AW14" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AX14" s="17"/>
       <c r="AY14" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AZ14" s="22"/>
-      <c r="BA14" s="299" t="s">
-        <v>69</v>
-      </c>
-      <c r="BB14" s="300"/>
-      <c r="BC14" s="347" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD14" s="235"/>
-      <c r="BE14" s="234"/>
-      <c r="BF14" s="235"/>
+      <c r="BA14" s="266" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB14" s="267"/>
+      <c r="BC14" s="239" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD14" s="233"/>
+      <c r="BE14" s="232"/>
+      <c r="BF14" s="233"/>
       <c r="BG14" s="24"/>
       <c r="BH14" s="24"/>
       <c r="BI14" s="11"/>
     </row>
     <row r="15" spans="1:61" ht="23" customHeight="1">
-      <c r="A15" s="284" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="285"/>
-      <c r="C15" s="286"/>
+      <c r="A15" s="292" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="293"/>
+      <c r="C15" s="294"/>
       <c r="D15" s="15"/>
       <c r="E15" s="36"/>
       <c r="F15" s="16"/>
-      <c r="G15" s="266" t="s">
+      <c r="G15" s="364" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="238"/>
+      <c r="I15" s="282" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="265"/>
-      <c r="I15" s="240" t="s">
+      <c r="J15" s="283"/>
+      <c r="K15" s="333"/>
+      <c r="L15" s="283"/>
+      <c r="M15" s="282" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" s="283"/>
+      <c r="O15" s="333"/>
+      <c r="P15" s="283"/>
+      <c r="Q15" s="282" t="s">
+        <v>108</v>
+      </c>
+      <c r="R15" s="283"/>
+      <c r="S15" s="333"/>
+      <c r="T15" s="283"/>
+      <c r="U15" s="282" t="s">
+        <v>108</v>
+      </c>
+      <c r="V15" s="283"/>
+      <c r="W15" s="333"/>
+      <c r="X15" s="283"/>
+      <c r="Y15" s="358" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z15" s="283"/>
+      <c r="AA15" s="319"/>
+      <c r="AB15" s="283"/>
+      <c r="AC15" s="334" t="s">
         <v>109</v>
       </c>
-      <c r="J15" s="241"/>
-      <c r="K15" s="245"/>
-      <c r="L15" s="241"/>
-      <c r="M15" s="240" t="s">
-        <v>109</v>
-      </c>
-      <c r="N15" s="241"/>
-      <c r="O15" s="245"/>
-      <c r="P15" s="241"/>
-      <c r="Q15" s="240" t="s">
-        <v>109</v>
-      </c>
-      <c r="R15" s="241"/>
-      <c r="S15" s="245"/>
-      <c r="T15" s="241"/>
-      <c r="U15" s="240" t="s">
-        <v>109</v>
-      </c>
-      <c r="V15" s="241"/>
-      <c r="W15" s="245"/>
-      <c r="X15" s="241"/>
-      <c r="Y15" s="260" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z15" s="241"/>
-      <c r="AA15" s="269"/>
-      <c r="AB15" s="241"/>
-      <c r="AC15" s="294" t="s">
+      <c r="AD15" s="261"/>
+      <c r="AE15" s="282" t="s">
         <v>110</v>
       </c>
-      <c r="AD15" s="290"/>
-      <c r="AE15" s="240" t="s">
+      <c r="AF15" s="283"/>
+      <c r="AG15" s="334" t="s">
         <v>111</v>
       </c>
-      <c r="AF15" s="241"/>
-      <c r="AG15" s="294" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH15" s="290"/>
+      <c r="AH15" s="261"/>
       <c r="AI15" s="25"/>
       <c r="AJ15" s="29"/>
       <c r="AK15" s="30"/>
       <c r="AL15" s="31"/>
       <c r="AM15" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN15" s="29"/>
+      <c r="AO15" s="334" t="s">
         <v>113</v>
       </c>
-      <c r="AN15" s="29"/>
-      <c r="AO15" s="294" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP15" s="290"/>
+      <c r="AP15" s="261"/>
       <c r="AQ15" s="25"/>
       <c r="AR15" s="29"/>
       <c r="AS15" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AT15" s="31"/>
       <c r="AU15" s="50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AV15" s="22"/>
       <c r="AW15" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="AX15" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="AX15" s="51" t="s">
+      <c r="AY15" s="21" t="s">
         <v>118</v>
-      </c>
-      <c r="AY15" s="21" t="s">
-        <v>119</v>
       </c>
       <c r="AZ15" s="22"/>
       <c r="BA15" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BB15" s="45"/>
       <c r="BC15" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BD15" s="52"/>
       <c r="BE15" s="19"/>
@@ -4895,67 +4895,67 @@
     </row>
     <row r="16" spans="1:61" ht="16.5" customHeight="1">
       <c r="A16" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
       <c r="E16" s="36"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="265"/>
-      <c r="I16" s="239" t="s">
+      <c r="G16" s="253" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="238"/>
+      <c r="I16" s="247" t="s">
+        <v>122</v>
+      </c>
+      <c r="J16" s="241"/>
+      <c r="K16" s="240"/>
+      <c r="L16" s="241"/>
+      <c r="M16" s="247" t="s">
+        <v>122</v>
+      </c>
+      <c r="N16" s="241"/>
+      <c r="O16" s="240"/>
+      <c r="P16" s="241"/>
+      <c r="Q16" s="247" t="s">
+        <v>122</v>
+      </c>
+      <c r="R16" s="241"/>
+      <c r="S16" s="240"/>
+      <c r="T16" s="241"/>
+      <c r="U16" s="247" t="s">
+        <v>122</v>
+      </c>
+      <c r="V16" s="241"/>
+      <c r="W16" s="240"/>
+      <c r="X16" s="241"/>
+      <c r="Y16" s="314" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z16" s="241"/>
+      <c r="AA16" s="281"/>
+      <c r="AB16" s="241"/>
+      <c r="AC16" s="334" t="s">
         <v>123</v>
       </c>
-      <c r="J16" s="233"/>
-      <c r="K16" s="232"/>
-      <c r="L16" s="233"/>
-      <c r="M16" s="239" t="s">
-        <v>123</v>
-      </c>
-      <c r="N16" s="233"/>
-      <c r="O16" s="232"/>
-      <c r="P16" s="233"/>
-      <c r="Q16" s="239" t="s">
-        <v>123</v>
-      </c>
-      <c r="R16" s="233"/>
-      <c r="S16" s="232"/>
-      <c r="T16" s="233"/>
-      <c r="U16" s="239" t="s">
-        <v>123</v>
-      </c>
-      <c r="V16" s="233"/>
-      <c r="W16" s="232"/>
-      <c r="X16" s="233"/>
-      <c r="Y16" s="256" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z16" s="233"/>
-      <c r="AA16" s="259"/>
-      <c r="AB16" s="233"/>
-      <c r="AC16" s="294" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD16" s="290"/>
-      <c r="AE16" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF16" s="233"/>
-      <c r="AG16" s="264" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH16" s="268"/>
+      <c r="AD16" s="261"/>
+      <c r="AE16" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF16" s="241"/>
+      <c r="AG16" s="253" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH16" s="254"/>
       <c r="AI16" s="19"/>
       <c r="AJ16" s="18"/>
       <c r="AK16" s="41"/>
       <c r="AL16" s="17"/>
-      <c r="AM16" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN16" s="233"/>
+      <c r="AM16" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN16" s="241"/>
       <c r="AO16" s="40"/>
       <c r="AP16" s="17"/>
       <c r="AQ16" s="19"/>
@@ -4963,7 +4963,7 @@
       <c r="AS16" s="41"/>
       <c r="AT16" s="17"/>
       <c r="AU16" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AV16" s="22"/>
       <c r="AW16" s="40"/>
@@ -4982,59 +4982,59 @@
     </row>
     <row r="17" spans="1:61" ht="18.25" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
       <c r="E17" s="36"/>
       <c r="F17" s="16"/>
-      <c r="G17" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="265"/>
-      <c r="I17" s="239" t="s">
-        <v>69</v>
-      </c>
-      <c r="J17" s="233"/>
-      <c r="K17" s="232"/>
-      <c r="L17" s="233"/>
-      <c r="M17" s="239" t="s">
-        <v>69</v>
-      </c>
-      <c r="N17" s="233"/>
-      <c r="O17" s="232"/>
-      <c r="P17" s="233"/>
-      <c r="Q17" s="239" t="s">
-        <v>69</v>
-      </c>
-      <c r="R17" s="233"/>
-      <c r="S17" s="232"/>
-      <c r="T17" s="233"/>
-      <c r="U17" s="239" t="s">
-        <v>69</v>
-      </c>
-      <c r="V17" s="233"/>
-      <c r="W17" s="232"/>
-      <c r="X17" s="233"/>
-      <c r="Y17" s="256" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z17" s="233"/>
-      <c r="AA17" s="259"/>
-      <c r="AB17" s="233"/>
-      <c r="AC17" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD17" s="268"/>
-      <c r="AE17" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF17" s="233"/>
-      <c r="AG17" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH17" s="268"/>
+      <c r="G17" s="253" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="238"/>
+      <c r="I17" s="247" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="241"/>
+      <c r="K17" s="240"/>
+      <c r="L17" s="241"/>
+      <c r="M17" s="247" t="s">
+        <v>68</v>
+      </c>
+      <c r="N17" s="241"/>
+      <c r="O17" s="240"/>
+      <c r="P17" s="241"/>
+      <c r="Q17" s="247" t="s">
+        <v>68</v>
+      </c>
+      <c r="R17" s="241"/>
+      <c r="S17" s="240"/>
+      <c r="T17" s="241"/>
+      <c r="U17" s="247" t="s">
+        <v>68</v>
+      </c>
+      <c r="V17" s="241"/>
+      <c r="W17" s="240"/>
+      <c r="X17" s="241"/>
+      <c r="Y17" s="314" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z17" s="241"/>
+      <c r="AA17" s="281"/>
+      <c r="AB17" s="241"/>
+      <c r="AC17" s="253" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD17" s="254"/>
+      <c r="AE17" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF17" s="241"/>
+      <c r="AG17" s="253" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH17" s="254"/>
       <c r="AI17" s="19"/>
       <c r="AJ17" s="18"/>
       <c r="AK17" s="41"/>
@@ -5064,60 +5064,60 @@
       <c r="BI17" s="11"/>
     </row>
     <row r="18" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A18" s="284" t="s">
+      <c r="A18" s="292" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="293"/>
+      <c r="C18" s="294"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="295" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="296"/>
+      <c r="G18" s="253" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="254"/>
+      <c r="I18" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="241"/>
+      <c r="K18" s="240"/>
+      <c r="L18" s="241"/>
+      <c r="M18" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" s="241"/>
+      <c r="O18" s="240"/>
+      <c r="P18" s="241"/>
+      <c r="Q18" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="R18" s="241"/>
+      <c r="S18" s="240"/>
+      <c r="T18" s="241"/>
+      <c r="U18" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="V18" s="241"/>
+      <c r="W18" s="240"/>
+      <c r="X18" s="241"/>
+      <c r="Y18" s="314" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z18" s="241"/>
+      <c r="AA18" s="281"/>
+      <c r="AB18" s="241"/>
+      <c r="AC18" s="253" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="285"/>
-      <c r="C18" s="286"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="339" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="340"/>
-      <c r="G18" s="264" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="268"/>
-      <c r="I18" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" s="233"/>
-      <c r="K18" s="232"/>
-      <c r="L18" s="233"/>
-      <c r="M18" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="N18" s="233"/>
-      <c r="O18" s="232"/>
-      <c r="P18" s="233"/>
-      <c r="Q18" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="R18" s="233"/>
-      <c r="S18" s="232"/>
-      <c r="T18" s="233"/>
-      <c r="U18" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="V18" s="233"/>
-      <c r="W18" s="232"/>
-      <c r="X18" s="233"/>
-      <c r="Y18" s="256" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z18" s="233"/>
-      <c r="AA18" s="259"/>
-      <c r="AB18" s="233"/>
-      <c r="AC18" s="264" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD18" s="268"/>
-      <c r="AE18" s="232"/>
-      <c r="AF18" s="233"/>
-      <c r="AG18" s="264" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH18" s="268"/>
+      <c r="AD18" s="254"/>
+      <c r="AE18" s="240"/>
+      <c r="AF18" s="241"/>
+      <c r="AG18" s="253" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH18" s="254"/>
       <c r="AI18" s="19"/>
       <c r="AJ18" s="18"/>
       <c r="AK18" s="41"/>
@@ -5131,7 +5131,7 @@
       <c r="AS18" s="41"/>
       <c r="AT18" s="17"/>
       <c r="AU18" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AV18" s="22"/>
       <c r="AW18" s="40"/>
@@ -5141,7 +5141,7 @@
       <c r="BA18" s="47"/>
       <c r="BB18" s="45"/>
       <c r="BC18" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BD18" s="53"/>
       <c r="BE18" s="19"/>
@@ -5151,151 +5151,151 @@
       <c r="BI18" s="11"/>
     </row>
     <row r="19" spans="1:61" ht="17" customHeight="1">
-      <c r="A19" s="281" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="282"/>
-      <c r="C19" s="283"/>
+      <c r="A19" s="303" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="304"/>
+      <c r="C19" s="305"/>
       <c r="D19" s="15"/>
       <c r="E19" s="36"/>
       <c r="F19" s="16"/>
-      <c r="G19" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="268"/>
-      <c r="I19" s="234"/>
-      <c r="J19" s="235"/>
-      <c r="K19" s="234"/>
-      <c r="L19" s="235"/>
-      <c r="M19" s="234"/>
-      <c r="N19" s="235"/>
-      <c r="O19" s="234"/>
-      <c r="P19" s="235"/>
-      <c r="Q19" s="234"/>
-      <c r="R19" s="235"/>
-      <c r="S19" s="234"/>
-      <c r="T19" s="235"/>
-      <c r="U19" s="234"/>
-      <c r="V19" s="235"/>
-      <c r="W19" s="234"/>
-      <c r="X19" s="235"/>
-      <c r="Y19" s="259"/>
-      <c r="Z19" s="235"/>
-      <c r="AA19" s="259"/>
-      <c r="AB19" s="235"/>
-      <c r="AC19" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD19" s="268"/>
-      <c r="AE19" s="232"/>
-      <c r="AF19" s="233"/>
-      <c r="AG19" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH19" s="268"/>
-      <c r="AI19" s="234"/>
-      <c r="AJ19" s="235"/>
-      <c r="AK19" s="270"/>
-      <c r="AL19" s="265"/>
-      <c r="AM19" s="232"/>
-      <c r="AN19" s="233"/>
-      <c r="AO19" s="270"/>
-      <c r="AP19" s="265"/>
-      <c r="AQ19" s="234"/>
-      <c r="AR19" s="235"/>
-      <c r="AS19" s="270"/>
-      <c r="AT19" s="265"/>
-      <c r="AU19" s="232"/>
-      <c r="AV19" s="233"/>
-      <c r="AW19" s="270"/>
-      <c r="AX19" s="265"/>
+      <c r="G19" s="253" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="254"/>
+      <c r="I19" s="232"/>
+      <c r="J19" s="233"/>
+      <c r="K19" s="232"/>
+      <c r="L19" s="233"/>
+      <c r="M19" s="232"/>
+      <c r="N19" s="233"/>
+      <c r="O19" s="232"/>
+      <c r="P19" s="233"/>
+      <c r="Q19" s="232"/>
+      <c r="R19" s="233"/>
+      <c r="S19" s="232"/>
+      <c r="T19" s="233"/>
+      <c r="U19" s="232"/>
+      <c r="V19" s="233"/>
+      <c r="W19" s="232"/>
+      <c r="X19" s="233"/>
+      <c r="Y19" s="281"/>
+      <c r="Z19" s="233"/>
+      <c r="AA19" s="281"/>
+      <c r="AB19" s="233"/>
+      <c r="AC19" s="253" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD19" s="254"/>
+      <c r="AE19" s="240"/>
+      <c r="AF19" s="241"/>
+      <c r="AG19" s="253" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH19" s="254"/>
+      <c r="AI19" s="232"/>
+      <c r="AJ19" s="233"/>
+      <c r="AK19" s="257"/>
+      <c r="AL19" s="238"/>
+      <c r="AM19" s="240"/>
+      <c r="AN19" s="241"/>
+      <c r="AO19" s="257"/>
+      <c r="AP19" s="238"/>
+      <c r="AQ19" s="232"/>
+      <c r="AR19" s="233"/>
+      <c r="AS19" s="257"/>
+      <c r="AT19" s="238"/>
+      <c r="AU19" s="240"/>
+      <c r="AV19" s="241"/>
+      <c r="AW19" s="257"/>
+      <c r="AX19" s="238"/>
       <c r="AY19" s="38"/>
       <c r="AZ19" s="22"/>
-      <c r="BA19" s="343"/>
-      <c r="BB19" s="344"/>
-      <c r="BC19" s="325"/>
-      <c r="BD19" s="235"/>
-      <c r="BE19" s="234"/>
-      <c r="BF19" s="235"/>
+      <c r="BA19" s="243"/>
+      <c r="BB19" s="244"/>
+      <c r="BC19" s="234"/>
+      <c r="BD19" s="233"/>
+      <c r="BE19" s="232"/>
+      <c r="BF19" s="233"/>
       <c r="BG19" s="24"/>
       <c r="BH19" s="24"/>
       <c r="BI19" s="11"/>
     </row>
     <row r="20" spans="1:61" ht="19.75" customHeight="1">
       <c r="A20" s="54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="15"/>
       <c r="E20" s="36"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="268"/>
-      <c r="I20" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="J20" s="233"/>
-      <c r="K20" s="232"/>
-      <c r="L20" s="233"/>
-      <c r="M20" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="N20" s="233"/>
-      <c r="O20" s="232"/>
-      <c r="P20" s="233"/>
-      <c r="Q20" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="R20" s="233"/>
-      <c r="S20" s="232"/>
-      <c r="T20" s="233"/>
-      <c r="U20" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="V20" s="233"/>
-      <c r="W20" s="232"/>
-      <c r="X20" s="233"/>
-      <c r="Y20" s="256" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z20" s="233"/>
-      <c r="AA20" s="259"/>
-      <c r="AB20" s="233"/>
-      <c r="AC20" s="264" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD20" s="268"/>
-      <c r="AE20" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF20" s="233"/>
-      <c r="AG20" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH20" s="268"/>
+      <c r="G20" s="253" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="254"/>
+      <c r="I20" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="241"/>
+      <c r="K20" s="240"/>
+      <c r="L20" s="241"/>
+      <c r="M20" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="N20" s="241"/>
+      <c r="O20" s="240"/>
+      <c r="P20" s="241"/>
+      <c r="Q20" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="R20" s="241"/>
+      <c r="S20" s="240"/>
+      <c r="T20" s="241"/>
+      <c r="U20" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="V20" s="241"/>
+      <c r="W20" s="240"/>
+      <c r="X20" s="241"/>
+      <c r="Y20" s="314" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z20" s="241"/>
+      <c r="AA20" s="281"/>
+      <c r="AB20" s="241"/>
+      <c r="AC20" s="253" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD20" s="254"/>
+      <c r="AE20" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF20" s="241"/>
+      <c r="AG20" s="253" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH20" s="254"/>
       <c r="AI20" s="19"/>
       <c r="AJ20" s="18"/>
       <c r="AK20" s="41"/>
       <c r="AL20" s="17"/>
-      <c r="AM20" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN20" s="233"/>
+      <c r="AM20" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN20" s="241"/>
       <c r="AO20" s="41"/>
       <c r="AP20" s="17"/>
       <c r="AQ20" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AR20" s="18"/>
       <c r="AS20" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AT20" s="17"/>
       <c r="AU20" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AV20" s="22"/>
       <c r="AW20" s="41"/>
@@ -5314,43 +5314,43 @@
     </row>
     <row r="21" spans="1:61" ht="17" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="15"/>
       <c r="E21" s="36"/>
       <c r="F21" s="16"/>
-      <c r="G21" s="267"/>
-      <c r="H21" s="268"/>
-      <c r="I21" s="232"/>
-      <c r="J21" s="233"/>
-      <c r="K21" s="232"/>
-      <c r="L21" s="233"/>
-      <c r="M21" s="232"/>
-      <c r="N21" s="233"/>
-      <c r="O21" s="232"/>
-      <c r="P21" s="233"/>
-      <c r="Q21" s="232"/>
-      <c r="R21" s="233"/>
-      <c r="S21" s="232"/>
-      <c r="T21" s="233"/>
-      <c r="U21" s="232"/>
-      <c r="V21" s="233"/>
-      <c r="W21" s="232"/>
-      <c r="X21" s="233"/>
-      <c r="Y21" s="259"/>
-      <c r="Z21" s="233"/>
-      <c r="AA21" s="259"/>
-      <c r="AB21" s="233"/>
-      <c r="AC21" s="267"/>
-      <c r="AD21" s="268"/>
-      <c r="AE21" s="232"/>
-      <c r="AF21" s="233"/>
-      <c r="AG21" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH21" s="268"/>
+      <c r="G21" s="284"/>
+      <c r="H21" s="254"/>
+      <c r="I21" s="240"/>
+      <c r="J21" s="241"/>
+      <c r="K21" s="240"/>
+      <c r="L21" s="241"/>
+      <c r="M21" s="240"/>
+      <c r="N21" s="241"/>
+      <c r="O21" s="240"/>
+      <c r="P21" s="241"/>
+      <c r="Q21" s="240"/>
+      <c r="R21" s="241"/>
+      <c r="S21" s="240"/>
+      <c r="T21" s="241"/>
+      <c r="U21" s="240"/>
+      <c r="V21" s="241"/>
+      <c r="W21" s="240"/>
+      <c r="X21" s="241"/>
+      <c r="Y21" s="281"/>
+      <c r="Z21" s="241"/>
+      <c r="AA21" s="281"/>
+      <c r="AB21" s="241"/>
+      <c r="AC21" s="284"/>
+      <c r="AD21" s="254"/>
+      <c r="AE21" s="240"/>
+      <c r="AF21" s="241"/>
+      <c r="AG21" s="253" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH21" s="254"/>
       <c r="AI21" s="19"/>
       <c r="AJ21" s="18"/>
       <c r="AK21" s="41"/>
@@ -5380,58 +5380,58 @@
       <c r="BI21" s="11"/>
     </row>
     <row r="22" spans="1:61" ht="18" customHeight="1">
-      <c r="A22" s="284" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" s="285"/>
-      <c r="C22" s="286"/>
+      <c r="A22" s="292" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="293"/>
+      <c r="C22" s="294"/>
       <c r="D22" s="15"/>
       <c r="E22" s="36"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="267"/>
-      <c r="H22" s="268"/>
-      <c r="I22" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="J22" s="233"/>
-      <c r="K22" s="232"/>
-      <c r="L22" s="233"/>
-      <c r="M22" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="N22" s="233"/>
-      <c r="O22" s="232"/>
-      <c r="P22" s="233"/>
-      <c r="Q22" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="R22" s="233"/>
-      <c r="S22" s="232"/>
-      <c r="T22" s="233"/>
-      <c r="U22" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="V22" s="233"/>
-      <c r="W22" s="232"/>
-      <c r="X22" s="233"/>
-      <c r="Y22" s="256" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z22" s="233"/>
-      <c r="AA22" s="259"/>
-      <c r="AB22" s="233"/>
-      <c r="AC22" s="264" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD22" s="268"/>
-      <c r="AE22" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF22" s="233"/>
-      <c r="AG22" s="264" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH22" s="268"/>
+      <c r="G22" s="284"/>
+      <c r="H22" s="254"/>
+      <c r="I22" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="241"/>
+      <c r="K22" s="240"/>
+      <c r="L22" s="241"/>
+      <c r="M22" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="N22" s="241"/>
+      <c r="O22" s="240"/>
+      <c r="P22" s="241"/>
+      <c r="Q22" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="R22" s="241"/>
+      <c r="S22" s="240"/>
+      <c r="T22" s="241"/>
+      <c r="U22" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="V22" s="241"/>
+      <c r="W22" s="240"/>
+      <c r="X22" s="241"/>
+      <c r="Y22" s="314" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z22" s="241"/>
+      <c r="AA22" s="281"/>
+      <c r="AB22" s="241"/>
+      <c r="AC22" s="253" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD22" s="254"/>
+      <c r="AE22" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF22" s="241"/>
+      <c r="AG22" s="253" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH22" s="254"/>
       <c r="AI22" s="19"/>
       <c r="AJ22" s="18"/>
       <c r="AK22" s="41"/>
@@ -5453,7 +5453,7 @@
       <c r="BA22" s="42"/>
       <c r="BB22" s="23"/>
       <c r="BC22" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BD22" s="53"/>
       <c r="BE22" s="19"/>
@@ -5463,48 +5463,48 @@
       <c r="BI22" s="11"/>
     </row>
     <row r="23" spans="1:61" ht="17" customHeight="1">
-      <c r="A23" s="284" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" s="285"/>
-      <c r="C23" s="286"/>
+      <c r="A23" s="292" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="293"/>
+      <c r="C23" s="294"/>
       <c r="D23" s="15"/>
       <c r="E23" s="36"/>
       <c r="F23" s="16"/>
-      <c r="G23" s="267"/>
-      <c r="H23" s="268"/>
-      <c r="I23" s="232"/>
-      <c r="J23" s="233"/>
-      <c r="K23" s="232"/>
-      <c r="L23" s="233"/>
-      <c r="M23" s="232"/>
-      <c r="N23" s="233"/>
-      <c r="O23" s="232"/>
-      <c r="P23" s="233"/>
-      <c r="Q23" s="232"/>
-      <c r="R23" s="233"/>
-      <c r="S23" s="232"/>
-      <c r="T23" s="233"/>
-      <c r="U23" s="232"/>
-      <c r="V23" s="233"/>
-      <c r="W23" s="232"/>
-      <c r="X23" s="233"/>
-      <c r="Y23" s="259"/>
-      <c r="Z23" s="233"/>
-      <c r="AA23" s="259"/>
-      <c r="AB23" s="233"/>
-      <c r="AC23" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD23" s="268"/>
-      <c r="AE23" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF23" s="233"/>
-      <c r="AG23" s="264" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH23" s="268"/>
+      <c r="G23" s="284"/>
+      <c r="H23" s="254"/>
+      <c r="I23" s="240"/>
+      <c r="J23" s="241"/>
+      <c r="K23" s="240"/>
+      <c r="L23" s="241"/>
+      <c r="M23" s="240"/>
+      <c r="N23" s="241"/>
+      <c r="O23" s="240"/>
+      <c r="P23" s="241"/>
+      <c r="Q23" s="240"/>
+      <c r="R23" s="241"/>
+      <c r="S23" s="240"/>
+      <c r="T23" s="241"/>
+      <c r="U23" s="240"/>
+      <c r="V23" s="241"/>
+      <c r="W23" s="240"/>
+      <c r="X23" s="241"/>
+      <c r="Y23" s="281"/>
+      <c r="Z23" s="241"/>
+      <c r="AA23" s="281"/>
+      <c r="AB23" s="241"/>
+      <c r="AC23" s="253" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD23" s="254"/>
+      <c r="AE23" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF23" s="241"/>
+      <c r="AG23" s="253" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH23" s="254"/>
       <c r="AI23" s="19"/>
       <c r="AJ23" s="18"/>
       <c r="AK23" s="41"/>
@@ -5534,18 +5534,18 @@
       <c r="BI23" s="11"/>
     </row>
     <row r="24" spans="1:61" ht="16" customHeight="1">
-      <c r="A24" s="284" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" s="285"/>
-      <c r="C24" s="286"/>
+      <c r="A24" s="292" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="293"/>
+      <c r="C24" s="294"/>
       <c r="D24" s="15"/>
       <c r="E24" s="36"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="H24" s="268"/>
+      <c r="G24" s="253" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="254"/>
       <c r="I24" s="38"/>
       <c r="J24" s="22"/>
       <c r="K24" s="38"/>
@@ -5566,16 +5566,16 @@
       <c r="Z24" s="55"/>
       <c r="AA24" s="20"/>
       <c r="AB24" s="55"/>
-      <c r="AC24" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD24" s="268"/>
-      <c r="AE24" s="232"/>
-      <c r="AF24" s="233"/>
-      <c r="AG24" s="264" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH24" s="268"/>
+      <c r="AC24" s="253" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD24" s="254"/>
+      <c r="AE24" s="240"/>
+      <c r="AF24" s="241"/>
+      <c r="AG24" s="253" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH24" s="254"/>
       <c r="AI24" s="19"/>
       <c r="AJ24" s="18"/>
       <c r="AK24" s="41"/>
@@ -5597,7 +5597,7 @@
       <c r="BA24" s="42"/>
       <c r="BB24" s="23"/>
       <c r="BC24" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BD24" s="53"/>
       <c r="BE24" s="19"/>
@@ -5607,18 +5607,18 @@
       <c r="BI24" s="11"/>
     </row>
     <row r="25" spans="1:61" ht="17" customHeight="1">
-      <c r="A25" s="284" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="285"/>
-      <c r="C25" s="286"/>
+      <c r="A25" s="292" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="293"/>
+      <c r="C25" s="294"/>
       <c r="D25" s="15"/>
       <c r="E25" s="36"/>
       <c r="F25" s="16"/>
-      <c r="G25" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25" s="268"/>
+      <c r="G25" s="253" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="254"/>
       <c r="I25" s="19"/>
       <c r="J25" s="18"/>
       <c r="K25" s="19"/>
@@ -5639,16 +5639,16 @@
       <c r="Z25" s="55"/>
       <c r="AA25" s="20"/>
       <c r="AB25" s="55"/>
-      <c r="AC25" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD25" s="268"/>
-      <c r="AE25" s="232"/>
-      <c r="AF25" s="233"/>
-      <c r="AG25" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH25" s="268"/>
+      <c r="AC25" s="253" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD25" s="254"/>
+      <c r="AE25" s="240"/>
+      <c r="AF25" s="241"/>
+      <c r="AG25" s="253" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH25" s="254"/>
       <c r="AI25" s="19"/>
       <c r="AJ25" s="18"/>
       <c r="AK25" s="41"/>
@@ -5678,18 +5678,18 @@
       <c r="BI25" s="11"/>
     </row>
     <row r="26" spans="1:61" ht="17" customHeight="1">
-      <c r="A26" s="284" t="s">
+      <c r="A26" s="292" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="293"/>
+      <c r="C26" s="294"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="262"/>
+      <c r="F26" s="263"/>
+      <c r="G26" s="253" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="285"/>
-      <c r="C26" s="286"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="271"/>
-      <c r="F26" s="272"/>
-      <c r="G26" s="264" t="s">
-        <v>137</v>
-      </c>
-      <c r="H26" s="268"/>
+      <c r="H26" s="254"/>
       <c r="I26" s="19"/>
       <c r="J26" s="18"/>
       <c r="K26" s="19"/>
@@ -5710,16 +5710,16 @@
       <c r="Z26" s="55"/>
       <c r="AA26" s="20"/>
       <c r="AB26" s="55"/>
-      <c r="AC26" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD26" s="268"/>
-      <c r="AE26" s="232"/>
-      <c r="AF26" s="233"/>
-      <c r="AG26" s="264" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH26" s="268"/>
+      <c r="AC26" s="253" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD26" s="254"/>
+      <c r="AE26" s="240"/>
+      <c r="AF26" s="241"/>
+      <c r="AG26" s="253" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH26" s="254"/>
       <c r="AI26" s="19"/>
       <c r="AJ26" s="18"/>
       <c r="AK26" s="41"/>
@@ -5749,50 +5749,50 @@
       <c r="BI26" s="11"/>
     </row>
     <row r="27" spans="1:61" ht="17" customHeight="1">
-      <c r="A27" s="284" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="285"/>
-      <c r="C27" s="286"/>
+      <c r="A27" s="292" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="293"/>
+      <c r="C27" s="294"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="271"/>
-      <c r="F27" s="272"/>
-      <c r="G27" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="268"/>
-      <c r="I27" s="234"/>
-      <c r="J27" s="235"/>
-      <c r="K27" s="234"/>
-      <c r="L27" s="235"/>
-      <c r="M27" s="234"/>
-      <c r="N27" s="235"/>
-      <c r="O27" s="234"/>
-      <c r="P27" s="235"/>
-      <c r="Q27" s="234"/>
-      <c r="R27" s="235"/>
-      <c r="S27" s="234"/>
-      <c r="T27" s="235"/>
-      <c r="U27" s="234"/>
-      <c r="V27" s="235"/>
-      <c r="W27" s="234"/>
-      <c r="X27" s="235"/>
-      <c r="Y27" s="259"/>
-      <c r="Z27" s="235"/>
-      <c r="AA27" s="259"/>
-      <c r="AB27" s="235"/>
-      <c r="AC27" s="264" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD27" s="268"/>
-      <c r="AE27" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF27" s="233"/>
-      <c r="AG27" s="264" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH27" s="268"/>
+      <c r="E27" s="262"/>
+      <c r="F27" s="263"/>
+      <c r="G27" s="253" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="254"/>
+      <c r="I27" s="232"/>
+      <c r="J27" s="233"/>
+      <c r="K27" s="232"/>
+      <c r="L27" s="233"/>
+      <c r="M27" s="232"/>
+      <c r="N27" s="233"/>
+      <c r="O27" s="232"/>
+      <c r="P27" s="233"/>
+      <c r="Q27" s="232"/>
+      <c r="R27" s="233"/>
+      <c r="S27" s="232"/>
+      <c r="T27" s="233"/>
+      <c r="U27" s="232"/>
+      <c r="V27" s="233"/>
+      <c r="W27" s="232"/>
+      <c r="X27" s="233"/>
+      <c r="Y27" s="281"/>
+      <c r="Z27" s="233"/>
+      <c r="AA27" s="281"/>
+      <c r="AB27" s="233"/>
+      <c r="AC27" s="253" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD27" s="254"/>
+      <c r="AE27" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF27" s="241"/>
+      <c r="AG27" s="253" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH27" s="254"/>
       <c r="AI27" s="19"/>
       <c r="AJ27" s="18"/>
       <c r="AK27" s="41"/>
@@ -5828,8 +5828,8 @@
       <c r="D28" s="15"/>
       <c r="E28" s="36"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="270"/>
-      <c r="H28" s="265"/>
+      <c r="G28" s="257"/>
+      <c r="H28" s="238"/>
       <c r="I28" s="19"/>
       <c r="J28" s="18"/>
       <c r="K28" s="19"/>
@@ -5885,141 +5885,141 @@
       <c r="BI28" s="11"/>
     </row>
     <row r="29" spans="1:61" ht="16" customHeight="1">
-      <c r="A29" s="353" t="s">
-        <v>140</v>
-      </c>
-      <c r="B29" s="354"/>
-      <c r="C29" s="355"/>
+      <c r="A29" s="298" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="299"/>
+      <c r="C29" s="300"/>
       <c r="D29" s="57"/>
       <c r="E29" s="58"/>
       <c r="F29" s="59"/>
-      <c r="G29" s="262" t="s">
+      <c r="G29" s="362" t="s">
+        <v>140</v>
+      </c>
+      <c r="H29" s="363"/>
+      <c r="I29" s="361" t="s">
         <v>141</v>
       </c>
-      <c r="H29" s="263"/>
-      <c r="I29" s="230" t="s">
+      <c r="J29" s="256"/>
+      <c r="K29" s="255"/>
+      <c r="L29" s="256"/>
+      <c r="M29" s="361" t="s">
+        <v>141</v>
+      </c>
+      <c r="N29" s="256"/>
+      <c r="O29" s="255"/>
+      <c r="P29" s="256"/>
+      <c r="Q29" s="361" t="s">
+        <v>141</v>
+      </c>
+      <c r="R29" s="256"/>
+      <c r="S29" s="255"/>
+      <c r="T29" s="256"/>
+      <c r="U29" s="361" t="s">
+        <v>141</v>
+      </c>
+      <c r="V29" s="256"/>
+      <c r="W29" s="255"/>
+      <c r="X29" s="256"/>
+      <c r="Y29" s="307" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z29" s="256"/>
+      <c r="AA29" s="340"/>
+      <c r="AB29" s="256"/>
+      <c r="AC29" s="230" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD29" s="231"/>
+      <c r="AE29" s="343"/>
+      <c r="AF29" s="344"/>
+      <c r="AG29" s="341" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH29" s="342"/>
+      <c r="AI29" s="306"/>
+      <c r="AJ29" s="280"/>
+      <c r="AK29" s="251"/>
+      <c r="AL29" s="252"/>
+      <c r="AM29" s="258"/>
+      <c r="AN29" s="259"/>
+      <c r="AO29" s="230" t="s">
         <v>142</v>
       </c>
-      <c r="J29" s="231"/>
-      <c r="K29" s="251"/>
-      <c r="L29" s="231"/>
-      <c r="M29" s="230" t="s">
-        <v>142</v>
-      </c>
-      <c r="N29" s="231"/>
-      <c r="O29" s="251"/>
-      <c r="P29" s="231"/>
-      <c r="Q29" s="230" t="s">
-        <v>142</v>
-      </c>
-      <c r="R29" s="231"/>
-      <c r="S29" s="251"/>
-      <c r="T29" s="231"/>
-      <c r="U29" s="230" t="s">
-        <v>142</v>
-      </c>
-      <c r="V29" s="231"/>
-      <c r="W29" s="251"/>
-      <c r="X29" s="231"/>
-      <c r="Y29" s="348" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z29" s="231"/>
-      <c r="AA29" s="303"/>
-      <c r="AB29" s="231"/>
-      <c r="AC29" s="323" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD29" s="324"/>
-      <c r="AE29" s="312"/>
-      <c r="AF29" s="313"/>
-      <c r="AG29" s="310" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH29" s="311"/>
-      <c r="AI29" s="306"/>
-      <c r="AJ29" s="307"/>
-      <c r="AK29" s="345"/>
-      <c r="AL29" s="346"/>
-      <c r="AM29" s="315"/>
-      <c r="AN29" s="316"/>
-      <c r="AO29" s="323" t="s">
-        <v>143</v>
-      </c>
-      <c r="AP29" s="324"/>
+      <c r="AP29" s="231"/>
       <c r="AQ29" s="306"/>
-      <c r="AR29" s="307"/>
-      <c r="AS29" s="345"/>
-      <c r="AT29" s="346"/>
-      <c r="AU29" s="315"/>
-      <c r="AV29" s="316"/>
-      <c r="AW29" s="365"/>
-      <c r="AX29" s="324"/>
+      <c r="AR29" s="280"/>
+      <c r="AS29" s="251"/>
+      <c r="AT29" s="252"/>
+      <c r="AU29" s="258"/>
+      <c r="AV29" s="259"/>
+      <c r="AW29" s="250"/>
+      <c r="AX29" s="231"/>
       <c r="AY29" s="60"/>
       <c r="AZ29" s="61"/>
-      <c r="BA29" s="321"/>
-      <c r="BB29" s="322"/>
-      <c r="BC29" s="349"/>
-      <c r="BD29" s="307"/>
+      <c r="BA29" s="337"/>
+      <c r="BB29" s="338"/>
+      <c r="BC29" s="279"/>
+      <c r="BD29" s="280"/>
       <c r="BE29" s="306"/>
-      <c r="BF29" s="307"/>
+      <c r="BF29" s="280"/>
       <c r="BG29" s="62"/>
       <c r="BH29" s="62"/>
       <c r="BI29" s="11"/>
     </row>
     <row r="30" spans="1:61" ht="16" customHeight="1">
-      <c r="A30" s="350" t="s">
-        <v>144</v>
-      </c>
-      <c r="B30" s="351"/>
-      <c r="C30" s="352"/>
+      <c r="A30" s="285" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="286"/>
+      <c r="C30" s="287"/>
       <c r="D30" s="63"/>
       <c r="E30" s="64"/>
       <c r="F30" s="65"/>
       <c r="G30" s="66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H30" s="67"/>
-      <c r="I30" s="252">
+      <c r="I30" s="312">
         <v>42705</v>
       </c>
-      <c r="J30" s="253"/>
-      <c r="K30" s="252">
+      <c r="J30" s="302"/>
+      <c r="K30" s="312">
         <v>42705</v>
       </c>
-      <c r="L30" s="254"/>
-      <c r="M30" s="252">
+      <c r="L30" s="313"/>
+      <c r="M30" s="312">
         <v>42672</v>
       </c>
-      <c r="N30" s="253"/>
-      <c r="O30" s="252">
+      <c r="N30" s="302"/>
+      <c r="O30" s="312">
         <v>42672</v>
       </c>
-      <c r="P30" s="254"/>
-      <c r="Q30" s="252">
+      <c r="P30" s="313"/>
+      <c r="Q30" s="312">
         <v>42593</v>
       </c>
-      <c r="R30" s="253"/>
-      <c r="S30" s="252">
+      <c r="R30" s="302"/>
+      <c r="S30" s="312">
         <v>42593</v>
       </c>
-      <c r="T30" s="254"/>
-      <c r="U30" s="252">
+      <c r="T30" s="313"/>
+      <c r="U30" s="312">
         <v>42593</v>
       </c>
-      <c r="V30" s="254"/>
-      <c r="W30" s="252">
+      <c r="V30" s="313"/>
+      <c r="W30" s="312">
         <v>42593</v>
       </c>
-      <c r="X30" s="254"/>
-      <c r="Y30" s="255">
+      <c r="X30" s="313"/>
+      <c r="Y30" s="301">
         <v>42494</v>
       </c>
-      <c r="Z30" s="253"/>
-      <c r="AA30" s="255">
+      <c r="Z30" s="302"/>
+      <c r="AA30" s="301">
         <v>42494</v>
       </c>
-      <c r="AB30" s="253"/>
+      <c r="AB30" s="302"/>
       <c r="AC30" s="69">
         <v>42706</v>
       </c>
@@ -6033,11 +6033,11 @@
       </c>
       <c r="AH30" s="72"/>
       <c r="AI30" s="73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ30" s="74"/>
       <c r="AK30" s="75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AL30" s="76"/>
       <c r="AM30" s="77">
@@ -6084,188 +6084,188 @@
     </row>
     <row r="31" spans="1:61" ht="16" customHeight="1">
       <c r="A31" s="85" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="86" t="s">
+      <c r="C31" s="87" t="s">
         <v>148</v>
-      </c>
-      <c r="C31" s="87" t="s">
-        <v>149</v>
       </c>
       <c r="D31" s="88" t="s">
         <v>1</v>
       </c>
       <c r="E31" s="89" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="F31" s="90" t="s">
-        <v>151</v>
-      </c>
       <c r="G31" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="H31" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="H31" s="92" t="s">
-        <v>151</v>
-      </c>
       <c r="I31" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J31" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="J31" s="93" t="s">
-        <v>151</v>
-      </c>
       <c r="K31" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L31" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="L31" s="93" t="s">
-        <v>151</v>
-      </c>
       <c r="M31" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="N31" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="N31" s="93" t="s">
-        <v>151</v>
-      </c>
       <c r="O31" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="P31" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="P31" s="93" t="s">
-        <v>151</v>
-      </c>
       <c r="Q31" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="R31" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="R31" s="93" t="s">
-        <v>151</v>
-      </c>
       <c r="S31" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="T31" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="T31" s="93" t="s">
-        <v>151</v>
-      </c>
       <c r="U31" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="V31" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="V31" s="93" t="s">
-        <v>151</v>
-      </c>
       <c r="W31" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="X31" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="X31" s="93" t="s">
-        <v>151</v>
-      </c>
       <c r="Y31" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z31" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="Z31" s="94" t="s">
-        <v>151</v>
-      </c>
       <c r="AA31" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB31" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="AB31" s="94" t="s">
-        <v>151</v>
-      </c>
       <c r="AC31" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD31" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="AD31" s="92" t="s">
-        <v>151</v>
-      </c>
       <c r="AE31" s="95" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF31" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="AF31" s="96" t="s">
-        <v>151</v>
-      </c>
       <c r="AG31" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH31" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="AH31" s="92" t="s">
-        <v>151</v>
-      </c>
       <c r="AI31" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ31" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="AJ31" s="93" t="s">
-        <v>151</v>
-      </c>
       <c r="AK31" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL31" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="AL31" s="92" t="s">
-        <v>151</v>
-      </c>
       <c r="AM31" s="95" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN31" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="AN31" s="96" t="s">
-        <v>151</v>
-      </c>
       <c r="AO31" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP31" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="AP31" s="92" t="s">
-        <v>151</v>
-      </c>
       <c r="AQ31" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AR31" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="AR31" s="93" t="s">
-        <v>151</v>
-      </c>
       <c r="AS31" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT31" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="AT31" s="92" t="s">
-        <v>151</v>
-      </c>
       <c r="AU31" s="95" t="s">
+        <v>149</v>
+      </c>
+      <c r="AV31" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="AV31" s="96" t="s">
-        <v>151</v>
-      </c>
       <c r="AW31" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX31" s="92" t="s">
         <v>150</v>
-      </c>
-      <c r="AX31" s="92" t="s">
-        <v>151</v>
       </c>
       <c r="AY31" s="97"/>
       <c r="AZ31" s="98"/>
       <c r="BA31" s="99" t="s">
+        <v>149</v>
+      </c>
+      <c r="BB31" s="100" t="s">
         <v>150</v>
-      </c>
-      <c r="BB31" s="100" t="s">
-        <v>151</v>
       </c>
       <c r="BC31" s="97"/>
       <c r="BD31" s="98"/>
       <c r="BE31" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BF31" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="BF31" s="93" t="s">
+      <c r="BG31" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="BG31" s="101" t="s">
-        <v>152</v>
-      </c>
       <c r="BH31" s="101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BI31" s="11"/>
     </row>
     <row r="32" spans="1:61" ht="17.5" customHeight="1">
       <c r="A32" s="102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B32" s="103">
         <v>25</v>
       </c>
       <c r="C32" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D32" s="105"/>
       <c r="E32" s="106"/>
@@ -6393,13 +6393,13 @@
     </row>
     <row r="33" spans="1:61" ht="17" customHeight="1">
       <c r="A33" s="102" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B33" s="103">
         <v>50</v>
       </c>
       <c r="C33" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D33" s="105"/>
       <c r="E33" s="130">
@@ -6542,13 +6542,13 @@
     </row>
     <row r="34" spans="1:61" ht="17" customHeight="1">
       <c r="A34" s="102" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B34" s="103">
         <v>75</v>
       </c>
       <c r="C34" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D34" s="105"/>
       <c r="E34" s="130"/>
@@ -6669,13 +6669,13 @@
     </row>
     <row r="35" spans="1:61" ht="17" customHeight="1">
       <c r="A35" s="102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B35" s="103">
         <v>75</v>
       </c>
       <c r="C35" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D35" s="105"/>
       <c r="E35" s="130">
@@ -6801,13 +6801,13 @@
     </row>
     <row r="36" spans="1:61" ht="17" customHeight="1">
       <c r="A36" s="102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B36" s="103">
         <v>100</v>
       </c>
       <c r="C36" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D36" s="105"/>
       <c r="E36" s="130"/>
@@ -6926,13 +6926,13 @@
     </row>
     <row r="37" spans="1:61" ht="17" customHeight="1">
       <c r="A37" s="102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B37" s="103">
         <v>100</v>
       </c>
       <c r="C37" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D37" s="105"/>
       <c r="E37" s="130">
@@ -7076,14 +7076,14 @@
     </row>
     <row r="38" spans="1:61" ht="17" customHeight="1">
       <c r="A38" s="102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B38" s="103">
         <f t="shared" ref="B38:B71" si="12">7.5*15</f>
         <v>112.5</v>
       </c>
       <c r="C38" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D38" s="105"/>
       <c r="E38" s="130"/>
@@ -7202,14 +7202,14 @@
     </row>
     <row r="39" spans="1:61" ht="17" customHeight="1">
       <c r="A39" s="102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B39" s="103">
         <f t="shared" ref="B39:B75" si="13">7.5*20</f>
         <v>150</v>
       </c>
       <c r="C39" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D39" s="105"/>
       <c r="E39" s="130"/>
@@ -7328,11 +7328,11 @@
     </row>
     <row r="40" spans="1:61" ht="17" customHeight="1">
       <c r="A40" s="102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B40" s="164"/>
       <c r="C40" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D40" s="105"/>
       <c r="E40" s="130"/>
@@ -7397,13 +7397,13 @@
     </row>
     <row r="41" spans="1:61" ht="17" customHeight="1">
       <c r="A41" s="102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B41" s="103">
         <v>150</v>
       </c>
       <c r="C41" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D41" s="105"/>
       <c r="E41" s="130">
@@ -7538,13 +7538,13 @@
     </row>
     <row r="42" spans="1:61" ht="17" customHeight="1">
       <c r="A42" s="102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B42" s="103">
         <v>200</v>
       </c>
       <c r="C42" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D42" s="105"/>
       <c r="E42" s="130">
@@ -7685,11 +7685,11 @@
     </row>
     <row r="43" spans="1:61" ht="17" customHeight="1">
       <c r="A43" s="102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B43" s="164"/>
       <c r="C43" s="104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D43" s="105"/>
       <c r="E43" s="130"/>
@@ -7758,11 +7758,11 @@
     </row>
     <row r="44" spans="1:61" ht="17" customHeight="1">
       <c r="A44" s="102" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B44" s="164"/>
       <c r="C44" s="104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D44" s="105"/>
       <c r="E44" s="130"/>
@@ -7827,14 +7827,14 @@
     </row>
     <row r="45" spans="1:61" ht="17" customHeight="1">
       <c r="A45" s="102" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B45" s="103">
         <f>12*20</f>
         <v>240</v>
       </c>
       <c r="C45" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D45" s="105"/>
       <c r="E45" s="130"/>
@@ -7925,13 +7925,13 @@
     </row>
     <row r="46" spans="1:61" ht="17" customHeight="1">
       <c r="A46" s="102" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B46" s="103">
         <v>250</v>
       </c>
       <c r="C46" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D46" s="105"/>
       <c r="E46" s="130">
@@ -8069,13 +8069,13 @@
     </row>
     <row r="47" spans="1:61" ht="17" customHeight="1">
       <c r="A47" s="102" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B47" s="103">
         <v>300</v>
       </c>
       <c r="C47" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D47" s="105"/>
       <c r="E47" s="130"/>
@@ -8185,13 +8185,13 @@
     </row>
     <row r="48" spans="1:61" ht="17" customHeight="1">
       <c r="A48" s="102" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B48" s="103">
         <v>300</v>
       </c>
       <c r="C48" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D48" s="105"/>
       <c r="E48" s="130">
@@ -8331,11 +8331,11 @@
     </row>
     <row r="49" spans="1:61" ht="17" customHeight="1">
       <c r="A49" s="102" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B49" s="164"/>
       <c r="C49" s="104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D49" s="105"/>
       <c r="E49" s="130"/>
@@ -8404,14 +8404,14 @@
     </row>
     <row r="50" spans="1:61" ht="17" customHeight="1">
       <c r="A50" s="102" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B50" s="103">
         <f t="shared" ref="B50:B84" si="14">12.5*25</f>
         <v>312.5</v>
       </c>
       <c r="C50" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="105"/>
       <c r="E50" s="130"/>
@@ -8532,11 +8532,11 @@
     </row>
     <row r="51" spans="1:61" ht="17" customHeight="1">
       <c r="A51" s="102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B51" s="164"/>
       <c r="C51" s="104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D51" s="105"/>
       <c r="E51" s="130"/>
@@ -8601,14 +8601,14 @@
     </row>
     <row r="52" spans="1:61" ht="17" customHeight="1">
       <c r="A52" s="102" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B52" s="103">
         <f>10*35</f>
         <v>350</v>
       </c>
       <c r="C52" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="105"/>
       <c r="E52" s="130"/>
@@ -8711,14 +8711,14 @@
     </row>
     <row r="53" spans="1:61" ht="17" customHeight="1">
       <c r="A53" s="102" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B53" s="103">
         <f t="shared" ref="B53:B86" si="15">12*30</f>
         <v>360</v>
       </c>
       <c r="C53" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="105"/>
       <c r="E53" s="130"/>
@@ -8796,14 +8796,14 @@
     </row>
     <row r="54" spans="1:61" ht="17" customHeight="1">
       <c r="A54" s="102" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B54" s="103">
         <f>12.5*30</f>
         <v>375</v>
       </c>
       <c r="C54" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D54" s="105"/>
       <c r="E54" s="130"/>
@@ -8922,14 +8922,14 @@
     </row>
     <row r="55" spans="1:61" ht="17" customHeight="1">
       <c r="A55" s="102" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B55" s="103">
         <f>15*20</f>
         <v>300</v>
       </c>
       <c r="C55" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D55" s="105"/>
       <c r="E55" s="130"/>
@@ -9048,14 +9048,14 @@
     </row>
     <row r="56" spans="1:61" ht="17" customHeight="1">
       <c r="A56" s="102" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B56" s="103">
         <f t="shared" ref="B56:B88" si="28">15*25</f>
         <v>375</v>
       </c>
       <c r="C56" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D56" s="105"/>
       <c r="E56" s="130"/>
@@ -9170,14 +9170,14 @@
     </row>
     <row r="57" spans="1:61" ht="17" customHeight="1">
       <c r="A57" s="102" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B57" s="103">
         <f>10*45</f>
         <v>450</v>
       </c>
       <c r="C57" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D57" s="105"/>
       <c r="E57" s="130"/>
@@ -9292,14 +9292,14 @@
     </row>
     <row r="58" spans="1:61" ht="17" customHeight="1">
       <c r="A58" s="102" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B58" s="103">
         <f>12*40</f>
         <v>480</v>
       </c>
       <c r="C58" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D58" s="105"/>
       <c r="E58" s="130"/>
@@ -9408,14 +9408,14 @@
     </row>
     <row r="59" spans="1:61" ht="17" customHeight="1">
       <c r="A59" s="102" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B59" s="103">
         <f>25*20</f>
         <v>500</v>
       </c>
       <c r="C59" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D59" s="105"/>
       <c r="E59" s="130"/>
@@ -9522,14 +9522,14 @@
     </row>
     <row r="60" spans="1:61" ht="17" customHeight="1">
       <c r="A60" s="102" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B60" s="103">
         <f>17*33</f>
         <v>561</v>
       </c>
       <c r="C60" s="104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D60" s="105"/>
       <c r="E60" s="130"/>
@@ -9636,13 +9636,13 @@
     </row>
     <row r="61" spans="1:61" ht="17" customHeight="1">
       <c r="A61" s="176" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B61" s="177">
         <v>25</v>
       </c>
       <c r="C61" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="179">
         <v>1</v>
@@ -9743,11 +9743,11 @@
     </row>
     <row r="62" spans="1:61" ht="17" customHeight="1">
       <c r="A62" s="176" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B62" s="186"/>
       <c r="C62" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="179">
         <v>2</v>
@@ -9820,13 +9820,13 @@
     </row>
     <row r="63" spans="1:61" ht="17" customHeight="1">
       <c r="A63" s="176" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B63" s="177">
         <v>50</v>
       </c>
       <c r="C63" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D63" s="179">
         <v>1</v>
@@ -9986,11 +9986,11 @@
     </row>
     <row r="64" spans="1:61" ht="17" customHeight="1">
       <c r="A64" s="176" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B64" s="186"/>
       <c r="C64" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D64" s="179">
         <v>2</v>
@@ -10063,13 +10063,13 @@
     </row>
     <row r="65" spans="1:61" ht="17" customHeight="1">
       <c r="A65" s="176" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B65" s="177">
         <v>75</v>
       </c>
       <c r="C65" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D65" s="179">
         <v>1</v>
@@ -10194,11 +10194,11 @@
     </row>
     <row r="66" spans="1:61" ht="17" customHeight="1">
       <c r="A66" s="176" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B66" s="186"/>
       <c r="C66" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D66" s="179">
         <v>2</v>
@@ -10265,13 +10265,13 @@
     </row>
     <row r="67" spans="1:61" ht="17" customHeight="1">
       <c r="A67" s="176" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B67" s="177">
         <v>75</v>
       </c>
       <c r="C67" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D67" s="179">
         <v>1</v>
@@ -10397,11 +10397,11 @@
     </row>
     <row r="68" spans="1:61" ht="17" customHeight="1">
       <c r="A68" s="176" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B68" s="186"/>
       <c r="C68" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D68" s="179">
         <v>2</v>
@@ -10474,13 +10474,13 @@
     </row>
     <row r="69" spans="1:61" ht="17" customHeight="1">
       <c r="A69" s="176" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B69" s="177">
         <v>100</v>
       </c>
       <c r="C69" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D69" s="179">
         <v>1</v>
@@ -10630,11 +10630,11 @@
     </row>
     <row r="70" spans="1:61" ht="17" customHeight="1">
       <c r="A70" s="176" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B70" s="186"/>
       <c r="C70" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D70" s="179">
         <v>2</v>
@@ -10709,14 +10709,14 @@
     </row>
     <row r="71" spans="1:61" ht="17" customHeight="1">
       <c r="A71" s="176" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B71" s="177">
         <f t="shared" si="12"/>
         <v>112.5</v>
       </c>
       <c r="C71" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D71" s="179">
         <v>1</v>
@@ -10842,11 +10842,11 @@
     </row>
     <row r="72" spans="1:61" ht="17" customHeight="1">
       <c r="A72" s="176" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B72" s="186"/>
       <c r="C72" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D72" s="179">
         <v>2</v>
@@ -10913,13 +10913,13 @@
     </row>
     <row r="73" spans="1:61" ht="17" customHeight="1">
       <c r="A73" s="176" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B73" s="177">
         <v>120</v>
       </c>
       <c r="C73" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D73" s="179">
         <v>1</v>
@@ -11011,11 +11011,11 @@
     </row>
     <row r="74" spans="1:61" ht="17" customHeight="1">
       <c r="A74" s="176" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B74" s="186"/>
       <c r="C74" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D74" s="179">
         <v>2</v>
@@ -11082,14 +11082,14 @@
     </row>
     <row r="75" spans="1:61" ht="17" customHeight="1">
       <c r="A75" s="176" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B75" s="177">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
       <c r="C75" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D75" s="179">
         <v>1</v>
@@ -11204,13 +11204,13 @@
     </row>
     <row r="76" spans="1:61" ht="17" customHeight="1">
       <c r="A76" s="176" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B76" s="177">
         <v>150</v>
       </c>
       <c r="C76" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D76" s="179">
         <v>1</v>
@@ -11367,11 +11367,11 @@
     </row>
     <row r="77" spans="1:61" ht="17" customHeight="1">
       <c r="A77" s="176" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B77" s="186"/>
       <c r="C77" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D77" s="179">
         <v>2</v>
@@ -11446,14 +11446,14 @@
     </row>
     <row r="78" spans="1:61" ht="17" customHeight="1">
       <c r="A78" s="176" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B78" s="177">
         <f>8*20</f>
         <v>160</v>
       </c>
       <c r="C78" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D78" s="179">
         <v>1</v>
@@ -11528,13 +11528,13 @@
     </row>
     <row r="79" spans="1:61" ht="17" customHeight="1">
       <c r="A79" s="176" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B79" s="177">
         <v>200</v>
       </c>
       <c r="C79" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D79" s="179">
         <v>1</v>
@@ -11687,11 +11687,11 @@
     </row>
     <row r="80" spans="1:61" ht="17" customHeight="1">
       <c r="A80" s="176" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B80" s="186"/>
       <c r="C80" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D80" s="179">
         <v>2</v>
@@ -11764,13 +11764,13 @@
     </row>
     <row r="81" spans="1:61" ht="17" customHeight="1">
       <c r="A81" s="176" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B81" s="177">
         <v>250</v>
       </c>
       <c r="C81" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D81" s="179">
         <v>1</v>
@@ -11908,13 +11908,13 @@
     </row>
     <row r="82" spans="1:61" ht="17" customHeight="1">
       <c r="A82" s="176" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B82" s="177">
         <v>300</v>
       </c>
       <c r="C82" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D82" s="179">
         <v>1</v>
@@ -12056,11 +12056,11 @@
     </row>
     <row r="83" spans="1:61" ht="17" customHeight="1">
       <c r="A83" s="176" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B83" s="186"/>
       <c r="C83" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D83" s="179">
         <v>2</v>
@@ -12129,14 +12129,14 @@
     </row>
     <row r="84" spans="1:61" ht="17" customHeight="1">
       <c r="A84" s="176" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B84" s="177">
         <f t="shared" si="14"/>
         <v>312.5</v>
       </c>
       <c r="C84" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D84" s="179">
         <v>1</v>
@@ -12259,11 +12259,11 @@
     </row>
     <row r="85" spans="1:61" ht="17" customHeight="1">
       <c r="A85" s="176" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B85" s="186"/>
       <c r="C85" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D85" s="179">
         <v>2</v>
@@ -12330,14 +12330,14 @@
     </row>
     <row r="86" spans="1:61" ht="17" customHeight="1">
       <c r="A86" s="176" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B86" s="177">
         <f t="shared" si="15"/>
         <v>360</v>
       </c>
       <c r="C86" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D86" s="179">
         <v>1</v>
@@ -12456,11 +12456,11 @@
     </row>
     <row r="87" spans="1:61" ht="17" customHeight="1">
       <c r="A87" s="176" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B87" s="186"/>
       <c r="C87" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D87" s="179">
         <v>2</v>
@@ -12525,14 +12525,14 @@
     </row>
     <row r="88" spans="1:61" ht="17" customHeight="1">
       <c r="A88" s="176" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B88" s="177">
         <f t="shared" si="28"/>
         <v>375</v>
       </c>
       <c r="C88" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D88" s="179">
         <v>1</v>
@@ -12649,14 +12649,14 @@
     </row>
     <row r="89" spans="1:61" ht="17" customHeight="1">
       <c r="A89" s="176" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B89" s="177">
         <f>15*30</f>
         <v>450</v>
       </c>
       <c r="C89" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D89" s="179">
         <v>1</v>
@@ -12773,11 +12773,11 @@
     </row>
     <row r="90" spans="1:61" ht="17" customHeight="1">
       <c r="A90" s="176" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B90" s="186"/>
       <c r="C90" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D90" s="179">
         <v>2</v>
@@ -12842,14 +12842,14 @@
     </row>
     <row r="91" spans="1:61" ht="16" customHeight="1">
       <c r="A91" s="203" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B91" s="204">
         <f>15*35</f>
         <v>525</v>
       </c>
       <c r="C91" s="205" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D91" s="179">
         <v>1</v>
@@ -12958,11 +12958,11 @@
     </row>
     <row r="92" spans="1:61" ht="17.5" customHeight="1">
       <c r="A92" s="206" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B92" s="207"/>
       <c r="C92" s="208" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D92" s="209">
         <v>2</v>
@@ -13090,6 +13090,573 @@
     </row>
   </sheetData>
   <mergeCells count="591">
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AO15:AP15"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AO14:AP14"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AQ10:AR10"/>
+    <mergeCell ref="AQ19:AR19"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="BA7:BB7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AW9:AX9"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AQ9:AR9"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU9:AV9"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AU10:AV10"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AQ29:AR29"/>
+    <mergeCell ref="AU13:AV13"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AM10:AN10"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AO10:AP10"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AU29:AV29"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="BA29:BB29"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AM13:AN13"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AS13:AT13"/>
+    <mergeCell ref="AO29:AP29"/>
+    <mergeCell ref="AU14:AV14"/>
+    <mergeCell ref="AU12:AV12"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AM14:AN14"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="AS11:AT11"/>
+    <mergeCell ref="AS10:AT10"/>
+    <mergeCell ref="BC13:BD13"/>
+    <mergeCell ref="AW19:AX19"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="AS12:AT12"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AU19:AV19"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="BE14:BF14"/>
+    <mergeCell ref="BE13:BF13"/>
+    <mergeCell ref="BE12:BF12"/>
+    <mergeCell ref="AW8:AX8"/>
+    <mergeCell ref="BE19:BF19"/>
+    <mergeCell ref="BE9:BF9"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="AU7:AV7"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="BE10:BF10"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AS14:AT14"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="AW10:AX10"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AW7:AX7"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="AW6:AX6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="AU11:AV11"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AS19:AT19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="BA14:BB14"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AY10:AZ10"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="BE29:BF29"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="AS29:AT29"/>
+    <mergeCell ref="BA19:BB19"/>
+    <mergeCell ref="BC11:BD11"/>
+    <mergeCell ref="BC8:BD8"/>
+    <mergeCell ref="BC10:BD10"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="AO19:AP19"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="BC7:BD7"/>
+    <mergeCell ref="BC29:BD29"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BC12:BD12"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="BC9:BD9"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="BA10:BB10"/>
+    <mergeCell ref="BA13:BB13"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="AO13:AP13"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="AK10:AL10"/>
     <mergeCell ref="AC29:AD29"/>
     <mergeCell ref="BE11:BF11"/>
     <mergeCell ref="BC19:BD19"/>
@@ -13114,573 +13681,6 @@
     <mergeCell ref="AS6:AT6"/>
     <mergeCell ref="AQ13:AR13"/>
     <mergeCell ref="AM29:AN29"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BC12:BD12"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="BC9:BD9"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="BA10:BB10"/>
-    <mergeCell ref="BA13:BB13"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="AO13:AP13"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="BC7:BD7"/>
-    <mergeCell ref="BC29:BD29"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="BE29:BF29"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="AS29:AT29"/>
-    <mergeCell ref="BA19:BB19"/>
-    <mergeCell ref="BC11:BD11"/>
-    <mergeCell ref="BC8:BD8"/>
-    <mergeCell ref="BC10:BD10"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="AO19:AP19"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="BA14:BB14"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AY10:AZ10"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="AW10:AX10"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AW7:AX7"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="AW6:AX6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="AU11:AV11"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AS19:AT19"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="BE14:BF14"/>
-    <mergeCell ref="BE13:BF13"/>
-    <mergeCell ref="BE12:BF12"/>
-    <mergeCell ref="AW8:AX8"/>
-    <mergeCell ref="BE19:BF19"/>
-    <mergeCell ref="BE9:BF9"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AU8:AV8"/>
-    <mergeCell ref="AU7:AV7"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="BE10:BF10"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AS14:AT14"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AS11:AT11"/>
-    <mergeCell ref="AS10:AT10"/>
-    <mergeCell ref="BC13:BD13"/>
-    <mergeCell ref="AW19:AX19"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="AS12:AT12"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AU19:AV19"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AU29:AV29"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="BA29:BB29"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="AM16:AN16"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AM13:AN13"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AS13:AT13"/>
-    <mergeCell ref="AO29:AP29"/>
-    <mergeCell ref="AU14:AV14"/>
-    <mergeCell ref="AU12:AV12"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AQ29:AR29"/>
-    <mergeCell ref="AU13:AV13"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AM10:AN10"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AO10:AP10"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AQ10:AR10"/>
-    <mergeCell ref="AQ19:AR19"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="BA7:BB7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU9:AV9"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AU10:AV10"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AO15:AP15"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AO14:AP14"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="M23:N23"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:BD5 AM32:AM35 AS32:AS35 AU32:AU35 AG36 AM36 AS36 AU36 AG37 AM37 AS37 AU37 AG38 AM38 AS38 AU38 AG39 AM39 AS39 AU39 AG40 AM40 AS40 AU40 AG41 AM41 AS41 AU41 AG42 AM42 AS42 AU42 AG43 AM43 AS43 AU43 AG44 AM44 AS44 AU44 AG45 AM45 AS45 AU45 AG46 AM46 AS46 AU46 AG47 AM47 AS47 AU47 AG48 AM48 AS48 AU48 AG49 AM49 AS49 AU49 AG50 AM50 AS50 AU50 AG51 AM51 AS51 AU51 AE52 AG52 AM52 AS52 AU52 AE53 AG53 AM53 AS53 AU53 AG54 AM54 AS54 AU54 AG55 AM55 AS55 AU55 AG56 AM56 AS56 AU56 AG57 AM57 AS57 AU57 AG58 AM58 AS58 AU58 AG59 AM59 AS59 AU59 AG60 AM60 AS60 AU60 AG61 AM61 AS61 AU61 AG62 AM62:AM93 AS62:AS93 AU62:AU76">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">

--- a/DataFiles/161201 Self Storage Market Rent Comparison r12.xlsx
+++ b/DataFiles/161201 Self Storage Market Rent Comparison r12.xlsx
@@ -105,9 +105,6 @@
     <t>Public Storage - Bee Cave</t>
   </si>
   <si>
-    <t>Lakeway Car Wash &amp; Storage</t>
-  </si>
-  <si>
     <t>McArdle Mini Storage</t>
   </si>
   <si>
@@ -714,6 +711,9 @@
   </si>
   <si>
     <t>RightSpace Storage</t>
+  </si>
+  <si>
+    <t>Lakeway Car Wash and Storage</t>
   </si>
 </sst>
 </file>
@@ -1810,19 +1810,26 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="4" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1831,23 +1838,312 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1855,363 +2151,67 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3412,8 +3412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1:AV1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2:AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -3439,1452 +3439,1452 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="43" customHeight="1">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="336" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="327"/>
-      <c r="C1" s="328"/>
+      <c r="B1" s="337"/>
+      <c r="C1" s="338"/>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="331" t="s">
+      <c r="E1" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="332"/>
-      <c r="G1" s="310" t="s">
+      <c r="F1" s="329"/>
+      <c r="G1" s="301" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="311"/>
-      <c r="I1" s="235" t="s">
+      <c r="H1" s="302"/>
+      <c r="I1" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="236"/>
-      <c r="K1" s="235" t="s">
+      <c r="J1" s="239"/>
+      <c r="K1" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="236"/>
-      <c r="M1" s="235" t="s">
+      <c r="L1" s="239"/>
+      <c r="M1" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="236"/>
-      <c r="O1" s="235" t="s">
+      <c r="N1" s="239"/>
+      <c r="O1" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="236"/>
-      <c r="Q1" s="235" t="s">
+      <c r="P1" s="239"/>
+      <c r="Q1" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="236"/>
-      <c r="S1" s="235" t="s">
+      <c r="R1" s="239"/>
+      <c r="S1" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="236"/>
-      <c r="U1" s="235" t="s">
+      <c r="T1" s="239"/>
+      <c r="U1" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="236"/>
-      <c r="W1" s="235" t="s">
+      <c r="V1" s="239"/>
+      <c r="W1" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="236"/>
-      <c r="Y1" s="357" t="s">
+      <c r="X1" s="239"/>
+      <c r="Y1" s="258" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="236"/>
-      <c r="AA1" s="357" t="s">
+      <c r="Z1" s="239"/>
+      <c r="AA1" s="258" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="236"/>
-      <c r="AC1" s="310" t="s">
+      <c r="AB1" s="239"/>
+      <c r="AC1" s="301" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" s="311"/>
-      <c r="AE1" s="321" t="s">
+      <c r="AD1" s="302"/>
+      <c r="AE1" s="330" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" s="236"/>
-      <c r="AG1" s="277" t="s">
+      <c r="AF1" s="239"/>
+      <c r="AG1" s="297" t="s">
         <v>8</v>
       </c>
-      <c r="AH1" s="278"/>
-      <c r="AI1" s="245" t="s">
+      <c r="AH1" s="298"/>
+      <c r="AI1" s="295" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ1" s="296"/>
+      <c r="AK1" s="297" t="s">
         <v>9</v>
       </c>
-      <c r="AJ1" s="246"/>
-      <c r="AK1" s="277" t="s">
+      <c r="AL1" s="298"/>
+      <c r="AM1" s="295" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN1" s="296"/>
+      <c r="AO1" s="301" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP1" s="302"/>
+      <c r="AQ1" s="295" t="s">
         <v>10</v>
       </c>
-      <c r="AL1" s="278"/>
-      <c r="AM1" s="245" t="s">
+      <c r="AR1" s="296"/>
+      <c r="AS1" s="297" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT1" s="298"/>
+      <c r="AU1" s="295" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV1" s="296"/>
+      <c r="AW1" s="301" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX1" s="302"/>
+      <c r="AY1" s="295" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ1" s="296"/>
+      <c r="BA1" s="326" t="s">
         <v>184</v>
       </c>
-      <c r="AN1" s="246"/>
-      <c r="AO1" s="310" t="s">
-        <v>186</v>
-      </c>
-      <c r="AP1" s="311"/>
-      <c r="AQ1" s="245" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR1" s="246"/>
-      <c r="AS1" s="277" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT1" s="278"/>
-      <c r="AU1" s="245" t="s">
-        <v>187</v>
-      </c>
-      <c r="AV1" s="246"/>
-      <c r="AW1" s="310" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX1" s="311"/>
-      <c r="AY1" s="245" t="s">
+      <c r="BB1" s="327"/>
+      <c r="BC1" s="295" t="s">
         <v>14</v>
       </c>
-      <c r="AZ1" s="246"/>
-      <c r="BA1" s="329" t="s">
-        <v>185</v>
-      </c>
-      <c r="BB1" s="330"/>
-      <c r="BC1" s="245" t="s">
+      <c r="BD1" s="296"/>
+      <c r="BE1" s="295" t="s">
         <v>15</v>
       </c>
-      <c r="BD1" s="246"/>
-      <c r="BE1" s="245" t="s">
+      <c r="BF1" s="296"/>
+      <c r="BG1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="BF1" s="246"/>
-      <c r="BG1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="BH1" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="BI1" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:61" ht="42" customHeight="1">
-      <c r="A2" s="323" t="s">
+      <c r="A2" s="333" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="334"/>
+      <c r="C2" s="335"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="277"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="274" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="324"/>
-      <c r="C2" s="325"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="350"/>
-      <c r="F2" s="351"/>
-      <c r="G2" s="290" t="s">
+      <c r="H2" s="275"/>
+      <c r="I2" s="249" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="291"/>
-      <c r="I2" s="320" t="s">
+      <c r="J2" s="237"/>
+      <c r="K2" s="236"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="249" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="237"/>
+      <c r="O2" s="236"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="249" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="237"/>
+      <c r="S2" s="236"/>
+      <c r="T2" s="237"/>
+      <c r="U2" s="249" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="237"/>
+      <c r="W2" s="236"/>
+      <c r="X2" s="237"/>
+      <c r="Y2" s="273" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="237"/>
+      <c r="AA2" s="257"/>
+      <c r="AB2" s="237"/>
+      <c r="AC2" s="274" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="249"/>
-      <c r="K2" s="276"/>
-      <c r="L2" s="249"/>
-      <c r="M2" s="320" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="249"/>
-      <c r="O2" s="276"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="320" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="249"/>
-      <c r="S2" s="276"/>
-      <c r="T2" s="249"/>
-      <c r="U2" s="320" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" s="249"/>
-      <c r="W2" s="276"/>
-      <c r="X2" s="249"/>
-      <c r="Y2" s="356" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z2" s="249"/>
-      <c r="AA2" s="365"/>
-      <c r="AB2" s="249"/>
-      <c r="AC2" s="290" t="s">
+      <c r="AD2" s="275"/>
+      <c r="AE2" s="249" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" s="291"/>
-      <c r="AE2" s="320" t="s">
+      <c r="AF2" s="237"/>
+      <c r="AG2" s="274" t="s">
         <v>23</v>
       </c>
-      <c r="AF2" s="249"/>
-      <c r="AG2" s="290" t="s">
+      <c r="AH2" s="275"/>
+      <c r="AI2" s="249" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="291"/>
-      <c r="AI2" s="320" t="s">
+      <c r="AJ2" s="237"/>
+      <c r="AK2" s="274" t="s">
         <v>25</v>
       </c>
-      <c r="AJ2" s="249"/>
-      <c r="AK2" s="290" t="s">
+      <c r="AL2" s="275"/>
+      <c r="AM2" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="291"/>
-      <c r="AM2" s="320" t="s">
+      <c r="AN2" s="237"/>
+      <c r="AO2" s="274" t="s">
         <v>27</v>
       </c>
-      <c r="AN2" s="249"/>
-      <c r="AO2" s="290" t="s">
+      <c r="AP2" s="275"/>
+      <c r="AQ2" s="249" t="s">
         <v>28</v>
       </c>
-      <c r="AP2" s="291"/>
-      <c r="AQ2" s="320" t="s">
+      <c r="AR2" s="237"/>
+      <c r="AS2" s="274" t="s">
         <v>29</v>
       </c>
-      <c r="AR2" s="249"/>
-      <c r="AS2" s="290" t="s">
+      <c r="AT2" s="275"/>
+      <c r="AU2" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="AT2" s="291"/>
-      <c r="AU2" s="320" t="s">
+      <c r="AV2" s="237"/>
+      <c r="AW2" s="274" t="s">
         <v>31</v>
       </c>
-      <c r="AV2" s="249"/>
-      <c r="AW2" s="290" t="s">
+      <c r="AX2" s="275"/>
+      <c r="AY2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AX2" s="291"/>
-      <c r="AY2" s="8" t="s">
+      <c r="AZ2" s="9"/>
+      <c r="BA2" s="341" t="s">
         <v>33</v>
       </c>
-      <c r="AZ2" s="9"/>
-      <c r="BA2" s="315" t="s">
+      <c r="BB2" s="342"/>
+      <c r="BC2" s="364" t="s">
         <v>34</v>
       </c>
-      <c r="BB2" s="316"/>
-      <c r="BC2" s="248" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD2" s="249"/>
-      <c r="BE2" s="276"/>
-      <c r="BF2" s="249"/>
+      <c r="BD2" s="237"/>
+      <c r="BE2" s="236"/>
+      <c r="BF2" s="237"/>
       <c r="BG2" s="10"/>
       <c r="BH2" s="10"/>
       <c r="BI2" s="11"/>
     </row>
     <row r="3" spans="1:61" ht="21.75" customHeight="1">
-      <c r="A3" s="303" t="s">
+      <c r="A3" s="281" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="282"/>
+      <c r="C3" s="283"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="361">
+        <v>0</v>
+      </c>
+      <c r="F3" s="272"/>
+      <c r="G3" s="314" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="304"/>
-      <c r="C3" s="305"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="273">
-        <v>0</v>
-      </c>
-      <c r="F3" s="263"/>
-      <c r="G3" s="237" t="s">
+      <c r="H3" s="265"/>
+      <c r="I3" s="243" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="238"/>
-      <c r="I3" s="242" t="s">
+      <c r="J3" s="235"/>
+      <c r="K3" s="234"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="243" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="235"/>
+      <c r="O3" s="234"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="243" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="235"/>
+      <c r="S3" s="234"/>
+      <c r="T3" s="235"/>
+      <c r="U3" s="243" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="235"/>
+      <c r="W3" s="234"/>
+      <c r="X3" s="235"/>
+      <c r="Y3" s="256" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="235"/>
+      <c r="AA3" s="259"/>
+      <c r="AB3" s="235"/>
+      <c r="AC3" s="314" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="233"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="233"/>
-      <c r="M3" s="242" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="233"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="233"/>
-      <c r="Q3" s="242" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="233"/>
-      <c r="S3" s="232"/>
-      <c r="T3" s="233"/>
-      <c r="U3" s="242" t="s">
-        <v>38</v>
-      </c>
-      <c r="V3" s="233"/>
-      <c r="W3" s="232"/>
-      <c r="X3" s="233"/>
-      <c r="Y3" s="314" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z3" s="233"/>
-      <c r="AA3" s="281"/>
-      <c r="AB3" s="233"/>
-      <c r="AC3" s="237" t="s">
+      <c r="AD3" s="265"/>
+      <c r="AE3" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="AD3" s="238"/>
-      <c r="AE3" s="242" t="s">
+      <c r="AF3" s="235"/>
+      <c r="AG3" s="314" t="s">
         <v>40</v>
       </c>
-      <c r="AF3" s="233"/>
-      <c r="AG3" s="237" t="s">
+      <c r="AH3" s="265"/>
+      <c r="AI3" s="243" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ3" s="235"/>
+      <c r="AK3" s="314" t="s">
         <v>41</v>
       </c>
-      <c r="AH3" s="238"/>
-      <c r="AI3" s="242" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ3" s="233"/>
-      <c r="AK3" s="237" t="s">
+      <c r="AL3" s="265"/>
+      <c r="AM3" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="AL3" s="238"/>
-      <c r="AM3" s="242" t="s">
+      <c r="AN3" s="235"/>
+      <c r="AO3" s="314" t="s">
         <v>43</v>
       </c>
-      <c r="AN3" s="233"/>
-      <c r="AO3" s="237" t="s">
+      <c r="AP3" s="265"/>
+      <c r="AQ3" s="243" t="s">
         <v>44</v>
       </c>
-      <c r="AP3" s="238"/>
-      <c r="AQ3" s="242" t="s">
+      <c r="AR3" s="235"/>
+      <c r="AS3" s="314" t="s">
         <v>45</v>
       </c>
-      <c r="AR3" s="233"/>
-      <c r="AS3" s="237" t="s">
+      <c r="AT3" s="265"/>
+      <c r="AU3" s="243" t="s">
         <v>46</v>
       </c>
-      <c r="AT3" s="238"/>
-      <c r="AU3" s="242" t="s">
+      <c r="AV3" s="235"/>
+      <c r="AW3" s="314" t="s">
         <v>47</v>
       </c>
-      <c r="AV3" s="233"/>
-      <c r="AW3" s="237" t="s">
+      <c r="AX3" s="265"/>
+      <c r="AY3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="AX3" s="238"/>
-      <c r="AY3" s="21" t="s">
+      <c r="AZ3" s="22"/>
+      <c r="BA3" s="360" t="s">
         <v>49</v>
       </c>
-      <c r="AZ3" s="22"/>
-      <c r="BA3" s="272" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB3" s="244"/>
-      <c r="BC3" s="232"/>
-      <c r="BD3" s="233"/>
-      <c r="BE3" s="232"/>
-      <c r="BF3" s="233"/>
+      <c r="BB3" s="344"/>
+      <c r="BC3" s="234"/>
+      <c r="BD3" s="235"/>
+      <c r="BE3" s="234"/>
+      <c r="BF3" s="235"/>
       <c r="BG3" s="24"/>
       <c r="BH3" s="24"/>
       <c r="BI3" s="11"/>
     </row>
     <row r="4" spans="1:61" ht="41" customHeight="1">
-      <c r="A4" s="303" t="s">
+      <c r="A4" s="281" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="282"/>
+      <c r="C4" s="283"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="279" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="304"/>
-      <c r="C4" s="305"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="352" t="s">
+      <c r="F4" s="280"/>
+      <c r="G4" s="291" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="353"/>
-      <c r="G4" s="260" t="s">
+      <c r="H4" s="290"/>
+      <c r="I4" s="232" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="261"/>
-      <c r="I4" s="354" t="s">
+      <c r="J4" s="233"/>
+      <c r="K4" s="242"/>
+      <c r="L4" s="233"/>
+      <c r="M4" s="232" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="233"/>
+      <c r="O4" s="242"/>
+      <c r="P4" s="233"/>
+      <c r="Q4" s="232" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" s="233"/>
+      <c r="S4" s="242"/>
+      <c r="T4" s="233"/>
+      <c r="U4" s="232" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" s="233"/>
+      <c r="W4" s="242"/>
+      <c r="X4" s="233"/>
+      <c r="Y4" s="260" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z4" s="233"/>
+      <c r="AA4" s="269"/>
+      <c r="AB4" s="233"/>
+      <c r="AC4" s="291" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="355"/>
-      <c r="K4" s="360"/>
-      <c r="L4" s="355"/>
-      <c r="M4" s="354" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="355"/>
-      <c r="O4" s="360"/>
-      <c r="P4" s="355"/>
-      <c r="Q4" s="354" t="s">
-        <v>54</v>
-      </c>
-      <c r="R4" s="355"/>
-      <c r="S4" s="360"/>
-      <c r="T4" s="355"/>
-      <c r="U4" s="354" t="s">
-        <v>54</v>
-      </c>
-      <c r="V4" s="355"/>
-      <c r="W4" s="360"/>
-      <c r="X4" s="355"/>
-      <c r="Y4" s="358" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z4" s="355"/>
-      <c r="AA4" s="319"/>
-      <c r="AB4" s="355"/>
-      <c r="AC4" s="260" t="s">
+      <c r="AD4" s="265"/>
+      <c r="AE4" s="245" t="s">
         <v>55</v>
       </c>
-      <c r="AD4" s="238"/>
-      <c r="AE4" s="282" t="s">
+      <c r="AF4" s="246"/>
+      <c r="AG4" s="289" t="s">
         <v>56</v>
       </c>
-      <c r="AF4" s="283"/>
-      <c r="AG4" s="347" t="s">
+      <c r="AH4" s="290"/>
+      <c r="AI4" s="319" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ4" s="320"/>
+      <c r="AK4" s="292"/>
+      <c r="AL4" s="293"/>
+      <c r="AM4" s="245" t="s">
         <v>57</v>
       </c>
-      <c r="AH4" s="261"/>
-      <c r="AI4" s="322" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ4" s="269"/>
-      <c r="AK4" s="348"/>
-      <c r="AL4" s="349"/>
-      <c r="AM4" s="282" t="s">
+      <c r="AN4" s="246"/>
+      <c r="AO4" s="245" t="s">
         <v>58</v>
       </c>
-      <c r="AN4" s="283"/>
-      <c r="AO4" s="282" t="s">
+      <c r="AP4" s="246"/>
+      <c r="AQ4" s="358" t="s">
         <v>59</v>
       </c>
-      <c r="AP4" s="283"/>
-      <c r="AQ4" s="268" t="s">
+      <c r="AR4" s="320"/>
+      <c r="AS4" s="294" t="s">
         <v>60</v>
       </c>
-      <c r="AR4" s="269"/>
-      <c r="AS4" s="334" t="s">
+      <c r="AT4" s="290"/>
+      <c r="AU4" s="245" t="s">
         <v>61</v>
       </c>
-      <c r="AT4" s="261"/>
-      <c r="AU4" s="282" t="s">
+      <c r="AV4" s="246"/>
+      <c r="AW4" s="294" t="s">
         <v>62</v>
       </c>
-      <c r="AV4" s="283"/>
-      <c r="AW4" s="334" t="s">
+      <c r="AX4" s="290"/>
+      <c r="AY4" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="AX4" s="261"/>
-      <c r="AY4" s="26" t="s">
+      <c r="AZ4" s="27"/>
+      <c r="BA4" s="287" t="s">
         <v>64</v>
       </c>
-      <c r="AZ4" s="27"/>
-      <c r="BA4" s="345" t="s">
+      <c r="BB4" s="288"/>
+      <c r="BC4" s="319" t="s">
         <v>65</v>
       </c>
-      <c r="BB4" s="346"/>
-      <c r="BC4" s="322" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD4" s="269"/>
-      <c r="BE4" s="232"/>
-      <c r="BF4" s="233"/>
+      <c r="BD4" s="320"/>
+      <c r="BE4" s="234"/>
+      <c r="BF4" s="235"/>
       <c r="BG4" s="24"/>
       <c r="BH4" s="24"/>
       <c r="BI4" s="11"/>
     </row>
     <row r="5" spans="1:61" ht="17" customHeight="1">
-      <c r="A5" s="303" t="s">
+      <c r="A5" s="281" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="282"/>
+      <c r="C5" s="283"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="362"/>
+      <c r="F5" s="363"/>
+      <c r="G5" s="314" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="304"/>
-      <c r="C5" s="305"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="274"/>
-      <c r="F5" s="275"/>
-      <c r="G5" s="237" t="s">
+      <c r="H5" s="309"/>
+      <c r="I5" s="247">
+        <v>15</v>
+      </c>
+      <c r="J5" s="248"/>
+      <c r="K5" s="247"/>
+      <c r="L5" s="248"/>
+      <c r="M5" s="247">
+        <v>15</v>
+      </c>
+      <c r="N5" s="248"/>
+      <c r="O5" s="247"/>
+      <c r="P5" s="248"/>
+      <c r="Q5" s="247">
+        <v>15</v>
+      </c>
+      <c r="R5" s="248"/>
+      <c r="S5" s="247"/>
+      <c r="T5" s="248"/>
+      <c r="U5" s="247">
+        <v>15</v>
+      </c>
+      <c r="V5" s="248"/>
+      <c r="W5" s="247"/>
+      <c r="X5" s="248"/>
+      <c r="Y5" s="261">
+        <v>15</v>
+      </c>
+      <c r="Z5" s="248"/>
+      <c r="AA5" s="261"/>
+      <c r="AB5" s="248"/>
+      <c r="AC5" s="304">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="305"/>
+      <c r="AE5" s="247">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="248"/>
+      <c r="AG5" s="304">
+        <v>24</v>
+      </c>
+      <c r="AH5" s="305"/>
+      <c r="AI5" s="356"/>
+      <c r="AJ5" s="357"/>
+      <c r="AK5" s="264" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="297"/>
-      <c r="I5" s="308">
-        <v>15</v>
-      </c>
-      <c r="J5" s="309"/>
-      <c r="K5" s="308"/>
-      <c r="L5" s="309"/>
-      <c r="M5" s="308">
-        <v>15</v>
-      </c>
-      <c r="N5" s="309"/>
-      <c r="O5" s="308"/>
-      <c r="P5" s="309"/>
-      <c r="Q5" s="308">
-        <v>15</v>
-      </c>
-      <c r="R5" s="309"/>
-      <c r="S5" s="308"/>
-      <c r="T5" s="309"/>
-      <c r="U5" s="308">
-        <v>15</v>
-      </c>
-      <c r="V5" s="309"/>
-      <c r="W5" s="308"/>
-      <c r="X5" s="309"/>
-      <c r="Y5" s="359">
-        <v>15</v>
-      </c>
-      <c r="Z5" s="309"/>
-      <c r="AA5" s="359"/>
-      <c r="AB5" s="309"/>
-      <c r="AC5" s="317">
-        <v>10</v>
-      </c>
-      <c r="AD5" s="318"/>
-      <c r="AE5" s="308">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="309"/>
-      <c r="AG5" s="317">
-        <v>24</v>
-      </c>
-      <c r="AH5" s="318"/>
-      <c r="AI5" s="264"/>
-      <c r="AJ5" s="265"/>
-      <c r="AK5" s="253" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL5" s="318"/>
-      <c r="AM5" s="308">
+      <c r="AL5" s="305"/>
+      <c r="AM5" s="247">
         <v>20</v>
       </c>
-      <c r="AN5" s="309"/>
-      <c r="AO5" s="339"/>
-      <c r="AP5" s="297"/>
-      <c r="AQ5" s="264"/>
-      <c r="AR5" s="265"/>
-      <c r="AS5" s="317">
+      <c r="AN5" s="248"/>
+      <c r="AO5" s="308"/>
+      <c r="AP5" s="309"/>
+      <c r="AQ5" s="356"/>
+      <c r="AR5" s="357"/>
+      <c r="AS5" s="304">
         <v>17</v>
       </c>
-      <c r="AT5" s="318"/>
-      <c r="AU5" s="308">
+      <c r="AT5" s="305"/>
+      <c r="AU5" s="247">
         <v>20</v>
       </c>
-      <c r="AV5" s="309"/>
-      <c r="AW5" s="339"/>
-      <c r="AX5" s="297"/>
+      <c r="AV5" s="248"/>
+      <c r="AW5" s="308"/>
+      <c r="AX5" s="309"/>
       <c r="AY5" s="33"/>
       <c r="AZ5" s="34"/>
-      <c r="BA5" s="335"/>
-      <c r="BB5" s="336"/>
-      <c r="BC5" s="271"/>
-      <c r="BD5" s="265"/>
-      <c r="BE5" s="232"/>
-      <c r="BF5" s="233"/>
+      <c r="BA5" s="317"/>
+      <c r="BB5" s="318"/>
+      <c r="BC5" s="359"/>
+      <c r="BD5" s="357"/>
+      <c r="BE5" s="234"/>
+      <c r="BF5" s="235"/>
       <c r="BG5" s="24"/>
       <c r="BH5" s="24"/>
       <c r="BI5" s="11"/>
     </row>
     <row r="6" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A6" s="303" t="s">
+      <c r="A6" s="281" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="282"/>
+      <c r="C6" s="283"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="271"/>
+      <c r="F6" s="272"/>
+      <c r="G6" s="276" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="304"/>
-      <c r="C6" s="305"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="262"/>
-      <c r="F6" s="263"/>
-      <c r="G6" s="289" t="s">
+      <c r="H6" s="265"/>
+      <c r="I6" s="244" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="238"/>
-      <c r="I6" s="247" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="241"/>
-      <c r="K6" s="240"/>
-      <c r="L6" s="241"/>
-      <c r="M6" s="247" t="s">
-        <v>72</v>
-      </c>
-      <c r="N6" s="241"/>
-      <c r="O6" s="240"/>
-      <c r="P6" s="241"/>
-      <c r="Q6" s="247" t="s">
-        <v>72</v>
-      </c>
-      <c r="R6" s="241"/>
-      <c r="S6" s="240"/>
-      <c r="T6" s="241"/>
-      <c r="U6" s="247" t="s">
-        <v>72</v>
-      </c>
-      <c r="V6" s="241"/>
-      <c r="W6" s="240"/>
-      <c r="X6" s="241"/>
-      <c r="Y6" s="314" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z6" s="241"/>
-      <c r="AA6" s="281"/>
-      <c r="AB6" s="241"/>
-      <c r="AC6" s="253" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD6" s="254"/>
-      <c r="AE6" s="240"/>
-      <c r="AF6" s="241"/>
-      <c r="AG6" s="253" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH6" s="254"/>
-      <c r="AI6" s="232"/>
-      <c r="AJ6" s="233"/>
-      <c r="AK6" s="284"/>
-      <c r="AL6" s="254"/>
-      <c r="AM6" s="232"/>
-      <c r="AN6" s="233"/>
-      <c r="AO6" s="257"/>
-      <c r="AP6" s="238"/>
-      <c r="AQ6" s="232"/>
-      <c r="AR6" s="233"/>
-      <c r="AS6" s="257"/>
-      <c r="AT6" s="238"/>
-      <c r="AU6" s="240"/>
-      <c r="AV6" s="241"/>
-      <c r="AW6" s="257"/>
-      <c r="AX6" s="238"/>
+      <c r="J6" s="231"/>
+      <c r="K6" s="230"/>
+      <c r="L6" s="231"/>
+      <c r="M6" s="244" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="231"/>
+      <c r="O6" s="230"/>
+      <c r="P6" s="231"/>
+      <c r="Q6" s="244" t="s">
+        <v>71</v>
+      </c>
+      <c r="R6" s="231"/>
+      <c r="S6" s="230"/>
+      <c r="T6" s="231"/>
+      <c r="U6" s="244" t="s">
+        <v>71</v>
+      </c>
+      <c r="V6" s="231"/>
+      <c r="W6" s="230"/>
+      <c r="X6" s="231"/>
+      <c r="Y6" s="256" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z6" s="231"/>
+      <c r="AA6" s="259"/>
+      <c r="AB6" s="231"/>
+      <c r="AC6" s="264" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD6" s="268"/>
+      <c r="AE6" s="230"/>
+      <c r="AF6" s="231"/>
+      <c r="AG6" s="264" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH6" s="268"/>
+      <c r="AI6" s="234"/>
+      <c r="AJ6" s="235"/>
+      <c r="AK6" s="267"/>
+      <c r="AL6" s="268"/>
+      <c r="AM6" s="234"/>
+      <c r="AN6" s="235"/>
+      <c r="AO6" s="270"/>
+      <c r="AP6" s="265"/>
+      <c r="AQ6" s="234"/>
+      <c r="AR6" s="235"/>
+      <c r="AS6" s="270"/>
+      <c r="AT6" s="265"/>
+      <c r="AU6" s="230"/>
+      <c r="AV6" s="231"/>
+      <c r="AW6" s="270"/>
+      <c r="AX6" s="265"/>
       <c r="AY6" s="38"/>
       <c r="AZ6" s="22"/>
-      <c r="BA6" s="243"/>
-      <c r="BB6" s="244"/>
-      <c r="BC6" s="234"/>
-      <c r="BD6" s="233"/>
-      <c r="BE6" s="232"/>
-      <c r="BF6" s="233"/>
+      <c r="BA6" s="343"/>
+      <c r="BB6" s="344"/>
+      <c r="BC6" s="325"/>
+      <c r="BD6" s="235"/>
+      <c r="BE6" s="234"/>
+      <c r="BF6" s="235"/>
       <c r="BG6" s="24"/>
       <c r="BH6" s="24"/>
       <c r="BI6" s="11"/>
     </row>
     <row r="7" spans="1:61" ht="20.5" customHeight="1">
-      <c r="A7" s="303" t="s">
+      <c r="A7" s="281" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="282"/>
+      <c r="C7" s="283"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="332" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="304"/>
-      <c r="C7" s="305"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="288" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="263"/>
-      <c r="G7" s="289" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="238"/>
-      <c r="I7" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="241"/>
-      <c r="K7" s="240"/>
-      <c r="L7" s="241"/>
-      <c r="M7" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="241"/>
-      <c r="O7" s="240"/>
-      <c r="P7" s="241"/>
-      <c r="Q7" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="R7" s="241"/>
-      <c r="S7" s="240"/>
-      <c r="T7" s="241"/>
-      <c r="U7" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="V7" s="241"/>
-      <c r="W7" s="240"/>
-      <c r="X7" s="241"/>
-      <c r="Y7" s="314" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z7" s="241"/>
-      <c r="AA7" s="281"/>
-      <c r="AB7" s="241"/>
-      <c r="AC7" s="253" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD7" s="254"/>
-      <c r="AE7" s="240"/>
-      <c r="AF7" s="241"/>
-      <c r="AG7" s="253" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH7" s="254"/>
-      <c r="AI7" s="232"/>
-      <c r="AJ7" s="233"/>
-      <c r="AK7" s="284"/>
-      <c r="AL7" s="254"/>
-      <c r="AM7" s="232"/>
-      <c r="AN7" s="233"/>
-      <c r="AO7" s="253" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP7" s="254"/>
-      <c r="AQ7" s="232"/>
-      <c r="AR7" s="233"/>
-      <c r="AS7" s="257"/>
-      <c r="AT7" s="238"/>
-      <c r="AU7" s="240"/>
-      <c r="AV7" s="241"/>
-      <c r="AW7" s="257"/>
-      <c r="AX7" s="238"/>
+      <c r="F7" s="272"/>
+      <c r="G7" s="276" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="265"/>
+      <c r="I7" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="231"/>
+      <c r="K7" s="230"/>
+      <c r="L7" s="231"/>
+      <c r="M7" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="231"/>
+      <c r="O7" s="230"/>
+      <c r="P7" s="231"/>
+      <c r="Q7" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7" s="231"/>
+      <c r="S7" s="230"/>
+      <c r="T7" s="231"/>
+      <c r="U7" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="V7" s="231"/>
+      <c r="W7" s="230"/>
+      <c r="X7" s="231"/>
+      <c r="Y7" s="256" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z7" s="231"/>
+      <c r="AA7" s="259"/>
+      <c r="AB7" s="231"/>
+      <c r="AC7" s="264" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD7" s="268"/>
+      <c r="AE7" s="230"/>
+      <c r="AF7" s="231"/>
+      <c r="AG7" s="264" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH7" s="268"/>
+      <c r="AI7" s="234"/>
+      <c r="AJ7" s="235"/>
+      <c r="AK7" s="267"/>
+      <c r="AL7" s="268"/>
+      <c r="AM7" s="234"/>
+      <c r="AN7" s="235"/>
+      <c r="AO7" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP7" s="268"/>
+      <c r="AQ7" s="234"/>
+      <c r="AR7" s="235"/>
+      <c r="AS7" s="270"/>
+      <c r="AT7" s="265"/>
+      <c r="AU7" s="230"/>
+      <c r="AV7" s="231"/>
+      <c r="AW7" s="270"/>
+      <c r="AX7" s="265"/>
       <c r="AY7" s="38"/>
       <c r="AZ7" s="22"/>
-      <c r="BA7" s="266" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB7" s="267"/>
-      <c r="BC7" s="234"/>
-      <c r="BD7" s="233"/>
-      <c r="BE7" s="232"/>
-      <c r="BF7" s="233"/>
+      <c r="BA7" s="299" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB7" s="300"/>
+      <c r="BC7" s="325"/>
+      <c r="BD7" s="235"/>
+      <c r="BE7" s="234"/>
+      <c r="BF7" s="235"/>
       <c r="BG7" s="24"/>
       <c r="BH7" s="24"/>
       <c r="BI7" s="11"/>
     </row>
     <row r="8" spans="1:61" ht="16.5" customHeight="1">
-      <c r="A8" s="303" t="s">
+      <c r="A8" s="281" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="282"/>
+      <c r="C8" s="283"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="271"/>
+      <c r="F8" s="272"/>
+      <c r="G8" s="270"/>
+      <c r="H8" s="265"/>
+      <c r="I8" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="231"/>
+      <c r="K8" s="230"/>
+      <c r="L8" s="231"/>
+      <c r="M8" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" s="231"/>
+      <c r="O8" s="230"/>
+      <c r="P8" s="231"/>
+      <c r="Q8" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8" s="231"/>
+      <c r="S8" s="230"/>
+      <c r="T8" s="231"/>
+      <c r="U8" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="V8" s="231"/>
+      <c r="W8" s="230"/>
+      <c r="X8" s="231"/>
+      <c r="Y8" s="256" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z8" s="231"/>
+      <c r="AA8" s="259"/>
+      <c r="AB8" s="231"/>
+      <c r="AC8" s="264" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD8" s="268"/>
+      <c r="AE8" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF8" s="231"/>
+      <c r="AG8" s="264" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="304"/>
-      <c r="C8" s="305"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="262"/>
-      <c r="F8" s="263"/>
-      <c r="G8" s="257"/>
-      <c r="H8" s="238"/>
-      <c r="I8" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" s="241"/>
-      <c r="K8" s="240"/>
-      <c r="L8" s="241"/>
-      <c r="M8" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="N8" s="241"/>
-      <c r="O8" s="240"/>
-      <c r="P8" s="241"/>
-      <c r="Q8" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="R8" s="241"/>
-      <c r="S8" s="240"/>
-      <c r="T8" s="241"/>
-      <c r="U8" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="V8" s="241"/>
-      <c r="W8" s="240"/>
-      <c r="X8" s="241"/>
-      <c r="Y8" s="314" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z8" s="241"/>
-      <c r="AA8" s="281"/>
-      <c r="AB8" s="241"/>
-      <c r="AC8" s="253" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD8" s="254"/>
-      <c r="AE8" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF8" s="241"/>
-      <c r="AG8" s="253" t="s">
+      <c r="AH8" s="268"/>
+      <c r="AI8" s="234"/>
+      <c r="AJ8" s="235"/>
+      <c r="AK8" s="270"/>
+      <c r="AL8" s="265"/>
+      <c r="AM8" s="244" t="s">
         <v>76</v>
       </c>
-      <c r="AH8" s="254"/>
-      <c r="AI8" s="232"/>
-      <c r="AJ8" s="233"/>
-      <c r="AK8" s="257"/>
-      <c r="AL8" s="238"/>
-      <c r="AM8" s="247" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN8" s="241"/>
-      <c r="AO8" s="257"/>
-      <c r="AP8" s="238"/>
-      <c r="AQ8" s="232"/>
-      <c r="AR8" s="233"/>
-      <c r="AS8" s="257"/>
-      <c r="AT8" s="238"/>
-      <c r="AU8" s="247" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV8" s="241"/>
-      <c r="AW8" s="253" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX8" s="238"/>
+      <c r="AN8" s="231"/>
+      <c r="AO8" s="270"/>
+      <c r="AP8" s="265"/>
+      <c r="AQ8" s="234"/>
+      <c r="AR8" s="235"/>
+      <c r="AS8" s="270"/>
+      <c r="AT8" s="265"/>
+      <c r="AU8" s="244" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV8" s="231"/>
+      <c r="AW8" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX8" s="265"/>
       <c r="AY8" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AZ8" s="22"/>
-      <c r="BA8" s="243"/>
-      <c r="BB8" s="244"/>
-      <c r="BC8" s="239" t="s">
-        <v>74</v>
-      </c>
-      <c r="BD8" s="233"/>
-      <c r="BE8" s="232"/>
-      <c r="BF8" s="233"/>
+      <c r="BA8" s="343"/>
+      <c r="BB8" s="344"/>
+      <c r="BC8" s="347" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD8" s="235"/>
+      <c r="BE8" s="234"/>
+      <c r="BF8" s="235"/>
       <c r="BG8" s="24"/>
       <c r="BH8" s="24"/>
       <c r="BI8" s="11"/>
     </row>
     <row r="9" spans="1:61" ht="15" customHeight="1">
-      <c r="A9" s="303" t="s">
+      <c r="A9" s="281" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="282"/>
+      <c r="C9" s="283"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="272"/>
+      <c r="G9" s="314" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="304"/>
-      <c r="C9" s="305"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="262"/>
-      <c r="F9" s="263"/>
-      <c r="G9" s="237" t="s">
+      <c r="H9" s="265"/>
+      <c r="I9" s="243" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="238"/>
-      <c r="I9" s="242" t="s">
+      <c r="J9" s="235"/>
+      <c r="K9" s="234"/>
+      <c r="L9" s="235"/>
+      <c r="M9" s="243" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="235"/>
+      <c r="O9" s="234"/>
+      <c r="P9" s="235"/>
+      <c r="Q9" s="243" t="s">
+        <v>79</v>
+      </c>
+      <c r="R9" s="235"/>
+      <c r="S9" s="234"/>
+      <c r="T9" s="235"/>
+      <c r="U9" s="243" t="s">
+        <v>79</v>
+      </c>
+      <c r="V9" s="235"/>
+      <c r="W9" s="234"/>
+      <c r="X9" s="235"/>
+      <c r="Y9" s="256" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z9" s="235"/>
+      <c r="AA9" s="259"/>
+      <c r="AB9" s="235"/>
+      <c r="AC9" s="264" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="233"/>
-      <c r="K9" s="232"/>
-      <c r="L9" s="233"/>
-      <c r="M9" s="242" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" s="233"/>
-      <c r="O9" s="232"/>
-      <c r="P9" s="233"/>
-      <c r="Q9" s="242" t="s">
-        <v>80</v>
-      </c>
-      <c r="R9" s="233"/>
-      <c r="S9" s="232"/>
-      <c r="T9" s="233"/>
-      <c r="U9" s="242" t="s">
-        <v>80</v>
-      </c>
-      <c r="V9" s="233"/>
-      <c r="W9" s="232"/>
-      <c r="X9" s="233"/>
-      <c r="Y9" s="314" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z9" s="233"/>
-      <c r="AA9" s="281"/>
-      <c r="AB9" s="233"/>
-      <c r="AC9" s="253" t="s">
+      <c r="AD9" s="268"/>
+      <c r="AE9" s="244" t="s">
         <v>81</v>
       </c>
-      <c r="AD9" s="254"/>
-      <c r="AE9" s="247" t="s">
+      <c r="AF9" s="231"/>
+      <c r="AG9" s="264" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH9" s="268"/>
+      <c r="AI9" s="234"/>
+      <c r="AJ9" s="235"/>
+      <c r="AK9" s="314" t="s">
         <v>82</v>
       </c>
-      <c r="AF9" s="241"/>
-      <c r="AG9" s="253" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH9" s="254"/>
-      <c r="AI9" s="232"/>
-      <c r="AJ9" s="233"/>
-      <c r="AK9" s="237" t="s">
+      <c r="AL9" s="265"/>
+      <c r="AM9" s="243" t="s">
         <v>83</v>
       </c>
-      <c r="AL9" s="238"/>
-      <c r="AM9" s="242" t="s">
+      <c r="AN9" s="235"/>
+      <c r="AO9" s="264" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP9" s="268"/>
+      <c r="AQ9" s="243" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR9" s="235"/>
+      <c r="AS9" s="264" t="s">
         <v>84</v>
       </c>
-      <c r="AN9" s="233"/>
-      <c r="AO9" s="253" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP9" s="254"/>
-      <c r="AQ9" s="242" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR9" s="233"/>
-      <c r="AS9" s="253" t="s">
+      <c r="AT9" s="268"/>
+      <c r="AU9" s="244" t="s">
         <v>85</v>
       </c>
-      <c r="AT9" s="254"/>
-      <c r="AU9" s="247" t="s">
+      <c r="AV9" s="231"/>
+      <c r="AW9" s="264" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX9" s="268"/>
+      <c r="AY9" s="244" t="s">
         <v>86</v>
       </c>
-      <c r="AV9" s="241"/>
-      <c r="AW9" s="253" t="s">
-        <v>86</v>
-      </c>
-      <c r="AX9" s="254"/>
-      <c r="AY9" s="247" t="s">
+      <c r="AZ9" s="231"/>
+      <c r="BA9" s="299" t="s">
         <v>87</v>
       </c>
-      <c r="AZ9" s="241"/>
-      <c r="BA9" s="266" t="s">
-        <v>88</v>
-      </c>
-      <c r="BB9" s="267"/>
-      <c r="BC9" s="239" t="s">
-        <v>88</v>
-      </c>
-      <c r="BD9" s="233"/>
-      <c r="BE9" s="232"/>
-      <c r="BF9" s="233"/>
+      <c r="BB9" s="300"/>
+      <c r="BC9" s="347" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD9" s="235"/>
+      <c r="BE9" s="234"/>
+      <c r="BF9" s="235"/>
       <c r="BG9" s="24"/>
       <c r="BH9" s="24"/>
       <c r="BI9" s="11"/>
     </row>
     <row r="10" spans="1:61" ht="15" customHeight="1">
-      <c r="A10" s="303" t="s">
+      <c r="A10" s="281" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="282"/>
+      <c r="C10" s="283"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="271"/>
+      <c r="F10" s="272"/>
+      <c r="G10" s="314" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="265"/>
+      <c r="I10" s="243" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="304"/>
-      <c r="C10" s="305"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="262"/>
-      <c r="F10" s="263"/>
-      <c r="G10" s="237" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="238"/>
-      <c r="I10" s="242" t="s">
+      <c r="J10" s="235"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="235"/>
+      <c r="M10" s="243" t="s">
+        <v>89</v>
+      </c>
+      <c r="N10" s="235"/>
+      <c r="O10" s="234"/>
+      <c r="P10" s="235"/>
+      <c r="Q10" s="243" t="s">
+        <v>89</v>
+      </c>
+      <c r="R10" s="235"/>
+      <c r="S10" s="234"/>
+      <c r="T10" s="235"/>
+      <c r="U10" s="243" t="s">
+        <v>89</v>
+      </c>
+      <c r="V10" s="235"/>
+      <c r="W10" s="234"/>
+      <c r="X10" s="235"/>
+      <c r="Y10" s="256" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z10" s="235"/>
+      <c r="AA10" s="259"/>
+      <c r="AB10" s="235"/>
+      <c r="AC10" s="264" t="s">
         <v>90</v>
       </c>
-      <c r="J10" s="233"/>
-      <c r="K10" s="232"/>
-      <c r="L10" s="233"/>
-      <c r="M10" s="242" t="s">
+      <c r="AD10" s="268"/>
+      <c r="AE10" s="244" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF10" s="231"/>
+      <c r="AG10" s="264" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH10" s="268"/>
+      <c r="AI10" s="234"/>
+      <c r="AJ10" s="235"/>
+      <c r="AK10" s="314" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="233"/>
-      <c r="O10" s="232"/>
-      <c r="P10" s="233"/>
-      <c r="Q10" s="242" t="s">
-        <v>90</v>
-      </c>
-      <c r="R10" s="233"/>
-      <c r="S10" s="232"/>
-      <c r="T10" s="233"/>
-      <c r="U10" s="242" t="s">
-        <v>90</v>
-      </c>
-      <c r="V10" s="233"/>
-      <c r="W10" s="232"/>
-      <c r="X10" s="233"/>
-      <c r="Y10" s="314" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z10" s="233"/>
-      <c r="AA10" s="281"/>
-      <c r="AB10" s="233"/>
-      <c r="AC10" s="253" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD10" s="254"/>
-      <c r="AE10" s="247" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF10" s="241"/>
-      <c r="AG10" s="253" t="s">
+      <c r="AL10" s="265"/>
+      <c r="AM10" s="243" t="s">
         <v>92</v>
       </c>
-      <c r="AH10" s="254"/>
-      <c r="AI10" s="232"/>
-      <c r="AJ10" s="233"/>
-      <c r="AK10" s="237" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL10" s="238"/>
-      <c r="AM10" s="242" t="s">
+      <c r="AN10" s="235"/>
+      <c r="AO10" s="264" t="s">
         <v>93</v>
       </c>
-      <c r="AN10" s="233"/>
-      <c r="AO10" s="253" t="s">
+      <c r="AP10" s="268"/>
+      <c r="AQ10" s="243" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR10" s="235"/>
+      <c r="AS10" s="264" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT10" s="268"/>
+      <c r="AU10" s="244" t="s">
         <v>94</v>
       </c>
-      <c r="AP10" s="254"/>
-      <c r="AQ10" s="242" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR10" s="233"/>
-      <c r="AS10" s="253" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT10" s="254"/>
-      <c r="AU10" s="247" t="s">
+      <c r="AV10" s="231"/>
+      <c r="AW10" s="264" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX10" s="268"/>
+      <c r="AY10" s="244" t="s">
         <v>95</v>
       </c>
-      <c r="AV10" s="241"/>
-      <c r="AW10" s="253" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX10" s="254"/>
-      <c r="AY10" s="247" t="s">
+      <c r="AZ10" s="231"/>
+      <c r="BA10" s="299" t="s">
         <v>96</v>
       </c>
-      <c r="AZ10" s="241"/>
-      <c r="BA10" s="266" t="s">
+      <c r="BB10" s="300"/>
+      <c r="BC10" s="347" t="s">
         <v>97</v>
       </c>
-      <c r="BB10" s="267"/>
-      <c r="BC10" s="239" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD10" s="233"/>
-      <c r="BE10" s="232"/>
-      <c r="BF10" s="233"/>
+      <c r="BD10" s="235"/>
+      <c r="BE10" s="234"/>
+      <c r="BF10" s="235"/>
       <c r="BG10" s="24"/>
       <c r="BH10" s="24"/>
       <c r="BI10" s="11"/>
     </row>
     <row r="11" spans="1:61" ht="15" customHeight="1">
-      <c r="A11" s="303" t="s">
+      <c r="A11" s="281" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="282"/>
+      <c r="C11" s="283"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="271"/>
+      <c r="F11" s="272"/>
+      <c r="G11" s="314" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="265"/>
+      <c r="I11" s="243" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" s="235"/>
+      <c r="K11" s="234"/>
+      <c r="L11" s="235"/>
+      <c r="M11" s="243" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" s="235"/>
+      <c r="O11" s="234"/>
+      <c r="P11" s="235"/>
+      <c r="Q11" s="243" t="s">
+        <v>90</v>
+      </c>
+      <c r="R11" s="235"/>
+      <c r="S11" s="234"/>
+      <c r="T11" s="235"/>
+      <c r="U11" s="243" t="s">
+        <v>90</v>
+      </c>
+      <c r="V11" s="235"/>
+      <c r="W11" s="234"/>
+      <c r="X11" s="235"/>
+      <c r="Y11" s="256" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z11" s="235"/>
+      <c r="AA11" s="259"/>
+      <c r="AB11" s="235"/>
+      <c r="AC11" s="264" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD11" s="268"/>
+      <c r="AE11" s="244" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF11" s="231"/>
+      <c r="AG11" s="264" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH11" s="268"/>
+      <c r="AI11" s="234"/>
+      <c r="AJ11" s="235"/>
+      <c r="AK11" s="314" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL11" s="265"/>
+      <c r="AM11" s="243" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN11" s="235"/>
+      <c r="AO11" s="264" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="304"/>
-      <c r="C11" s="305"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="262"/>
-      <c r="F11" s="263"/>
-      <c r="G11" s="237" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="238"/>
-      <c r="I11" s="242" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" s="233"/>
-      <c r="K11" s="232"/>
-      <c r="L11" s="233"/>
-      <c r="M11" s="242" t="s">
-        <v>91</v>
-      </c>
-      <c r="N11" s="233"/>
-      <c r="O11" s="232"/>
-      <c r="P11" s="233"/>
-      <c r="Q11" s="242" t="s">
-        <v>91</v>
-      </c>
-      <c r="R11" s="233"/>
-      <c r="S11" s="232"/>
-      <c r="T11" s="233"/>
-      <c r="U11" s="242" t="s">
-        <v>91</v>
-      </c>
-      <c r="V11" s="233"/>
-      <c r="W11" s="232"/>
-      <c r="X11" s="233"/>
-      <c r="Y11" s="314" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z11" s="233"/>
-      <c r="AA11" s="281"/>
-      <c r="AB11" s="233"/>
-      <c r="AC11" s="253" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD11" s="254"/>
-      <c r="AE11" s="247" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF11" s="241"/>
-      <c r="AG11" s="253" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH11" s="254"/>
-      <c r="AI11" s="232"/>
-      <c r="AJ11" s="233"/>
-      <c r="AK11" s="237" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL11" s="238"/>
-      <c r="AM11" s="242" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN11" s="233"/>
-      <c r="AO11" s="253" t="s">
+      <c r="AP11" s="268"/>
+      <c r="AQ11" s="243" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR11" s="235"/>
+      <c r="AS11" s="264" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT11" s="268"/>
+      <c r="AU11" s="244" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV11" s="231"/>
+      <c r="AW11" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX11" s="17"/>
+      <c r="AY11" s="244" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ11" s="231"/>
+      <c r="BA11" s="299" t="s">
         <v>100</v>
       </c>
-      <c r="AP11" s="254"/>
-      <c r="AQ11" s="242" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR11" s="233"/>
-      <c r="AS11" s="253" t="s">
-        <v>85</v>
-      </c>
-      <c r="AT11" s="254"/>
-      <c r="AU11" s="247" t="s">
-        <v>91</v>
-      </c>
-      <c r="AV11" s="241"/>
-      <c r="AW11" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="AX11" s="17"/>
-      <c r="AY11" s="247" t="s">
-        <v>91</v>
-      </c>
-      <c r="AZ11" s="241"/>
-      <c r="BA11" s="266" t="s">
+      <c r="BB11" s="300"/>
+      <c r="BC11" s="347" t="s">
         <v>101</v>
       </c>
-      <c r="BB11" s="267"/>
-      <c r="BC11" s="239" t="s">
-        <v>102</v>
-      </c>
-      <c r="BD11" s="233"/>
-      <c r="BE11" s="232"/>
-      <c r="BF11" s="233"/>
+      <c r="BD11" s="235"/>
+      <c r="BE11" s="234"/>
+      <c r="BF11" s="235"/>
       <c r="BG11" s="24"/>
       <c r="BH11" s="24"/>
       <c r="BI11" s="11"/>
     </row>
     <row r="12" spans="1:61" ht="17" customHeight="1">
-      <c r="A12" s="303" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="304"/>
-      <c r="C12" s="305"/>
+      <c r="A12" s="281" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="282"/>
+      <c r="C12" s="283"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="262"/>
-      <c r="F12" s="263"/>
-      <c r="G12" s="257"/>
-      <c r="H12" s="238"/>
-      <c r="I12" s="232"/>
-      <c r="J12" s="233"/>
-      <c r="K12" s="232"/>
-      <c r="L12" s="233"/>
-      <c r="M12" s="232"/>
-      <c r="N12" s="233"/>
-      <c r="O12" s="232"/>
-      <c r="P12" s="233"/>
-      <c r="Q12" s="232"/>
-      <c r="R12" s="233"/>
-      <c r="S12" s="232"/>
-      <c r="T12" s="233"/>
-      <c r="U12" s="232"/>
-      <c r="V12" s="233"/>
-      <c r="W12" s="232"/>
-      <c r="X12" s="233"/>
-      <c r="Y12" s="281"/>
-      <c r="Z12" s="233"/>
-      <c r="AA12" s="281"/>
-      <c r="AB12" s="233"/>
-      <c r="AC12" s="284"/>
-      <c r="AD12" s="254"/>
+      <c r="E12" s="271"/>
+      <c r="F12" s="272"/>
+      <c r="G12" s="270"/>
+      <c r="H12" s="265"/>
+      <c r="I12" s="234"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="234"/>
+      <c r="L12" s="235"/>
+      <c r="M12" s="234"/>
+      <c r="N12" s="235"/>
+      <c r="O12" s="234"/>
+      <c r="P12" s="235"/>
+      <c r="Q12" s="234"/>
+      <c r="R12" s="235"/>
+      <c r="S12" s="234"/>
+      <c r="T12" s="235"/>
+      <c r="U12" s="234"/>
+      <c r="V12" s="235"/>
+      <c r="W12" s="234"/>
+      <c r="X12" s="235"/>
+      <c r="Y12" s="259"/>
+      <c r="Z12" s="235"/>
+      <c r="AA12" s="259"/>
+      <c r="AB12" s="235"/>
+      <c r="AC12" s="267"/>
+      <c r="AD12" s="268"/>
       <c r="AE12" s="38"/>
       <c r="AF12" s="22"/>
-      <c r="AG12" s="284"/>
-      <c r="AH12" s="254"/>
-      <c r="AI12" s="232"/>
-      <c r="AJ12" s="233"/>
-      <c r="AK12" s="257"/>
-      <c r="AL12" s="238"/>
-      <c r="AM12" s="232"/>
-      <c r="AN12" s="233"/>
+      <c r="AG12" s="267"/>
+      <c r="AH12" s="268"/>
+      <c r="AI12" s="234"/>
+      <c r="AJ12" s="235"/>
+      <c r="AK12" s="270"/>
+      <c r="AL12" s="265"/>
+      <c r="AM12" s="234"/>
+      <c r="AN12" s="235"/>
       <c r="AO12" s="41"/>
       <c r="AP12" s="17"/>
-      <c r="AQ12" s="232"/>
-      <c r="AR12" s="233"/>
-      <c r="AS12" s="257"/>
-      <c r="AT12" s="238"/>
-      <c r="AU12" s="240"/>
-      <c r="AV12" s="241"/>
+      <c r="AQ12" s="234"/>
+      <c r="AR12" s="235"/>
+      <c r="AS12" s="270"/>
+      <c r="AT12" s="265"/>
+      <c r="AU12" s="230"/>
+      <c r="AV12" s="231"/>
       <c r="AW12" s="41"/>
       <c r="AX12" s="17"/>
       <c r="AY12" s="38"/>
       <c r="AZ12" s="22"/>
-      <c r="BA12" s="270"/>
-      <c r="BB12" s="267"/>
-      <c r="BC12" s="234"/>
-      <c r="BD12" s="233"/>
-      <c r="BE12" s="232"/>
-      <c r="BF12" s="233"/>
+      <c r="BA12" s="331"/>
+      <c r="BB12" s="300"/>
+      <c r="BC12" s="325"/>
+      <c r="BD12" s="235"/>
+      <c r="BE12" s="234"/>
+      <c r="BF12" s="235"/>
       <c r="BG12" s="24"/>
       <c r="BH12" s="24"/>
       <c r="BI12" s="11"/>
     </row>
     <row r="13" spans="1:61" ht="20.5" customHeight="1">
-      <c r="A13" s="303" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="304"/>
-      <c r="C13" s="305"/>
+      <c r="A13" s="281" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="282"/>
+      <c r="C13" s="283"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="295" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="296"/>
-      <c r="G13" s="253" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="254"/>
-      <c r="I13" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="241"/>
-      <c r="K13" s="240"/>
-      <c r="L13" s="241"/>
-      <c r="M13" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" s="241"/>
-      <c r="O13" s="240"/>
-      <c r="P13" s="241"/>
-      <c r="Q13" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="R13" s="241"/>
-      <c r="S13" s="240"/>
-      <c r="T13" s="241"/>
-      <c r="U13" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="V13" s="241"/>
-      <c r="W13" s="240"/>
-      <c r="X13" s="241"/>
-      <c r="Y13" s="314" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z13" s="241"/>
-      <c r="AA13" s="281"/>
-      <c r="AB13" s="241"/>
-      <c r="AC13" s="253" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD13" s="254"/>
+      <c r="E13" s="339" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="340"/>
+      <c r="G13" s="264" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="268"/>
+      <c r="I13" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="231"/>
+      <c r="K13" s="230"/>
+      <c r="L13" s="231"/>
+      <c r="M13" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="N13" s="231"/>
+      <c r="O13" s="230"/>
+      <c r="P13" s="231"/>
+      <c r="Q13" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="R13" s="231"/>
+      <c r="S13" s="230"/>
+      <c r="T13" s="231"/>
+      <c r="U13" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="V13" s="231"/>
+      <c r="W13" s="230"/>
+      <c r="X13" s="231"/>
+      <c r="Y13" s="256" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z13" s="231"/>
+      <c r="AA13" s="259"/>
+      <c r="AB13" s="231"/>
+      <c r="AC13" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD13" s="268"/>
       <c r="AE13" s="38"/>
       <c r="AF13" s="22"/>
-      <c r="AG13" s="253" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH13" s="254"/>
-      <c r="AI13" s="232"/>
-      <c r="AJ13" s="233"/>
-      <c r="AK13" s="257"/>
-      <c r="AL13" s="238"/>
-      <c r="AM13" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN13" s="241"/>
-      <c r="AO13" s="253" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP13" s="254"/>
-      <c r="AQ13" s="232"/>
-      <c r="AR13" s="233"/>
-      <c r="AS13" s="257"/>
-      <c r="AT13" s="238"/>
-      <c r="AU13" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV13" s="241"/>
+      <c r="AG13" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH13" s="268"/>
+      <c r="AI13" s="234"/>
+      <c r="AJ13" s="235"/>
+      <c r="AK13" s="270"/>
+      <c r="AL13" s="265"/>
+      <c r="AM13" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN13" s="231"/>
+      <c r="AO13" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP13" s="268"/>
+      <c r="AQ13" s="234"/>
+      <c r="AR13" s="235"/>
+      <c r="AS13" s="270"/>
+      <c r="AT13" s="265"/>
+      <c r="AU13" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV13" s="231"/>
       <c r="AW13" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AX13" s="17"/>
       <c r="AY13" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AZ13" s="22"/>
-      <c r="BA13" s="270"/>
-      <c r="BB13" s="267"/>
-      <c r="BC13" s="234"/>
-      <c r="BD13" s="233"/>
-      <c r="BE13" s="232"/>
-      <c r="BF13" s="233"/>
+      <c r="BA13" s="331"/>
+      <c r="BB13" s="300"/>
+      <c r="BC13" s="325"/>
+      <c r="BD13" s="235"/>
+      <c r="BE13" s="234"/>
+      <c r="BF13" s="235"/>
       <c r="BG13" s="24"/>
       <c r="BH13" s="24"/>
       <c r="BI13" s="11"/>
     </row>
     <row r="14" spans="1:61" ht="19.75" customHeight="1">
-      <c r="A14" s="303" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="304"/>
-      <c r="C14" s="305"/>
+      <c r="A14" s="281" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="282"/>
+      <c r="C14" s="283"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="288" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="263"/>
-      <c r="G14" s="253" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="254"/>
-      <c r="I14" s="247" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="241"/>
-      <c r="K14" s="240"/>
-      <c r="L14" s="241"/>
-      <c r="M14" s="247" t="s">
-        <v>68</v>
-      </c>
-      <c r="N14" s="241"/>
-      <c r="O14" s="240"/>
-      <c r="P14" s="241"/>
-      <c r="Q14" s="247" t="s">
-        <v>68</v>
-      </c>
-      <c r="R14" s="241"/>
-      <c r="S14" s="240"/>
-      <c r="T14" s="241"/>
-      <c r="U14" s="247" t="s">
-        <v>68</v>
-      </c>
-      <c r="V14" s="241"/>
-      <c r="W14" s="240"/>
-      <c r="X14" s="241"/>
-      <c r="Y14" s="314" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z14" s="241"/>
-      <c r="AA14" s="281"/>
-      <c r="AB14" s="241"/>
-      <c r="AC14" s="253" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD14" s="254"/>
-      <c r="AE14" s="247" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF14" s="241"/>
-      <c r="AG14" s="253" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH14" s="254"/>
-      <c r="AI14" s="232"/>
-      <c r="AJ14" s="233"/>
-      <c r="AK14" s="257"/>
-      <c r="AL14" s="238"/>
-      <c r="AM14" s="232"/>
-      <c r="AN14" s="233"/>
-      <c r="AO14" s="253" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP14" s="254"/>
-      <c r="AQ14" s="232"/>
-      <c r="AR14" s="233"/>
-      <c r="AS14" s="257"/>
-      <c r="AT14" s="238"/>
-      <c r="AU14" s="240"/>
-      <c r="AV14" s="241"/>
+      <c r="E14" s="332" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="272"/>
+      <c r="G14" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="268"/>
+      <c r="I14" s="244" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="231"/>
+      <c r="K14" s="230"/>
+      <c r="L14" s="231"/>
+      <c r="M14" s="244" t="s">
+        <v>67</v>
+      </c>
+      <c r="N14" s="231"/>
+      <c r="O14" s="230"/>
+      <c r="P14" s="231"/>
+      <c r="Q14" s="244" t="s">
+        <v>67</v>
+      </c>
+      <c r="R14" s="231"/>
+      <c r="S14" s="230"/>
+      <c r="T14" s="231"/>
+      <c r="U14" s="244" t="s">
+        <v>67</v>
+      </c>
+      <c r="V14" s="231"/>
+      <c r="W14" s="230"/>
+      <c r="X14" s="231"/>
+      <c r="Y14" s="256" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z14" s="231"/>
+      <c r="AA14" s="259"/>
+      <c r="AB14" s="231"/>
+      <c r="AC14" s="264" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD14" s="268"/>
+      <c r="AE14" s="244" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF14" s="231"/>
+      <c r="AG14" s="264" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH14" s="268"/>
+      <c r="AI14" s="234"/>
+      <c r="AJ14" s="235"/>
+      <c r="AK14" s="270"/>
+      <c r="AL14" s="265"/>
+      <c r="AM14" s="234"/>
+      <c r="AN14" s="235"/>
+      <c r="AO14" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP14" s="268"/>
+      <c r="AQ14" s="234"/>
+      <c r="AR14" s="235"/>
+      <c r="AS14" s="270"/>
+      <c r="AT14" s="265"/>
+      <c r="AU14" s="230"/>
+      <c r="AV14" s="231"/>
       <c r="AW14" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AX14" s="17"/>
       <c r="AY14" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AZ14" s="22"/>
-      <c r="BA14" s="266" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB14" s="267"/>
-      <c r="BC14" s="239" t="s">
-        <v>74</v>
-      </c>
-      <c r="BD14" s="233"/>
-      <c r="BE14" s="232"/>
-      <c r="BF14" s="233"/>
+      <c r="BA14" s="299" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB14" s="300"/>
+      <c r="BC14" s="347" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD14" s="235"/>
+      <c r="BE14" s="234"/>
+      <c r="BF14" s="235"/>
       <c r="BG14" s="24"/>
       <c r="BH14" s="24"/>
       <c r="BI14" s="11"/>
     </row>
     <row r="15" spans="1:61" ht="23" customHeight="1">
-      <c r="A15" s="292" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="293"/>
-      <c r="C15" s="294"/>
+      <c r="A15" s="284" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="285"/>
+      <c r="C15" s="286"/>
       <c r="D15" s="15"/>
       <c r="E15" s="36"/>
       <c r="F15" s="16"/>
-      <c r="G15" s="364" t="s">
+      <c r="G15" s="266" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="265"/>
+      <c r="I15" s="245" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="238"/>
-      <c r="I15" s="282" t="s">
+      <c r="J15" s="246"/>
+      <c r="K15" s="250"/>
+      <c r="L15" s="246"/>
+      <c r="M15" s="245" t="s">
+        <v>107</v>
+      </c>
+      <c r="N15" s="246"/>
+      <c r="O15" s="250"/>
+      <c r="P15" s="246"/>
+      <c r="Q15" s="245" t="s">
+        <v>107</v>
+      </c>
+      <c r="R15" s="246"/>
+      <c r="S15" s="250"/>
+      <c r="T15" s="246"/>
+      <c r="U15" s="245" t="s">
+        <v>107</v>
+      </c>
+      <c r="V15" s="246"/>
+      <c r="W15" s="250"/>
+      <c r="X15" s="246"/>
+      <c r="Y15" s="260" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z15" s="246"/>
+      <c r="AA15" s="269"/>
+      <c r="AB15" s="246"/>
+      <c r="AC15" s="294" t="s">
         <v>108</v>
       </c>
-      <c r="J15" s="283"/>
-      <c r="K15" s="333"/>
-      <c r="L15" s="283"/>
-      <c r="M15" s="282" t="s">
-        <v>108</v>
-      </c>
-      <c r="N15" s="283"/>
-      <c r="O15" s="333"/>
-      <c r="P15" s="283"/>
-      <c r="Q15" s="282" t="s">
-        <v>108</v>
-      </c>
-      <c r="R15" s="283"/>
-      <c r="S15" s="333"/>
-      <c r="T15" s="283"/>
-      <c r="U15" s="282" t="s">
-        <v>108</v>
-      </c>
-      <c r="V15" s="283"/>
-      <c r="W15" s="333"/>
-      <c r="X15" s="283"/>
-      <c r="Y15" s="358" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z15" s="283"/>
-      <c r="AA15" s="319"/>
-      <c r="AB15" s="283"/>
-      <c r="AC15" s="334" t="s">
+      <c r="AD15" s="290"/>
+      <c r="AE15" s="245" t="s">
         <v>109</v>
       </c>
-      <c r="AD15" s="261"/>
-      <c r="AE15" s="282" t="s">
+      <c r="AF15" s="246"/>
+      <c r="AG15" s="294" t="s">
         <v>110</v>
       </c>
-      <c r="AF15" s="283"/>
-      <c r="AG15" s="334" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH15" s="261"/>
+      <c r="AH15" s="290"/>
       <c r="AI15" s="25"/>
       <c r="AJ15" s="29"/>
       <c r="AK15" s="30"/>
       <c r="AL15" s="31"/>
       <c r="AM15" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN15" s="29"/>
+      <c r="AO15" s="294" t="s">
         <v>112</v>
       </c>
-      <c r="AN15" s="29"/>
-      <c r="AO15" s="334" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP15" s="261"/>
+      <c r="AP15" s="290"/>
       <c r="AQ15" s="25"/>
       <c r="AR15" s="29"/>
       <c r="AS15" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AT15" s="31"/>
       <c r="AU15" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AV15" s="22"/>
       <c r="AW15" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX15" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="AX15" s="51" t="s">
+      <c r="AY15" s="21" t="s">
         <v>117</v>
-      </c>
-      <c r="AY15" s="21" t="s">
-        <v>118</v>
       </c>
       <c r="AZ15" s="22"/>
       <c r="BA15" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BB15" s="45"/>
       <c r="BC15" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BD15" s="52"/>
       <c r="BE15" s="19"/>
@@ -4895,67 +4895,67 @@
     </row>
     <row r="16" spans="1:61" ht="16.5" customHeight="1">
       <c r="A16" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
       <c r="E16" s="36"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="253" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="238"/>
-      <c r="I16" s="247" t="s">
+      <c r="G16" s="264" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="265"/>
+      <c r="I16" s="244" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" s="231"/>
+      <c r="K16" s="230"/>
+      <c r="L16" s="231"/>
+      <c r="M16" s="244" t="s">
+        <v>121</v>
+      </c>
+      <c r="N16" s="231"/>
+      <c r="O16" s="230"/>
+      <c r="P16" s="231"/>
+      <c r="Q16" s="244" t="s">
+        <v>121</v>
+      </c>
+      <c r="R16" s="231"/>
+      <c r="S16" s="230"/>
+      <c r="T16" s="231"/>
+      <c r="U16" s="244" t="s">
+        <v>121</v>
+      </c>
+      <c r="V16" s="231"/>
+      <c r="W16" s="230"/>
+      <c r="X16" s="231"/>
+      <c r="Y16" s="256" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z16" s="231"/>
+      <c r="AA16" s="259"/>
+      <c r="AB16" s="231"/>
+      <c r="AC16" s="294" t="s">
         <v>122</v>
       </c>
-      <c r="J16" s="241"/>
-      <c r="K16" s="240"/>
-      <c r="L16" s="241"/>
-      <c r="M16" s="247" t="s">
-        <v>122</v>
-      </c>
-      <c r="N16" s="241"/>
-      <c r="O16" s="240"/>
-      <c r="P16" s="241"/>
-      <c r="Q16" s="247" t="s">
-        <v>122</v>
-      </c>
-      <c r="R16" s="241"/>
-      <c r="S16" s="240"/>
-      <c r="T16" s="241"/>
-      <c r="U16" s="247" t="s">
-        <v>122</v>
-      </c>
-      <c r="V16" s="241"/>
-      <c r="W16" s="240"/>
-      <c r="X16" s="241"/>
-      <c r="Y16" s="314" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z16" s="241"/>
-      <c r="AA16" s="281"/>
-      <c r="AB16" s="241"/>
-      <c r="AC16" s="334" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD16" s="261"/>
-      <c r="AE16" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF16" s="241"/>
-      <c r="AG16" s="253" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH16" s="254"/>
+      <c r="AD16" s="290"/>
+      <c r="AE16" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF16" s="231"/>
+      <c r="AG16" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH16" s="268"/>
       <c r="AI16" s="19"/>
       <c r="AJ16" s="18"/>
       <c r="AK16" s="41"/>
       <c r="AL16" s="17"/>
-      <c r="AM16" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN16" s="241"/>
+      <c r="AM16" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN16" s="231"/>
       <c r="AO16" s="40"/>
       <c r="AP16" s="17"/>
       <c r="AQ16" s="19"/>
@@ -4963,7 +4963,7 @@
       <c r="AS16" s="41"/>
       <c r="AT16" s="17"/>
       <c r="AU16" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AV16" s="22"/>
       <c r="AW16" s="40"/>
@@ -4982,59 +4982,59 @@
     </row>
     <row r="17" spans="1:61" ht="18.25" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
       <c r="E17" s="36"/>
       <c r="F17" s="16"/>
-      <c r="G17" s="253" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="238"/>
-      <c r="I17" s="247" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" s="241"/>
-      <c r="K17" s="240"/>
-      <c r="L17" s="241"/>
-      <c r="M17" s="247" t="s">
-        <v>68</v>
-      </c>
-      <c r="N17" s="241"/>
-      <c r="O17" s="240"/>
-      <c r="P17" s="241"/>
-      <c r="Q17" s="247" t="s">
-        <v>68</v>
-      </c>
-      <c r="R17" s="241"/>
-      <c r="S17" s="240"/>
-      <c r="T17" s="241"/>
-      <c r="U17" s="247" t="s">
-        <v>68</v>
-      </c>
-      <c r="V17" s="241"/>
-      <c r="W17" s="240"/>
-      <c r="X17" s="241"/>
-      <c r="Y17" s="314" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z17" s="241"/>
-      <c r="AA17" s="281"/>
-      <c r="AB17" s="241"/>
-      <c r="AC17" s="253" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD17" s="254"/>
-      <c r="AE17" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF17" s="241"/>
-      <c r="AG17" s="253" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH17" s="254"/>
+      <c r="G17" s="264" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="265"/>
+      <c r="I17" s="244" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="231"/>
+      <c r="K17" s="230"/>
+      <c r="L17" s="231"/>
+      <c r="M17" s="244" t="s">
+        <v>67</v>
+      </c>
+      <c r="N17" s="231"/>
+      <c r="O17" s="230"/>
+      <c r="P17" s="231"/>
+      <c r="Q17" s="244" t="s">
+        <v>67</v>
+      </c>
+      <c r="R17" s="231"/>
+      <c r="S17" s="230"/>
+      <c r="T17" s="231"/>
+      <c r="U17" s="244" t="s">
+        <v>67</v>
+      </c>
+      <c r="V17" s="231"/>
+      <c r="W17" s="230"/>
+      <c r="X17" s="231"/>
+      <c r="Y17" s="256" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z17" s="231"/>
+      <c r="AA17" s="259"/>
+      <c r="AB17" s="231"/>
+      <c r="AC17" s="264" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD17" s="268"/>
+      <c r="AE17" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF17" s="231"/>
+      <c r="AG17" s="264" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH17" s="268"/>
       <c r="AI17" s="19"/>
       <c r="AJ17" s="18"/>
       <c r="AK17" s="41"/>
@@ -5064,60 +5064,60 @@
       <c r="BI17" s="11"/>
     </row>
     <row r="18" spans="1:61" ht="18.75" customHeight="1">
-      <c r="A18" s="292" t="s">
+      <c r="A18" s="284" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="285"/>
+      <c r="C18" s="286"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="339" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="340"/>
+      <c r="G18" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="268"/>
+      <c r="I18" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="231"/>
+      <c r="K18" s="230"/>
+      <c r="L18" s="231"/>
+      <c r="M18" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" s="231"/>
+      <c r="O18" s="230"/>
+      <c r="P18" s="231"/>
+      <c r="Q18" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="R18" s="231"/>
+      <c r="S18" s="230"/>
+      <c r="T18" s="231"/>
+      <c r="U18" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="V18" s="231"/>
+      <c r="W18" s="230"/>
+      <c r="X18" s="231"/>
+      <c r="Y18" s="256" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z18" s="231"/>
+      <c r="AA18" s="259"/>
+      <c r="AB18" s="231"/>
+      <c r="AC18" s="264" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="293"/>
-      <c r="C18" s="294"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="295" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="296"/>
-      <c r="G18" s="253" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="254"/>
-      <c r="I18" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="J18" s="241"/>
-      <c r="K18" s="240"/>
-      <c r="L18" s="241"/>
-      <c r="M18" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="N18" s="241"/>
-      <c r="O18" s="240"/>
-      <c r="P18" s="241"/>
-      <c r="Q18" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="R18" s="241"/>
-      <c r="S18" s="240"/>
-      <c r="T18" s="241"/>
-      <c r="U18" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="V18" s="241"/>
-      <c r="W18" s="240"/>
-      <c r="X18" s="241"/>
-      <c r="Y18" s="314" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z18" s="241"/>
-      <c r="AA18" s="281"/>
-      <c r="AB18" s="241"/>
-      <c r="AC18" s="253" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD18" s="254"/>
-      <c r="AE18" s="240"/>
-      <c r="AF18" s="241"/>
-      <c r="AG18" s="253" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH18" s="254"/>
+      <c r="AD18" s="268"/>
+      <c r="AE18" s="230"/>
+      <c r="AF18" s="231"/>
+      <c r="AG18" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH18" s="268"/>
       <c r="AI18" s="19"/>
       <c r="AJ18" s="18"/>
       <c r="AK18" s="41"/>
@@ -5131,7 +5131,7 @@
       <c r="AS18" s="41"/>
       <c r="AT18" s="17"/>
       <c r="AU18" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AV18" s="22"/>
       <c r="AW18" s="40"/>
@@ -5141,7 +5141,7 @@
       <c r="BA18" s="47"/>
       <c r="BB18" s="45"/>
       <c r="BC18" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BD18" s="53"/>
       <c r="BE18" s="19"/>
@@ -5151,151 +5151,151 @@
       <c r="BI18" s="11"/>
     </row>
     <row r="19" spans="1:61" ht="17" customHeight="1">
-      <c r="A19" s="303" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="304"/>
-      <c r="C19" s="305"/>
+      <c r="A19" s="281" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="282"/>
+      <c r="C19" s="283"/>
       <c r="D19" s="15"/>
       <c r="E19" s="36"/>
       <c r="F19" s="16"/>
-      <c r="G19" s="253" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="254"/>
-      <c r="I19" s="232"/>
-      <c r="J19" s="233"/>
-      <c r="K19" s="232"/>
-      <c r="L19" s="233"/>
-      <c r="M19" s="232"/>
-      <c r="N19" s="233"/>
-      <c r="O19" s="232"/>
-      <c r="P19" s="233"/>
-      <c r="Q19" s="232"/>
-      <c r="R19" s="233"/>
-      <c r="S19" s="232"/>
-      <c r="T19" s="233"/>
-      <c r="U19" s="232"/>
-      <c r="V19" s="233"/>
-      <c r="W19" s="232"/>
-      <c r="X19" s="233"/>
-      <c r="Y19" s="281"/>
-      <c r="Z19" s="233"/>
-      <c r="AA19" s="281"/>
-      <c r="AB19" s="233"/>
-      <c r="AC19" s="253" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD19" s="254"/>
-      <c r="AE19" s="240"/>
-      <c r="AF19" s="241"/>
-      <c r="AG19" s="253" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH19" s="254"/>
-      <c r="AI19" s="232"/>
-      <c r="AJ19" s="233"/>
-      <c r="AK19" s="257"/>
-      <c r="AL19" s="238"/>
-      <c r="AM19" s="240"/>
-      <c r="AN19" s="241"/>
-      <c r="AO19" s="257"/>
-      <c r="AP19" s="238"/>
-      <c r="AQ19" s="232"/>
-      <c r="AR19" s="233"/>
-      <c r="AS19" s="257"/>
-      <c r="AT19" s="238"/>
-      <c r="AU19" s="240"/>
-      <c r="AV19" s="241"/>
-      <c r="AW19" s="257"/>
-      <c r="AX19" s="238"/>
+      <c r="G19" s="264" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="268"/>
+      <c r="I19" s="234"/>
+      <c r="J19" s="235"/>
+      <c r="K19" s="234"/>
+      <c r="L19" s="235"/>
+      <c r="M19" s="234"/>
+      <c r="N19" s="235"/>
+      <c r="O19" s="234"/>
+      <c r="P19" s="235"/>
+      <c r="Q19" s="234"/>
+      <c r="R19" s="235"/>
+      <c r="S19" s="234"/>
+      <c r="T19" s="235"/>
+      <c r="U19" s="234"/>
+      <c r="V19" s="235"/>
+      <c r="W19" s="234"/>
+      <c r="X19" s="235"/>
+      <c r="Y19" s="259"/>
+      <c r="Z19" s="235"/>
+      <c r="AA19" s="259"/>
+      <c r="AB19" s="235"/>
+      <c r="AC19" s="264" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD19" s="268"/>
+      <c r="AE19" s="230"/>
+      <c r="AF19" s="231"/>
+      <c r="AG19" s="264" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH19" s="268"/>
+      <c r="AI19" s="234"/>
+      <c r="AJ19" s="235"/>
+      <c r="AK19" s="270"/>
+      <c r="AL19" s="265"/>
+      <c r="AM19" s="230"/>
+      <c r="AN19" s="231"/>
+      <c r="AO19" s="270"/>
+      <c r="AP19" s="265"/>
+      <c r="AQ19" s="234"/>
+      <c r="AR19" s="235"/>
+      <c r="AS19" s="270"/>
+      <c r="AT19" s="265"/>
+      <c r="AU19" s="230"/>
+      <c r="AV19" s="231"/>
+      <c r="AW19" s="270"/>
+      <c r="AX19" s="265"/>
       <c r="AY19" s="38"/>
       <c r="AZ19" s="22"/>
-      <c r="BA19" s="243"/>
-      <c r="BB19" s="244"/>
-      <c r="BC19" s="234"/>
-      <c r="BD19" s="233"/>
-      <c r="BE19" s="232"/>
-      <c r="BF19" s="233"/>
+      <c r="BA19" s="343"/>
+      <c r="BB19" s="344"/>
+      <c r="BC19" s="325"/>
+      <c r="BD19" s="235"/>
+      <c r="BE19" s="234"/>
+      <c r="BF19" s="235"/>
       <c r="BG19" s="24"/>
       <c r="BH19" s="24"/>
       <c r="BI19" s="11"/>
     </row>
     <row r="20" spans="1:61" ht="19.75" customHeight="1">
       <c r="A20" s="54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="15"/>
       <c r="E20" s="36"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="253" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="254"/>
-      <c r="I20" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" s="241"/>
-      <c r="K20" s="240"/>
-      <c r="L20" s="241"/>
-      <c r="M20" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="N20" s="241"/>
-      <c r="O20" s="240"/>
-      <c r="P20" s="241"/>
-      <c r="Q20" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="R20" s="241"/>
-      <c r="S20" s="240"/>
-      <c r="T20" s="241"/>
-      <c r="U20" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="V20" s="241"/>
-      <c r="W20" s="240"/>
-      <c r="X20" s="241"/>
-      <c r="Y20" s="314" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z20" s="241"/>
-      <c r="AA20" s="281"/>
-      <c r="AB20" s="241"/>
-      <c r="AC20" s="253" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD20" s="254"/>
-      <c r="AE20" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF20" s="241"/>
-      <c r="AG20" s="253" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH20" s="254"/>
+      <c r="G20" s="264" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="268"/>
+      <c r="I20" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="231"/>
+      <c r="K20" s="230"/>
+      <c r="L20" s="231"/>
+      <c r="M20" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="N20" s="231"/>
+      <c r="O20" s="230"/>
+      <c r="P20" s="231"/>
+      <c r="Q20" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="R20" s="231"/>
+      <c r="S20" s="230"/>
+      <c r="T20" s="231"/>
+      <c r="U20" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="V20" s="231"/>
+      <c r="W20" s="230"/>
+      <c r="X20" s="231"/>
+      <c r="Y20" s="256" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z20" s="231"/>
+      <c r="AA20" s="259"/>
+      <c r="AB20" s="231"/>
+      <c r="AC20" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD20" s="268"/>
+      <c r="AE20" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF20" s="231"/>
+      <c r="AG20" s="264" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH20" s="268"/>
       <c r="AI20" s="19"/>
       <c r="AJ20" s="18"/>
       <c r="AK20" s="41"/>
       <c r="AL20" s="17"/>
-      <c r="AM20" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN20" s="241"/>
+      <c r="AM20" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN20" s="231"/>
       <c r="AO20" s="41"/>
       <c r="AP20" s="17"/>
       <c r="AQ20" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AR20" s="18"/>
       <c r="AS20" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AT20" s="17"/>
       <c r="AU20" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AV20" s="22"/>
       <c r="AW20" s="41"/>
@@ -5314,43 +5314,43 @@
     </row>
     <row r="21" spans="1:61" ht="17" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="15"/>
       <c r="E21" s="36"/>
       <c r="F21" s="16"/>
-      <c r="G21" s="284"/>
-      <c r="H21" s="254"/>
-      <c r="I21" s="240"/>
-      <c r="J21" s="241"/>
-      <c r="K21" s="240"/>
-      <c r="L21" s="241"/>
-      <c r="M21" s="240"/>
-      <c r="N21" s="241"/>
-      <c r="O21" s="240"/>
-      <c r="P21" s="241"/>
-      <c r="Q21" s="240"/>
-      <c r="R21" s="241"/>
-      <c r="S21" s="240"/>
-      <c r="T21" s="241"/>
-      <c r="U21" s="240"/>
-      <c r="V21" s="241"/>
-      <c r="W21" s="240"/>
-      <c r="X21" s="241"/>
-      <c r="Y21" s="281"/>
-      <c r="Z21" s="241"/>
-      <c r="AA21" s="281"/>
-      <c r="AB21" s="241"/>
-      <c r="AC21" s="284"/>
-      <c r="AD21" s="254"/>
-      <c r="AE21" s="240"/>
-      <c r="AF21" s="241"/>
-      <c r="AG21" s="253" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH21" s="254"/>
+      <c r="G21" s="267"/>
+      <c r="H21" s="268"/>
+      <c r="I21" s="230"/>
+      <c r="J21" s="231"/>
+      <c r="K21" s="230"/>
+      <c r="L21" s="231"/>
+      <c r="M21" s="230"/>
+      <c r="N21" s="231"/>
+      <c r="O21" s="230"/>
+      <c r="P21" s="231"/>
+      <c r="Q21" s="230"/>
+      <c r="R21" s="231"/>
+      <c r="S21" s="230"/>
+      <c r="T21" s="231"/>
+      <c r="U21" s="230"/>
+      <c r="V21" s="231"/>
+      <c r="W21" s="230"/>
+      <c r="X21" s="231"/>
+      <c r="Y21" s="259"/>
+      <c r="Z21" s="231"/>
+      <c r="AA21" s="259"/>
+      <c r="AB21" s="231"/>
+      <c r="AC21" s="267"/>
+      <c r="AD21" s="268"/>
+      <c r="AE21" s="230"/>
+      <c r="AF21" s="231"/>
+      <c r="AG21" s="264" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH21" s="268"/>
       <c r="AI21" s="19"/>
       <c r="AJ21" s="18"/>
       <c r="AK21" s="41"/>
@@ -5380,58 +5380,58 @@
       <c r="BI21" s="11"/>
     </row>
     <row r="22" spans="1:61" ht="18" customHeight="1">
-      <c r="A22" s="292" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="293"/>
-      <c r="C22" s="294"/>
+      <c r="A22" s="284" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="285"/>
+      <c r="C22" s="286"/>
       <c r="D22" s="15"/>
       <c r="E22" s="36"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="284"/>
-      <c r="H22" s="254"/>
-      <c r="I22" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="J22" s="241"/>
-      <c r="K22" s="240"/>
-      <c r="L22" s="241"/>
-      <c r="M22" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="N22" s="241"/>
-      <c r="O22" s="240"/>
-      <c r="P22" s="241"/>
-      <c r="Q22" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="R22" s="241"/>
-      <c r="S22" s="240"/>
-      <c r="T22" s="241"/>
-      <c r="U22" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="V22" s="241"/>
-      <c r="W22" s="240"/>
-      <c r="X22" s="241"/>
-      <c r="Y22" s="314" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z22" s="241"/>
-      <c r="AA22" s="281"/>
-      <c r="AB22" s="241"/>
-      <c r="AC22" s="253" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD22" s="254"/>
-      <c r="AE22" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF22" s="241"/>
-      <c r="AG22" s="253" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH22" s="254"/>
+      <c r="G22" s="267"/>
+      <c r="H22" s="268"/>
+      <c r="I22" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="231"/>
+      <c r="K22" s="230"/>
+      <c r="L22" s="231"/>
+      <c r="M22" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="N22" s="231"/>
+      <c r="O22" s="230"/>
+      <c r="P22" s="231"/>
+      <c r="Q22" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="R22" s="231"/>
+      <c r="S22" s="230"/>
+      <c r="T22" s="231"/>
+      <c r="U22" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="V22" s="231"/>
+      <c r="W22" s="230"/>
+      <c r="X22" s="231"/>
+      <c r="Y22" s="256" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z22" s="231"/>
+      <c r="AA22" s="259"/>
+      <c r="AB22" s="231"/>
+      <c r="AC22" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD22" s="268"/>
+      <c r="AE22" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF22" s="231"/>
+      <c r="AG22" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH22" s="268"/>
       <c r="AI22" s="19"/>
       <c r="AJ22" s="18"/>
       <c r="AK22" s="41"/>
@@ -5453,7 +5453,7 @@
       <c r="BA22" s="42"/>
       <c r="BB22" s="23"/>
       <c r="BC22" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BD22" s="53"/>
       <c r="BE22" s="19"/>
@@ -5463,48 +5463,48 @@
       <c r="BI22" s="11"/>
     </row>
     <row r="23" spans="1:61" ht="17" customHeight="1">
-      <c r="A23" s="292" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="293"/>
-      <c r="C23" s="294"/>
+      <c r="A23" s="284" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="285"/>
+      <c r="C23" s="286"/>
       <c r="D23" s="15"/>
       <c r="E23" s="36"/>
       <c r="F23" s="16"/>
-      <c r="G23" s="284"/>
-      <c r="H23" s="254"/>
-      <c r="I23" s="240"/>
-      <c r="J23" s="241"/>
-      <c r="K23" s="240"/>
-      <c r="L23" s="241"/>
-      <c r="M23" s="240"/>
-      <c r="N23" s="241"/>
-      <c r="O23" s="240"/>
-      <c r="P23" s="241"/>
-      <c r="Q23" s="240"/>
-      <c r="R23" s="241"/>
-      <c r="S23" s="240"/>
-      <c r="T23" s="241"/>
-      <c r="U23" s="240"/>
-      <c r="V23" s="241"/>
-      <c r="W23" s="240"/>
-      <c r="X23" s="241"/>
-      <c r="Y23" s="281"/>
-      <c r="Z23" s="241"/>
-      <c r="AA23" s="281"/>
-      <c r="AB23" s="241"/>
-      <c r="AC23" s="253" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD23" s="254"/>
-      <c r="AE23" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF23" s="241"/>
-      <c r="AG23" s="253" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH23" s="254"/>
+      <c r="G23" s="267"/>
+      <c r="H23" s="268"/>
+      <c r="I23" s="230"/>
+      <c r="J23" s="231"/>
+      <c r="K23" s="230"/>
+      <c r="L23" s="231"/>
+      <c r="M23" s="230"/>
+      <c r="N23" s="231"/>
+      <c r="O23" s="230"/>
+      <c r="P23" s="231"/>
+      <c r="Q23" s="230"/>
+      <c r="R23" s="231"/>
+      <c r="S23" s="230"/>
+      <c r="T23" s="231"/>
+      <c r="U23" s="230"/>
+      <c r="V23" s="231"/>
+      <c r="W23" s="230"/>
+      <c r="X23" s="231"/>
+      <c r="Y23" s="259"/>
+      <c r="Z23" s="231"/>
+      <c r="AA23" s="259"/>
+      <c r="AB23" s="231"/>
+      <c r="AC23" s="264" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD23" s="268"/>
+      <c r="AE23" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF23" s="231"/>
+      <c r="AG23" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH23" s="268"/>
       <c r="AI23" s="19"/>
       <c r="AJ23" s="18"/>
       <c r="AK23" s="41"/>
@@ -5534,18 +5534,18 @@
       <c r="BI23" s="11"/>
     </row>
     <row r="24" spans="1:61" ht="16" customHeight="1">
-      <c r="A24" s="292" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" s="293"/>
-      <c r="C24" s="294"/>
+      <c r="A24" s="284" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="285"/>
+      <c r="C24" s="286"/>
       <c r="D24" s="15"/>
       <c r="E24" s="36"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="253" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="254"/>
+      <c r="G24" s="264" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="268"/>
       <c r="I24" s="38"/>
       <c r="J24" s="22"/>
       <c r="K24" s="38"/>
@@ -5566,16 +5566,16 @@
       <c r="Z24" s="55"/>
       <c r="AA24" s="20"/>
       <c r="AB24" s="55"/>
-      <c r="AC24" s="253" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD24" s="254"/>
-      <c r="AE24" s="240"/>
-      <c r="AF24" s="241"/>
-      <c r="AG24" s="253" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH24" s="254"/>
+      <c r="AC24" s="264" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD24" s="268"/>
+      <c r="AE24" s="230"/>
+      <c r="AF24" s="231"/>
+      <c r="AG24" s="264" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH24" s="268"/>
       <c r="AI24" s="19"/>
       <c r="AJ24" s="18"/>
       <c r="AK24" s="41"/>
@@ -5597,7 +5597,7 @@
       <c r="BA24" s="42"/>
       <c r="BB24" s="23"/>
       <c r="BC24" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BD24" s="53"/>
       <c r="BE24" s="19"/>
@@ -5607,18 +5607,18 @@
       <c r="BI24" s="11"/>
     </row>
     <row r="25" spans="1:61" ht="17" customHeight="1">
-      <c r="A25" s="292" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="293"/>
-      <c r="C25" s="294"/>
+      <c r="A25" s="284" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="285"/>
+      <c r="C25" s="286"/>
       <c r="D25" s="15"/>
       <c r="E25" s="36"/>
       <c r="F25" s="16"/>
-      <c r="G25" s="253" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="254"/>
+      <c r="G25" s="264" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="268"/>
       <c r="I25" s="19"/>
       <c r="J25" s="18"/>
       <c r="K25" s="19"/>
@@ -5639,16 +5639,16 @@
       <c r="Z25" s="55"/>
       <c r="AA25" s="20"/>
       <c r="AB25" s="55"/>
-      <c r="AC25" s="253" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD25" s="254"/>
-      <c r="AE25" s="240"/>
-      <c r="AF25" s="241"/>
-      <c r="AG25" s="253" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH25" s="254"/>
+      <c r="AC25" s="264" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD25" s="268"/>
+      <c r="AE25" s="230"/>
+      <c r="AF25" s="231"/>
+      <c r="AG25" s="264" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH25" s="268"/>
       <c r="AI25" s="19"/>
       <c r="AJ25" s="18"/>
       <c r="AK25" s="41"/>
@@ -5678,18 +5678,18 @@
       <c r="BI25" s="11"/>
     </row>
     <row r="26" spans="1:61" ht="17" customHeight="1">
-      <c r="A26" s="292" t="s">
+      <c r="A26" s="284" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="285"/>
+      <c r="C26" s="286"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="271"/>
+      <c r="F26" s="272"/>
+      <c r="G26" s="264" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="293"/>
-      <c r="C26" s="294"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="262"/>
-      <c r="F26" s="263"/>
-      <c r="G26" s="253" t="s">
-        <v>136</v>
-      </c>
-      <c r="H26" s="254"/>
+      <c r="H26" s="268"/>
       <c r="I26" s="19"/>
       <c r="J26" s="18"/>
       <c r="K26" s="19"/>
@@ -5710,16 +5710,16 @@
       <c r="Z26" s="55"/>
       <c r="AA26" s="20"/>
       <c r="AB26" s="55"/>
-      <c r="AC26" s="253" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD26" s="254"/>
-      <c r="AE26" s="240"/>
-      <c r="AF26" s="241"/>
-      <c r="AG26" s="253" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH26" s="254"/>
+      <c r="AC26" s="264" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD26" s="268"/>
+      <c r="AE26" s="230"/>
+      <c r="AF26" s="231"/>
+      <c r="AG26" s="264" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH26" s="268"/>
       <c r="AI26" s="19"/>
       <c r="AJ26" s="18"/>
       <c r="AK26" s="41"/>
@@ -5749,50 +5749,50 @@
       <c r="BI26" s="11"/>
     </row>
     <row r="27" spans="1:61" ht="17" customHeight="1">
-      <c r="A27" s="292" t="s">
-        <v>138</v>
-      </c>
-      <c r="B27" s="293"/>
-      <c r="C27" s="294"/>
+      <c r="A27" s="284" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="285"/>
+      <c r="C27" s="286"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="262"/>
-      <c r="F27" s="263"/>
-      <c r="G27" s="253" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" s="254"/>
-      <c r="I27" s="232"/>
-      <c r="J27" s="233"/>
-      <c r="K27" s="232"/>
-      <c r="L27" s="233"/>
-      <c r="M27" s="232"/>
-      <c r="N27" s="233"/>
-      <c r="O27" s="232"/>
-      <c r="P27" s="233"/>
-      <c r="Q27" s="232"/>
-      <c r="R27" s="233"/>
-      <c r="S27" s="232"/>
-      <c r="T27" s="233"/>
-      <c r="U27" s="232"/>
-      <c r="V27" s="233"/>
-      <c r="W27" s="232"/>
-      <c r="X27" s="233"/>
-      <c r="Y27" s="281"/>
-      <c r="Z27" s="233"/>
-      <c r="AA27" s="281"/>
-      <c r="AB27" s="233"/>
-      <c r="AC27" s="253" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD27" s="254"/>
-      <c r="AE27" s="247" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF27" s="241"/>
-      <c r="AG27" s="253" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH27" s="254"/>
+      <c r="E27" s="271"/>
+      <c r="F27" s="272"/>
+      <c r="G27" s="264" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="268"/>
+      <c r="I27" s="234"/>
+      <c r="J27" s="235"/>
+      <c r="K27" s="234"/>
+      <c r="L27" s="235"/>
+      <c r="M27" s="234"/>
+      <c r="N27" s="235"/>
+      <c r="O27" s="234"/>
+      <c r="P27" s="235"/>
+      <c r="Q27" s="234"/>
+      <c r="R27" s="235"/>
+      <c r="S27" s="234"/>
+      <c r="T27" s="235"/>
+      <c r="U27" s="234"/>
+      <c r="V27" s="235"/>
+      <c r="W27" s="234"/>
+      <c r="X27" s="235"/>
+      <c r="Y27" s="259"/>
+      <c r="Z27" s="235"/>
+      <c r="AA27" s="259"/>
+      <c r="AB27" s="235"/>
+      <c r="AC27" s="264" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD27" s="268"/>
+      <c r="AE27" s="244" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF27" s="231"/>
+      <c r="AG27" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH27" s="268"/>
       <c r="AI27" s="19"/>
       <c r="AJ27" s="18"/>
       <c r="AK27" s="41"/>
@@ -5828,8 +5828,8 @@
       <c r="D28" s="15"/>
       <c r="E28" s="36"/>
       <c r="F28" s="16"/>
-      <c r="G28" s="257"/>
-      <c r="H28" s="238"/>
+      <c r="G28" s="270"/>
+      <c r="H28" s="265"/>
       <c r="I28" s="19"/>
       <c r="J28" s="18"/>
       <c r="K28" s="19"/>
@@ -5885,141 +5885,141 @@
       <c r="BI28" s="11"/>
     </row>
     <row r="29" spans="1:61" ht="16" customHeight="1">
-      <c r="A29" s="298" t="s">
-        <v>139</v>
-      </c>
-      <c r="B29" s="299"/>
-      <c r="C29" s="300"/>
+      <c r="A29" s="353" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="354"/>
+      <c r="C29" s="355"/>
       <c r="D29" s="57"/>
       <c r="E29" s="58"/>
       <c r="F29" s="59"/>
-      <c r="G29" s="362" t="s">
+      <c r="G29" s="262" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" s="263"/>
+      <c r="I29" s="240" t="s">
         <v>140</v>
       </c>
-      <c r="H29" s="363"/>
-      <c r="I29" s="361" t="s">
+      <c r="J29" s="241"/>
+      <c r="K29" s="251"/>
+      <c r="L29" s="241"/>
+      <c r="M29" s="240" t="s">
+        <v>140</v>
+      </c>
+      <c r="N29" s="241"/>
+      <c r="O29" s="251"/>
+      <c r="P29" s="241"/>
+      <c r="Q29" s="240" t="s">
+        <v>140</v>
+      </c>
+      <c r="R29" s="241"/>
+      <c r="S29" s="251"/>
+      <c r="T29" s="241"/>
+      <c r="U29" s="240" t="s">
+        <v>140</v>
+      </c>
+      <c r="V29" s="241"/>
+      <c r="W29" s="251"/>
+      <c r="X29" s="241"/>
+      <c r="Y29" s="348" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z29" s="241"/>
+      <c r="AA29" s="303"/>
+      <c r="AB29" s="241"/>
+      <c r="AC29" s="323" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD29" s="324"/>
+      <c r="AE29" s="312"/>
+      <c r="AF29" s="313"/>
+      <c r="AG29" s="310" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH29" s="311"/>
+      <c r="AI29" s="306"/>
+      <c r="AJ29" s="307"/>
+      <c r="AK29" s="345"/>
+      <c r="AL29" s="346"/>
+      <c r="AM29" s="315"/>
+      <c r="AN29" s="316"/>
+      <c r="AO29" s="323" t="s">
         <v>141</v>
       </c>
-      <c r="J29" s="256"/>
-      <c r="K29" s="255"/>
-      <c r="L29" s="256"/>
-      <c r="M29" s="361" t="s">
-        <v>141</v>
-      </c>
-      <c r="N29" s="256"/>
-      <c r="O29" s="255"/>
-      <c r="P29" s="256"/>
-      <c r="Q29" s="361" t="s">
-        <v>141</v>
-      </c>
-      <c r="R29" s="256"/>
-      <c r="S29" s="255"/>
-      <c r="T29" s="256"/>
-      <c r="U29" s="361" t="s">
-        <v>141</v>
-      </c>
-      <c r="V29" s="256"/>
-      <c r="W29" s="255"/>
-      <c r="X29" s="256"/>
-      <c r="Y29" s="307" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z29" s="256"/>
-      <c r="AA29" s="340"/>
-      <c r="AB29" s="256"/>
-      <c r="AC29" s="230" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD29" s="231"/>
-      <c r="AE29" s="343"/>
-      <c r="AF29" s="344"/>
-      <c r="AG29" s="341" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH29" s="342"/>
-      <c r="AI29" s="306"/>
-      <c r="AJ29" s="280"/>
-      <c r="AK29" s="251"/>
-      <c r="AL29" s="252"/>
-      <c r="AM29" s="258"/>
-      <c r="AN29" s="259"/>
-      <c r="AO29" s="230" t="s">
-        <v>142</v>
-      </c>
-      <c r="AP29" s="231"/>
+      <c r="AP29" s="324"/>
       <c r="AQ29" s="306"/>
-      <c r="AR29" s="280"/>
-      <c r="AS29" s="251"/>
-      <c r="AT29" s="252"/>
-      <c r="AU29" s="258"/>
-      <c r="AV29" s="259"/>
-      <c r="AW29" s="250"/>
-      <c r="AX29" s="231"/>
+      <c r="AR29" s="307"/>
+      <c r="AS29" s="345"/>
+      <c r="AT29" s="346"/>
+      <c r="AU29" s="315"/>
+      <c r="AV29" s="316"/>
+      <c r="AW29" s="365"/>
+      <c r="AX29" s="324"/>
       <c r="AY29" s="60"/>
       <c r="AZ29" s="61"/>
-      <c r="BA29" s="337"/>
-      <c r="BB29" s="338"/>
-      <c r="BC29" s="279"/>
-      <c r="BD29" s="280"/>
+      <c r="BA29" s="321"/>
+      <c r="BB29" s="322"/>
+      <c r="BC29" s="349"/>
+      <c r="BD29" s="307"/>
       <c r="BE29" s="306"/>
-      <c r="BF29" s="280"/>
+      <c r="BF29" s="307"/>
       <c r="BG29" s="62"/>
       <c r="BH29" s="62"/>
       <c r="BI29" s="11"/>
     </row>
     <row r="30" spans="1:61" ht="16" customHeight="1">
-      <c r="A30" s="285" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" s="286"/>
-      <c r="C30" s="287"/>
+      <c r="A30" s="350" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="351"/>
+      <c r="C30" s="352"/>
       <c r="D30" s="63"/>
       <c r="E30" s="64"/>
       <c r="F30" s="65"/>
       <c r="G30" s="66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H30" s="67"/>
-      <c r="I30" s="312">
+      <c r="I30" s="252">
         <v>42705</v>
       </c>
-      <c r="J30" s="302"/>
-      <c r="K30" s="312">
+      <c r="J30" s="253"/>
+      <c r="K30" s="252">
         <v>42705</v>
       </c>
-      <c r="L30" s="313"/>
-      <c r="M30" s="312">
+      <c r="L30" s="254"/>
+      <c r="M30" s="252">
         <v>42672</v>
       </c>
-      <c r="N30" s="302"/>
-      <c r="O30" s="312">
+      <c r="N30" s="253"/>
+      <c r="O30" s="252">
         <v>42672</v>
       </c>
-      <c r="P30" s="313"/>
-      <c r="Q30" s="312">
+      <c r="P30" s="254"/>
+      <c r="Q30" s="252">
         <v>42593</v>
       </c>
-      <c r="R30" s="302"/>
-      <c r="S30" s="312">
+      <c r="R30" s="253"/>
+      <c r="S30" s="252">
         <v>42593</v>
       </c>
-      <c r="T30" s="313"/>
-      <c r="U30" s="312">
+      <c r="T30" s="254"/>
+      <c r="U30" s="252">
         <v>42593</v>
       </c>
-      <c r="V30" s="313"/>
-      <c r="W30" s="312">
+      <c r="V30" s="254"/>
+      <c r="W30" s="252">
         <v>42593</v>
       </c>
-      <c r="X30" s="313"/>
-      <c r="Y30" s="301">
+      <c r="X30" s="254"/>
+      <c r="Y30" s="255">
         <v>42494</v>
       </c>
-      <c r="Z30" s="302"/>
-      <c r="AA30" s="301">
+      <c r="Z30" s="253"/>
+      <c r="AA30" s="255">
         <v>42494</v>
       </c>
-      <c r="AB30" s="302"/>
+      <c r="AB30" s="253"/>
       <c r="AC30" s="69">
         <v>42706</v>
       </c>
@@ -6033,11 +6033,11 @@
       </c>
       <c r="AH30" s="72"/>
       <c r="AI30" s="73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AJ30" s="74"/>
       <c r="AK30" s="75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL30" s="76"/>
       <c r="AM30" s="77">
@@ -6084,188 +6084,188 @@
     </row>
     <row r="31" spans="1:61" ht="16" customHeight="1">
       <c r="A31" s="85" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="B31" s="86" t="s">
+      <c r="C31" s="87" t="s">
         <v>147</v>
-      </c>
-      <c r="C31" s="87" t="s">
-        <v>148</v>
       </c>
       <c r="D31" s="88" t="s">
         <v>1</v>
       </c>
       <c r="E31" s="89" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="F31" s="90" t="s">
-        <v>150</v>
-      </c>
       <c r="G31" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="H31" s="92" t="s">
-        <v>150</v>
-      </c>
       <c r="I31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J31" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="J31" s="93" t="s">
-        <v>150</v>
-      </c>
       <c r="K31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L31" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="L31" s="93" t="s">
-        <v>150</v>
-      </c>
       <c r="M31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="N31" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="N31" s="93" t="s">
-        <v>150</v>
-      </c>
       <c r="O31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="P31" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="P31" s="93" t="s">
-        <v>150</v>
-      </c>
       <c r="Q31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="R31" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="R31" s="93" t="s">
-        <v>150</v>
-      </c>
       <c r="S31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="T31" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="T31" s="93" t="s">
-        <v>150</v>
-      </c>
       <c r="U31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="V31" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="V31" s="93" t="s">
-        <v>150</v>
-      </c>
       <c r="W31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="X31" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="X31" s="93" t="s">
-        <v>150</v>
-      </c>
       <c r="Y31" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z31" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="Z31" s="94" t="s">
-        <v>150</v>
-      </c>
       <c r="AA31" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB31" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="AB31" s="94" t="s">
-        <v>150</v>
-      </c>
       <c r="AC31" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD31" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="AD31" s="92" t="s">
-        <v>150</v>
-      </c>
       <c r="AE31" s="95" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF31" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="AF31" s="96" t="s">
-        <v>150</v>
-      </c>
       <c r="AG31" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH31" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="AH31" s="92" t="s">
-        <v>150</v>
-      </c>
       <c r="AI31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ31" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="AJ31" s="93" t="s">
-        <v>150</v>
-      </c>
       <c r="AK31" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL31" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="AL31" s="92" t="s">
-        <v>150</v>
-      </c>
       <c r="AM31" s="95" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN31" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="AN31" s="96" t="s">
-        <v>150</v>
-      </c>
       <c r="AO31" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP31" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="AP31" s="92" t="s">
-        <v>150</v>
-      </c>
       <c r="AQ31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR31" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="AR31" s="93" t="s">
-        <v>150</v>
-      </c>
       <c r="AS31" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT31" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="AT31" s="92" t="s">
-        <v>150</v>
-      </c>
       <c r="AU31" s="95" t="s">
+        <v>148</v>
+      </c>
+      <c r="AV31" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="AV31" s="96" t="s">
-        <v>150</v>
-      </c>
       <c r="AW31" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX31" s="92" t="s">
         <v>149</v>
-      </c>
-      <c r="AX31" s="92" t="s">
-        <v>150</v>
       </c>
       <c r="AY31" s="97"/>
       <c r="AZ31" s="98"/>
       <c r="BA31" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB31" s="100" t="s">
         <v>149</v>
-      </c>
-      <c r="BB31" s="100" t="s">
-        <v>150</v>
       </c>
       <c r="BC31" s="97"/>
       <c r="BD31" s="98"/>
       <c r="BE31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF31" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="BF31" s="93" t="s">
+      <c r="BG31" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="BG31" s="101" t="s">
-        <v>151</v>
-      </c>
       <c r="BH31" s="101" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BI31" s="11"/>
     </row>
     <row r="32" spans="1:61" ht="17.5" customHeight="1">
       <c r="A32" s="102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B32" s="103">
         <v>25</v>
       </c>
       <c r="C32" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D32" s="105"/>
       <c r="E32" s="106"/>
@@ -6393,13 +6393,13 @@
     </row>
     <row r="33" spans="1:61" ht="17" customHeight="1">
       <c r="A33" s="102" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B33" s="103">
         <v>50</v>
       </c>
       <c r="C33" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D33" s="105"/>
       <c r="E33" s="130">
@@ -6542,13 +6542,13 @@
     </row>
     <row r="34" spans="1:61" ht="17" customHeight="1">
       <c r="A34" s="102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B34" s="103">
         <v>75</v>
       </c>
       <c r="C34" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D34" s="105"/>
       <c r="E34" s="130"/>
@@ -6669,13 +6669,13 @@
     </row>
     <row r="35" spans="1:61" ht="17" customHeight="1">
       <c r="A35" s="102" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B35" s="103">
         <v>75</v>
       </c>
       <c r="C35" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D35" s="105"/>
       <c r="E35" s="130">
@@ -6801,13 +6801,13 @@
     </row>
     <row r="36" spans="1:61" ht="17" customHeight="1">
       <c r="A36" s="102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B36" s="103">
         <v>100</v>
       </c>
       <c r="C36" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D36" s="105"/>
       <c r="E36" s="130"/>
@@ -6926,13 +6926,13 @@
     </row>
     <row r="37" spans="1:61" ht="17" customHeight="1">
       <c r="A37" s="102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B37" s="103">
         <v>100</v>
       </c>
       <c r="C37" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D37" s="105"/>
       <c r="E37" s="130">
@@ -7076,14 +7076,14 @@
     </row>
     <row r="38" spans="1:61" ht="17" customHeight="1">
       <c r="A38" s="102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B38" s="103">
         <f t="shared" ref="B38:B71" si="12">7.5*15</f>
         <v>112.5</v>
       </c>
       <c r="C38" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D38" s="105"/>
       <c r="E38" s="130"/>
@@ -7202,14 +7202,14 @@
     </row>
     <row r="39" spans="1:61" ht="17" customHeight="1">
       <c r="A39" s="102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B39" s="103">
         <f t="shared" ref="B39:B75" si="13">7.5*20</f>
         <v>150</v>
       </c>
       <c r="C39" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D39" s="105"/>
       <c r="E39" s="130"/>
@@ -7328,11 +7328,11 @@
     </row>
     <row r="40" spans="1:61" ht="17" customHeight="1">
       <c r="A40" s="102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B40" s="164"/>
       <c r="C40" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D40" s="105"/>
       <c r="E40" s="130"/>
@@ -7397,13 +7397,13 @@
     </row>
     <row r="41" spans="1:61" ht="17" customHeight="1">
       <c r="A41" s="102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B41" s="103">
         <v>150</v>
       </c>
       <c r="C41" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D41" s="105"/>
       <c r="E41" s="130">
@@ -7538,13 +7538,13 @@
     </row>
     <row r="42" spans="1:61" ht="17" customHeight="1">
       <c r="A42" s="102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B42" s="103">
         <v>200</v>
       </c>
       <c r="C42" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D42" s="105"/>
       <c r="E42" s="130">
@@ -7685,11 +7685,11 @@
     </row>
     <row r="43" spans="1:61" ht="17" customHeight="1">
       <c r="A43" s="102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B43" s="164"/>
       <c r="C43" s="104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D43" s="105"/>
       <c r="E43" s="130"/>
@@ -7758,11 +7758,11 @@
     </row>
     <row r="44" spans="1:61" ht="17" customHeight="1">
       <c r="A44" s="102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B44" s="164"/>
       <c r="C44" s="104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D44" s="105"/>
       <c r="E44" s="130"/>
@@ -7827,14 +7827,14 @@
     </row>
     <row r="45" spans="1:61" ht="17" customHeight="1">
       <c r="A45" s="102" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B45" s="103">
         <f>12*20</f>
         <v>240</v>
       </c>
       <c r="C45" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D45" s="105"/>
       <c r="E45" s="130"/>
@@ -7925,13 +7925,13 @@
     </row>
     <row r="46" spans="1:61" ht="17" customHeight="1">
       <c r="A46" s="102" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B46" s="103">
         <v>250</v>
       </c>
       <c r="C46" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D46" s="105"/>
       <c r="E46" s="130">
@@ -8069,13 +8069,13 @@
     </row>
     <row r="47" spans="1:61" ht="17" customHeight="1">
       <c r="A47" s="102" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B47" s="103">
         <v>300</v>
       </c>
       <c r="C47" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D47" s="105"/>
       <c r="E47" s="130"/>
@@ -8185,13 +8185,13 @@
     </row>
     <row r="48" spans="1:61" ht="17" customHeight="1">
       <c r="A48" s="102" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B48" s="103">
         <v>300</v>
       </c>
       <c r="C48" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D48" s="105"/>
       <c r="E48" s="130">
@@ -8331,11 +8331,11 @@
     </row>
     <row r="49" spans="1:61" ht="17" customHeight="1">
       <c r="A49" s="102" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B49" s="164"/>
       <c r="C49" s="104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D49" s="105"/>
       <c r="E49" s="130"/>
@@ -8404,14 +8404,14 @@
     </row>
     <row r="50" spans="1:61" ht="17" customHeight="1">
       <c r="A50" s="102" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B50" s="103">
         <f t="shared" ref="B50:B84" si="14">12.5*25</f>
         <v>312.5</v>
       </c>
       <c r="C50" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="105"/>
       <c r="E50" s="130"/>
@@ -8532,11 +8532,11 @@
     </row>
     <row r="51" spans="1:61" ht="17" customHeight="1">
       <c r="A51" s="102" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B51" s="164"/>
       <c r="C51" s="104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D51" s="105"/>
       <c r="E51" s="130"/>
@@ -8601,14 +8601,14 @@
     </row>
     <row r="52" spans="1:61" ht="17" customHeight="1">
       <c r="A52" s="102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B52" s="103">
         <f>10*35</f>
         <v>350</v>
       </c>
       <c r="C52" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="105"/>
       <c r="E52" s="130"/>
@@ -8711,14 +8711,14 @@
     </row>
     <row r="53" spans="1:61" ht="17" customHeight="1">
       <c r="A53" s="102" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B53" s="103">
         <f t="shared" ref="B53:B86" si="15">12*30</f>
         <v>360</v>
       </c>
       <c r="C53" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D53" s="105"/>
       <c r="E53" s="130"/>
@@ -8796,14 +8796,14 @@
     </row>
     <row r="54" spans="1:61" ht="17" customHeight="1">
       <c r="A54" s="102" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B54" s="103">
         <f>12.5*30</f>
         <v>375</v>
       </c>
       <c r="C54" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D54" s="105"/>
       <c r="E54" s="130"/>
@@ -8922,14 +8922,14 @@
     </row>
     <row r="55" spans="1:61" ht="17" customHeight="1">
       <c r="A55" s="102" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B55" s="103">
         <f>15*20</f>
         <v>300</v>
       </c>
       <c r="C55" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D55" s="105"/>
       <c r="E55" s="130"/>
@@ -9048,14 +9048,14 @@
     </row>
     <row r="56" spans="1:61" ht="17" customHeight="1">
       <c r="A56" s="102" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B56" s="103">
         <f t="shared" ref="B56:B88" si="28">15*25</f>
         <v>375</v>
       </c>
       <c r="C56" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D56" s="105"/>
       <c r="E56" s="130"/>
@@ -9170,14 +9170,14 @@
     </row>
     <row r="57" spans="1:61" ht="17" customHeight="1">
       <c r="A57" s="102" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B57" s="103">
         <f>10*45</f>
         <v>450</v>
       </c>
       <c r="C57" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D57" s="105"/>
       <c r="E57" s="130"/>
@@ -9292,14 +9292,14 @@
     </row>
     <row r="58" spans="1:61" ht="17" customHeight="1">
       <c r="A58" s="102" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B58" s="103">
         <f>12*40</f>
         <v>480</v>
       </c>
       <c r="C58" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D58" s="105"/>
       <c r="E58" s="130"/>
@@ -9408,14 +9408,14 @@
     </row>
     <row r="59" spans="1:61" ht="17" customHeight="1">
       <c r="A59" s="102" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B59" s="103">
         <f>25*20</f>
         <v>500</v>
       </c>
       <c r="C59" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D59" s="105"/>
       <c r="E59" s="130"/>
@@ -9522,14 +9522,14 @@
     </row>
     <row r="60" spans="1:61" ht="17" customHeight="1">
       <c r="A60" s="102" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B60" s="103">
         <f>17*33</f>
         <v>561</v>
       </c>
       <c r="C60" s="104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D60" s="105"/>
       <c r="E60" s="130"/>
@@ -9636,13 +9636,13 @@
     </row>
     <row r="61" spans="1:61" ht="17" customHeight="1">
       <c r="A61" s="176" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B61" s="177">
         <v>25</v>
       </c>
       <c r="C61" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="179">
         <v>1</v>
@@ -9743,11 +9743,11 @@
     </row>
     <row r="62" spans="1:61" ht="17" customHeight="1">
       <c r="A62" s="176" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B62" s="186"/>
       <c r="C62" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D62" s="179">
         <v>2</v>
@@ -9820,13 +9820,13 @@
     </row>
     <row r="63" spans="1:61" ht="17" customHeight="1">
       <c r="A63" s="176" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B63" s="177">
         <v>50</v>
       </c>
       <c r="C63" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D63" s="179">
         <v>1</v>
@@ -9986,11 +9986,11 @@
     </row>
     <row r="64" spans="1:61" ht="17" customHeight="1">
       <c r="A64" s="176" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B64" s="186"/>
       <c r="C64" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D64" s="179">
         <v>2</v>
@@ -10063,13 +10063,13 @@
     </row>
     <row r="65" spans="1:61" ht="17" customHeight="1">
       <c r="A65" s="176" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B65" s="177">
         <v>75</v>
       </c>
       <c r="C65" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D65" s="179">
         <v>1</v>
@@ -10194,11 +10194,11 @@
     </row>
     <row r="66" spans="1:61" ht="17" customHeight="1">
       <c r="A66" s="176" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B66" s="186"/>
       <c r="C66" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D66" s="179">
         <v>2</v>
@@ -10265,13 +10265,13 @@
     </row>
     <row r="67" spans="1:61" ht="17" customHeight="1">
       <c r="A67" s="176" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B67" s="177">
         <v>75</v>
       </c>
       <c r="C67" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D67" s="179">
         <v>1</v>
@@ -10397,11 +10397,11 @@
     </row>
     <row r="68" spans="1:61" ht="17" customHeight="1">
       <c r="A68" s="176" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B68" s="186"/>
       <c r="C68" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D68" s="179">
         <v>2</v>
@@ -10474,13 +10474,13 @@
     </row>
     <row r="69" spans="1:61" ht="17" customHeight="1">
       <c r="A69" s="176" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B69" s="177">
         <v>100</v>
       </c>
       <c r="C69" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D69" s="179">
         <v>1</v>
@@ -10630,11 +10630,11 @@
     </row>
     <row r="70" spans="1:61" ht="17" customHeight="1">
       <c r="A70" s="176" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B70" s="186"/>
       <c r="C70" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D70" s="179">
         <v>2</v>
@@ -10709,14 +10709,14 @@
     </row>
     <row r="71" spans="1:61" ht="17" customHeight="1">
       <c r="A71" s="176" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B71" s="177">
         <f t="shared" si="12"/>
         <v>112.5</v>
       </c>
       <c r="C71" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D71" s="179">
         <v>1</v>
@@ -10842,11 +10842,11 @@
     </row>
     <row r="72" spans="1:61" ht="17" customHeight="1">
       <c r="A72" s="176" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B72" s="186"/>
       <c r="C72" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D72" s="179">
         <v>2</v>
@@ -10913,13 +10913,13 @@
     </row>
     <row r="73" spans="1:61" ht="17" customHeight="1">
       <c r="A73" s="176" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B73" s="177">
         <v>120</v>
       </c>
       <c r="C73" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D73" s="179">
         <v>1</v>
@@ -11011,11 +11011,11 @@
     </row>
     <row r="74" spans="1:61" ht="17" customHeight="1">
       <c r="A74" s="176" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B74" s="186"/>
       <c r="C74" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D74" s="179">
         <v>2</v>
@@ -11082,14 +11082,14 @@
     </row>
     <row r="75" spans="1:61" ht="17" customHeight="1">
       <c r="A75" s="176" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B75" s="177">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
       <c r="C75" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D75" s="179">
         <v>1</v>
@@ -11204,13 +11204,13 @@
     </row>
     <row r="76" spans="1:61" ht="17" customHeight="1">
       <c r="A76" s="176" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B76" s="177">
         <v>150</v>
       </c>
       <c r="C76" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D76" s="179">
         <v>1</v>
@@ -11367,11 +11367,11 @@
     </row>
     <row r="77" spans="1:61" ht="17" customHeight="1">
       <c r="A77" s="176" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B77" s="186"/>
       <c r="C77" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D77" s="179">
         <v>2</v>
@@ -11446,14 +11446,14 @@
     </row>
     <row r="78" spans="1:61" ht="17" customHeight="1">
       <c r="A78" s="176" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B78" s="177">
         <f>8*20</f>
         <v>160</v>
       </c>
       <c r="C78" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D78" s="179">
         <v>1</v>
@@ -11528,13 +11528,13 @@
     </row>
     <row r="79" spans="1:61" ht="17" customHeight="1">
       <c r="A79" s="176" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B79" s="177">
         <v>200</v>
       </c>
       <c r="C79" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D79" s="179">
         <v>1</v>
@@ -11687,11 +11687,11 @@
     </row>
     <row r="80" spans="1:61" ht="17" customHeight="1">
       <c r="A80" s="176" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B80" s="186"/>
       <c r="C80" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D80" s="179">
         <v>2</v>
@@ -11764,13 +11764,13 @@
     </row>
     <row r="81" spans="1:61" ht="17" customHeight="1">
       <c r="A81" s="176" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B81" s="177">
         <v>250</v>
       </c>
       <c r="C81" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D81" s="179">
         <v>1</v>
@@ -11908,13 +11908,13 @@
     </row>
     <row r="82" spans="1:61" ht="17" customHeight="1">
       <c r="A82" s="176" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B82" s="177">
         <v>300</v>
       </c>
       <c r="C82" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D82" s="179">
         <v>1</v>
@@ -12056,11 +12056,11 @@
     </row>
     <row r="83" spans="1:61" ht="17" customHeight="1">
       <c r="A83" s="176" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B83" s="186"/>
       <c r="C83" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D83" s="179">
         <v>2</v>
@@ -12129,14 +12129,14 @@
     </row>
     <row r="84" spans="1:61" ht="17" customHeight="1">
       <c r="A84" s="176" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B84" s="177">
         <f t="shared" si="14"/>
         <v>312.5</v>
       </c>
       <c r="C84" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D84" s="179">
         <v>1</v>
@@ -12259,11 +12259,11 @@
     </row>
     <row r="85" spans="1:61" ht="17" customHeight="1">
       <c r="A85" s="176" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B85" s="186"/>
       <c r="C85" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D85" s="179">
         <v>2</v>
@@ -12330,14 +12330,14 @@
     </row>
     <row r="86" spans="1:61" ht="17" customHeight="1">
       <c r="A86" s="176" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B86" s="177">
         <f t="shared" si="15"/>
         <v>360</v>
       </c>
       <c r="C86" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D86" s="179">
         <v>1</v>
@@ -12456,11 +12456,11 @@
     </row>
     <row r="87" spans="1:61" ht="17" customHeight="1">
       <c r="A87" s="176" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B87" s="186"/>
       <c r="C87" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D87" s="179">
         <v>2</v>
@@ -12525,14 +12525,14 @@
     </row>
     <row r="88" spans="1:61" ht="17" customHeight="1">
       <c r="A88" s="176" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B88" s="177">
         <f t="shared" si="28"/>
         <v>375</v>
       </c>
       <c r="C88" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D88" s="179">
         <v>1</v>
@@ -12649,14 +12649,14 @@
     </row>
     <row r="89" spans="1:61" ht="17" customHeight="1">
       <c r="A89" s="176" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B89" s="177">
         <f>15*30</f>
         <v>450</v>
       </c>
       <c r="C89" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D89" s="179">
         <v>1</v>
@@ -12773,11 +12773,11 @@
     </row>
     <row r="90" spans="1:61" ht="17" customHeight="1">
       <c r="A90" s="176" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B90" s="186"/>
       <c r="C90" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D90" s="179">
         <v>2</v>
@@ -12842,14 +12842,14 @@
     </row>
     <row r="91" spans="1:61" ht="16" customHeight="1">
       <c r="A91" s="203" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B91" s="204">
         <f>15*35</f>
         <v>525</v>
       </c>
       <c r="C91" s="205" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D91" s="179">
         <v>1</v>
@@ -12958,11 +12958,11 @@
     </row>
     <row r="92" spans="1:61" ht="17.5" customHeight="1">
       <c r="A92" s="206" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B92" s="207"/>
       <c r="C92" s="208" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D92" s="209">
         <v>2</v>
@@ -13090,57 +13090,522 @@
     </row>
   </sheetData>
   <mergeCells count="591">
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="AC29:AD29"/>
+    <mergeCell ref="BE11:BF11"/>
+    <mergeCell ref="BC19:BD19"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BC14:BD14"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="BA8:BB8"/>
+    <mergeCell ref="BE1:BF1"/>
+    <mergeCell ref="AM20:AN20"/>
+    <mergeCell ref="BC2:BD2"/>
+    <mergeCell ref="AW29:AX29"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AM19:AN19"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="AQ14:AR14"/>
+    <mergeCell ref="AS6:AT6"/>
+    <mergeCell ref="AQ13:AR13"/>
+    <mergeCell ref="AM29:AN29"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BC12:BD12"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="BC9:BD9"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="BA11:BB11"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="BA10:BB10"/>
+    <mergeCell ref="BA13:BB13"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="AO13:AP13"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="BC7:BD7"/>
+    <mergeCell ref="BC29:BD29"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="BE29:BF29"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="AS29:AT29"/>
+    <mergeCell ref="BA19:BB19"/>
+    <mergeCell ref="BC11:BD11"/>
+    <mergeCell ref="BC8:BD8"/>
+    <mergeCell ref="BC10:BD10"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="AO19:AP19"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="BA14:BB14"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AY10:AZ10"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="BA12:BB12"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="AW10:AX10"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AW7:AX7"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="AW6:AX6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="AU11:AV11"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AS19:AT19"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="BA1:BB1"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="AC27:AD27"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="BE14:BF14"/>
+    <mergeCell ref="BE13:BF13"/>
+    <mergeCell ref="BE12:BF12"/>
+    <mergeCell ref="AW8:AX8"/>
+    <mergeCell ref="BE19:BF19"/>
+    <mergeCell ref="BE9:BF9"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="AU7:AV7"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="BE10:BF10"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AS14:AT14"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AM14:AN14"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="AS11:AT11"/>
+    <mergeCell ref="AS10:AT10"/>
+    <mergeCell ref="BC13:BD13"/>
+    <mergeCell ref="AW19:AX19"/>
+    <mergeCell ref="AY11:AZ11"/>
+    <mergeCell ref="AS12:AT12"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AU19:AV19"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AU29:AV29"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="BA29:BB29"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AM13:AN13"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AS13:AT13"/>
+    <mergeCell ref="AO29:AP29"/>
+    <mergeCell ref="AU14:AV14"/>
+    <mergeCell ref="AU12:AV12"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AQ29:AR29"/>
+    <mergeCell ref="AU13:AV13"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AM10:AN10"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AO10:AP10"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AQ10:AR10"/>
+    <mergeCell ref="AQ19:AR19"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="BA7:BB7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AW9:AX9"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AQ9:AR9"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU9:AV9"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AU10:AV10"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AO15:AP15"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AO14:AP14"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="M22:N22"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="Q30:R30"/>
@@ -13165,522 +13630,57 @@
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="S16:T16"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AO15:AP15"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AO14:AP14"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AQ10:AR10"/>
-    <mergeCell ref="AQ19:AR19"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="BA7:BB7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU9:AV9"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AU10:AV10"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AQ29:AR29"/>
-    <mergeCell ref="AU13:AV13"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AM10:AN10"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AO10:AP10"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AU29:AV29"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="BA29:BB29"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="AM16:AN16"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AM13:AN13"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AS13:AT13"/>
-    <mergeCell ref="AO29:AP29"/>
-    <mergeCell ref="AU14:AV14"/>
-    <mergeCell ref="AU12:AV12"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AS11:AT11"/>
-    <mergeCell ref="AS10:AT10"/>
-    <mergeCell ref="BC13:BD13"/>
-    <mergeCell ref="AW19:AX19"/>
-    <mergeCell ref="AY11:AZ11"/>
-    <mergeCell ref="AS12:AT12"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AU19:AV19"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="BE14:BF14"/>
-    <mergeCell ref="BE13:BF13"/>
-    <mergeCell ref="BE12:BF12"/>
-    <mergeCell ref="AW8:AX8"/>
-    <mergeCell ref="BE19:BF19"/>
-    <mergeCell ref="BE9:BF9"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AU8:AV8"/>
-    <mergeCell ref="AU7:AV7"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="BE10:BF10"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AS14:AT14"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="BA1:BB1"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="AC27:AD27"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="BA12:BB12"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="AW10:AX10"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AW7:AX7"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="AW6:AX6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="AU11:AV11"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AS19:AT19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="BA14:BB14"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AY10:AZ10"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="BE29:BF29"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="AS29:AT29"/>
-    <mergeCell ref="BA19:BB19"/>
-    <mergeCell ref="BC11:BD11"/>
-    <mergeCell ref="BC8:BD8"/>
-    <mergeCell ref="BC10:BD10"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="AO19:AP19"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="BC7:BD7"/>
-    <mergeCell ref="BC29:BD29"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BC12:BD12"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="BC9:BD9"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="BA11:BB11"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="BA10:BB10"/>
-    <mergeCell ref="BA13:BB13"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="AO13:AP13"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AC29:AD29"/>
-    <mergeCell ref="BE11:BF11"/>
-    <mergeCell ref="BC19:BD19"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BC14:BD14"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="BA8:BB8"/>
-    <mergeCell ref="BE1:BF1"/>
-    <mergeCell ref="AM20:AN20"/>
-    <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="AW29:AX29"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AM19:AN19"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="AQ14:AR14"/>
-    <mergeCell ref="AS6:AT6"/>
-    <mergeCell ref="AQ13:AR13"/>
-    <mergeCell ref="AM29:AN29"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:BD5 AM32:AM35 AS32:AS35 AU32:AU35 AG36 AM36 AS36 AU36 AG37 AM37 AS37 AU37 AG38 AM38 AS38 AU38 AG39 AM39 AS39 AU39 AG40 AM40 AS40 AU40 AG41 AM41 AS41 AU41 AG42 AM42 AS42 AU42 AG43 AM43 AS43 AU43 AG44 AM44 AS44 AU44 AG45 AM45 AS45 AU45 AG46 AM46 AS46 AU46 AG47 AM47 AS47 AU47 AG48 AM48 AS48 AU48 AG49 AM49 AS49 AU49 AG50 AM50 AS50 AU50 AG51 AM51 AS51 AU51 AE52 AG52 AM52 AS52 AU52 AE53 AG53 AM53 AS53 AU53 AG54 AM54 AS54 AU54 AG55 AM55 AS55 AU55 AG56 AM56 AS56 AU56 AG57 AM57 AS57 AU57 AG58 AM58 AS58 AU58 AG59 AM59 AS59 AU59 AG60 AM60 AS60 AU60 AG61 AM61 AS61 AU61 AG62 AM62:AM93 AS62:AS93 AU62:AU76">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
